--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>276.5</v>
+        <v>278.3</v>
       </c>
       <c r="C2" t="n">
-        <v>275.6</v>
+        <v>278.3</v>
       </c>
       <c r="D2" t="n">
-        <v>276.5</v>
+        <v>278.3</v>
       </c>
       <c r="E2" t="n">
-        <v>275.6</v>
+        <v>278.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1105.8581</v>
+        <v>71.736</v>
       </c>
       <c r="G2" t="n">
-        <v>285.0883333333334</v>
+        <v>285.2783333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="C3" t="n">
         <v>275.6</v>
       </c>
-      <c r="C3" t="n">
-        <v>275.5</v>
-      </c>
       <c r="D3" t="n">
-        <v>276.2</v>
+        <v>276.5</v>
       </c>
       <c r="E3" t="n">
-        <v>275.5</v>
+        <v>275.6</v>
       </c>
       <c r="F3" t="n">
-        <v>3169.8348</v>
+        <v>1105.8581</v>
       </c>
       <c r="G3" t="n">
-        <v>284.9450000000001</v>
+        <v>285.0883333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="C4" t="n">
         <v>275.5</v>
       </c>
-      <c r="C4" t="n">
-        <v>275.4</v>
-      </c>
       <c r="D4" t="n">
+        <v>276.2</v>
+      </c>
+      <c r="E4" t="n">
         <v>275.5</v>
       </c>
-      <c r="E4" t="n">
-        <v>267.2</v>
-      </c>
       <c r="F4" t="n">
-        <v>41396.3372</v>
+        <v>3169.8348</v>
       </c>
       <c r="G4" t="n">
-        <v>284.8083333333335</v>
+        <v>284.9450000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271.2</v>
+        <v>275.5</v>
       </c>
       <c r="C5" t="n">
-        <v>277.7</v>
+        <v>275.4</v>
       </c>
       <c r="D5" t="n">
-        <v>277.7</v>
+        <v>275.5</v>
       </c>
       <c r="E5" t="n">
-        <v>271</v>
+        <v>267.2</v>
       </c>
       <c r="F5" t="n">
-        <v>4467.1574</v>
+        <v>41396.3372</v>
       </c>
       <c r="G5" t="n">
-        <v>284.7033333333335</v>
+        <v>284.8083333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>271</v>
+        <v>271.2</v>
       </c>
       <c r="C6" t="n">
-        <v>275.8</v>
+        <v>277.7</v>
       </c>
       <c r="D6" t="n">
-        <v>275.9</v>
+        <v>277.7</v>
       </c>
       <c r="E6" t="n">
         <v>271</v>
       </c>
       <c r="F6" t="n">
-        <v>750</v>
+        <v>4467.1574</v>
       </c>
       <c r="G6" t="n">
-        <v>284.5666666666668</v>
+        <v>284.7033333333335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>274.7</v>
+        <v>271</v>
       </c>
       <c r="C7" t="n">
-        <v>274.7</v>
+        <v>275.8</v>
       </c>
       <c r="D7" t="n">
-        <v>274.7</v>
+        <v>275.9</v>
       </c>
       <c r="E7" t="n">
-        <v>274.7</v>
+        <v>271</v>
       </c>
       <c r="F7" t="n">
-        <v>14124.9636</v>
+        <v>750</v>
       </c>
       <c r="G7" t="n">
-        <v>284.3616666666668</v>
+        <v>284.5666666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>274.8</v>
+        <v>274.7</v>
       </c>
       <c r="C8" t="n">
-        <v>274.8</v>
+        <v>274.7</v>
       </c>
       <c r="D8" t="n">
-        <v>274.8</v>
+        <v>274.7</v>
       </c>
       <c r="E8" t="n">
-        <v>274.8</v>
+        <v>274.7</v>
       </c>
       <c r="F8" t="n">
-        <v>6810.4505</v>
+        <v>14124.9636</v>
       </c>
       <c r="G8" t="n">
-        <v>284.1550000000001</v>
+        <v>284.3616666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>274.8</v>
       </c>
       <c r="C9" t="n">
-        <v>267.3</v>
+        <v>274.8</v>
       </c>
       <c r="D9" t="n">
         <v>274.8</v>
       </c>
       <c r="E9" t="n">
-        <v>267.3</v>
+        <v>274.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1719.42</v>
+        <v>6810.4505</v>
       </c>
       <c r="G9" t="n">
-        <v>283.8433333333335</v>
+        <v>284.1550000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>273.9</v>
+        <v>274.8</v>
       </c>
       <c r="C10" t="n">
-        <v>273.9</v>
+        <v>267.3</v>
       </c>
       <c r="D10" t="n">
-        <v>273.9</v>
+        <v>274.8</v>
       </c>
       <c r="E10" t="n">
-        <v>273.9</v>
+        <v>267.3</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>1719.42</v>
       </c>
       <c r="G10" t="n">
-        <v>283.6416666666668</v>
+        <v>283.8433333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>273.9</v>
       </c>
       <c r="F11" t="n">
-        <v>479.1712</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4433333333336</v>
+        <v>283.6416666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>273.9</v>
       </c>
       <c r="C12" t="n">
-        <v>268</v>
+        <v>273.9</v>
       </c>
       <c r="D12" t="n">
         <v>273.9</v>
       </c>
       <c r="E12" t="n">
-        <v>268</v>
+        <v>273.9</v>
       </c>
       <c r="F12" t="n">
-        <v>3517.72</v>
+        <v>479.1712</v>
       </c>
       <c r="G12" t="n">
-        <v>283.1466666666669</v>
+        <v>283.4433333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>269</v>
+        <v>273.9</v>
       </c>
       <c r="C13" t="n">
-        <v>267.3</v>
+        <v>268</v>
       </c>
       <c r="D13" t="n">
-        <v>269</v>
+        <v>273.9</v>
       </c>
       <c r="E13" t="n">
-        <v>267.3</v>
+        <v>268</v>
       </c>
       <c r="F13" t="n">
-        <v>3464.1993</v>
+        <v>3517.72</v>
       </c>
       <c r="G13" t="n">
-        <v>282.7766666666669</v>
+        <v>283.1466666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>268.3</v>
+        <v>269</v>
       </c>
       <c r="C14" t="n">
-        <v>268.3</v>
+        <v>267.3</v>
       </c>
       <c r="D14" t="n">
-        <v>268.3</v>
+        <v>269</v>
       </c>
       <c r="E14" t="n">
-        <v>268.3</v>
+        <v>267.3</v>
       </c>
       <c r="F14" t="n">
-        <v>250</v>
+        <v>3464.1993</v>
       </c>
       <c r="G14" t="n">
-        <v>282.5116666666669</v>
+        <v>282.7766666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>268.3</v>
       </c>
       <c r="C15" t="n">
-        <v>267.2</v>
+        <v>268.3</v>
       </c>
       <c r="D15" t="n">
         <v>268.3</v>
       </c>
       <c r="E15" t="n">
-        <v>267.2</v>
+        <v>268.3</v>
       </c>
       <c r="F15" t="n">
-        <v>5756.647</v>
+        <v>250</v>
       </c>
       <c r="G15" t="n">
-        <v>282.1150000000002</v>
+        <v>282.5116666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>267.2</v>
+        <v>268.3</v>
       </c>
       <c r="C16" t="n">
         <v>267.2</v>
       </c>
       <c r="D16" t="n">
-        <v>267.2</v>
+        <v>268.3</v>
       </c>
       <c r="E16" t="n">
         <v>267.2</v>
       </c>
       <c r="F16" t="n">
-        <v>472.3285</v>
+        <v>5756.647</v>
       </c>
       <c r="G16" t="n">
-        <v>281.7183333333335</v>
+        <v>282.1150000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>267.2</v>
       </c>
       <c r="C17" t="n">
-        <v>267</v>
+        <v>267.2</v>
       </c>
       <c r="D17" t="n">
         <v>267.2</v>
       </c>
       <c r="E17" t="n">
-        <v>267</v>
+        <v>267.2</v>
       </c>
       <c r="F17" t="n">
-        <v>998.9171</v>
+        <v>472.3285</v>
       </c>
       <c r="G17" t="n">
-        <v>281.3016666666669</v>
+        <v>281.7183333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="C18" t="n">
         <v>267</v>
       </c>
-      <c r="C18" t="n">
-        <v>267.1</v>
-      </c>
       <c r="D18" t="n">
-        <v>267.1</v>
+        <v>267.2</v>
       </c>
       <c r="E18" t="n">
         <v>267</v>
       </c>
       <c r="F18" t="n">
-        <v>226.12</v>
+        <v>998.9171</v>
       </c>
       <c r="G18" t="n">
-        <v>280.9216666666669</v>
+        <v>281.3016666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>267</v>
       </c>
       <c r="C19" t="n">
-        <v>266.9</v>
+        <v>267.1</v>
       </c>
       <c r="D19" t="n">
+        <v>267.1</v>
+      </c>
+      <c r="E19" t="n">
         <v>267</v>
       </c>
-      <c r="E19" t="n">
-        <v>266.9</v>
-      </c>
       <c r="F19" t="n">
-        <v>144.3448</v>
+        <v>226.12</v>
       </c>
       <c r="G19" t="n">
-        <v>280.5533333333335</v>
+        <v>280.9216666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>264.6</v>
+        <v>267</v>
       </c>
       <c r="C20" t="n">
-        <v>264.6</v>
+        <v>266.9</v>
       </c>
       <c r="D20" t="n">
-        <v>264.6</v>
+        <v>267</v>
       </c>
       <c r="E20" t="n">
-        <v>264.6</v>
+        <v>266.9</v>
       </c>
       <c r="F20" t="n">
-        <v>144.02</v>
+        <v>144.3448</v>
       </c>
       <c r="G20" t="n">
-        <v>280.1466666666668</v>
+        <v>280.5533333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>267.7</v>
+        <v>264.6</v>
       </c>
       <c r="C21" t="n">
-        <v>267.7</v>
+        <v>264.6</v>
       </c>
       <c r="D21" t="n">
-        <v>267.7</v>
+        <v>264.6</v>
       </c>
       <c r="E21" t="n">
-        <v>267.7</v>
+        <v>264.6</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>144.02</v>
       </c>
       <c r="G21" t="n">
-        <v>279.7766666666668</v>
+        <v>280.1466666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>267.6</v>
+        <v>267.7</v>
       </c>
       <c r="C22" t="n">
-        <v>267.6</v>
+        <v>267.7</v>
       </c>
       <c r="D22" t="n">
-        <v>268.9</v>
+        <v>267.7</v>
       </c>
       <c r="E22" t="n">
-        <v>267.5</v>
+        <v>267.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2433.9999</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>279.4050000000001</v>
+        <v>279.7766666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="D23" t="n">
         <v>268.9</v>
       </c>
-      <c r="C23" t="n">
-        <v>270</v>
-      </c>
-      <c r="D23" t="n">
-        <v>270</v>
-      </c>
       <c r="E23" t="n">
-        <v>268.9</v>
+        <v>267.5</v>
       </c>
       <c r="F23" t="n">
-        <v>706</v>
+        <v>2433.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>279.1050000000001</v>
+        <v>279.4050000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>268.6</v>
+        <v>268.9</v>
       </c>
       <c r="C24" t="n">
-        <v>268.6</v>
+        <v>270</v>
       </c>
       <c r="D24" t="n">
-        <v>268.6</v>
+        <v>270</v>
       </c>
       <c r="E24" t="n">
-        <v>268.6</v>
+        <v>268.9</v>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>706</v>
       </c>
       <c r="G24" t="n">
-        <v>278.7900000000001</v>
+        <v>279.1050000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>268.9</v>
+        <v>268.6</v>
       </c>
       <c r="C25" t="n">
-        <v>270</v>
+        <v>268.6</v>
       </c>
       <c r="D25" t="n">
-        <v>270</v>
+        <v>268.6</v>
       </c>
       <c r="E25" t="n">
-        <v>268.8</v>
+        <v>268.6</v>
       </c>
       <c r="F25" t="n">
-        <v>974</v>
+        <v>250</v>
       </c>
       <c r="G25" t="n">
-        <v>278.4983333333334</v>
+        <v>278.7900000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1279,16 +1279,16 @@
         <v>270</v>
       </c>
       <c r="D26" t="n">
-        <v>270.1</v>
+        <v>270</v>
       </c>
       <c r="E26" t="n">
-        <v>268.9</v>
+        <v>268.8</v>
       </c>
       <c r="F26" t="n">
-        <v>2788.1708</v>
+        <v>974</v>
       </c>
       <c r="G26" t="n">
-        <v>278.2066666666668</v>
+        <v>278.4983333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>270.1</v>
+        <v>268.9</v>
       </c>
       <c r="C27" t="n">
-        <v>270.1</v>
+        <v>270</v>
       </c>
       <c r="D27" t="n">
         <v>270.1</v>
       </c>
       <c r="E27" t="n">
-        <v>270.1</v>
+        <v>268.9</v>
       </c>
       <c r="F27" t="n">
-        <v>144.3384</v>
+        <v>2788.1708</v>
       </c>
       <c r="G27" t="n">
-        <v>277.9166666666667</v>
+        <v>278.2066666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>270.1</v>
       </c>
       <c r="C28" t="n">
-        <v>272.6</v>
+        <v>270.1</v>
       </c>
       <c r="D28" t="n">
-        <v>272.6</v>
+        <v>270.1</v>
       </c>
       <c r="E28" t="n">
         <v>270.1</v>
       </c>
       <c r="F28" t="n">
-        <v>249</v>
+        <v>144.3384</v>
       </c>
       <c r="G28" t="n">
-        <v>277.6683333333334</v>
+        <v>277.9166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="C29" t="n">
-        <v>265.1</v>
+        <v>272.6</v>
       </c>
       <c r="D29" t="n">
-        <v>268.6</v>
+        <v>272.6</v>
       </c>
       <c r="E29" t="n">
-        <v>265.1</v>
+        <v>270.1</v>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>249</v>
       </c>
       <c r="G29" t="n">
-        <v>277.2833333333334</v>
+        <v>277.6683333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>271.3</v>
+        <v>268.6</v>
       </c>
       <c r="C30" t="n">
-        <v>271.5</v>
+        <v>265.1</v>
       </c>
       <c r="D30" t="n">
-        <v>272.3</v>
+        <v>268.6</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3</v>
+        <v>265.1</v>
       </c>
       <c r="F30" t="n">
-        <v>598.9999</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>277.025</v>
+        <v>277.2833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>270</v>
+        <v>271.3</v>
       </c>
       <c r="C31" t="n">
-        <v>270</v>
+        <v>271.5</v>
       </c>
       <c r="D31" t="n">
-        <v>270</v>
+        <v>272.3</v>
       </c>
       <c r="E31" t="n">
-        <v>270</v>
+        <v>271.3</v>
       </c>
       <c r="F31" t="n">
-        <v>414.4338</v>
+        <v>598.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>276.7916666666667</v>
+        <v>277.025</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>270</v>
       </c>
       <c r="F32" t="n">
-        <v>11.8</v>
+        <v>414.4338</v>
       </c>
       <c r="G32" t="n">
-        <v>276.565</v>
+        <v>276.7916666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>270</v>
       </c>
       <c r="C33" t="n">
-        <v>268.1</v>
+        <v>270</v>
       </c>
       <c r="D33" t="n">
         <v>270</v>
       </c>
       <c r="E33" t="n">
-        <v>268.1</v>
+        <v>270</v>
       </c>
       <c r="F33" t="n">
-        <v>69.90000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="G33" t="n">
-        <v>276.3066666666667</v>
+        <v>276.565</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>268.2</v>
+        <v>270</v>
       </c>
       <c r="C34" t="n">
-        <v>268.2</v>
+        <v>268.1</v>
       </c>
       <c r="D34" t="n">
-        <v>268.2</v>
+        <v>270</v>
       </c>
       <c r="E34" t="n">
-        <v>268.2</v>
+        <v>268.1</v>
       </c>
       <c r="F34" t="n">
-        <v>181</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>276.0483333333333</v>
+        <v>276.3066666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>267.2</v>
+        <v>268.2</v>
       </c>
       <c r="C35" t="n">
-        <v>264.5</v>
+        <v>268.2</v>
       </c>
       <c r="D35" t="n">
-        <v>267.2</v>
+        <v>268.2</v>
       </c>
       <c r="E35" t="n">
-        <v>264.5</v>
+        <v>268.2</v>
       </c>
       <c r="F35" t="n">
-        <v>2159.57</v>
+        <v>181</v>
       </c>
       <c r="G35" t="n">
-        <v>275.7283333333334</v>
+        <v>276.0483333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>266</v>
+        <v>267.2</v>
       </c>
       <c r="C36" t="n">
         <v>264.5</v>
       </c>
       <c r="D36" t="n">
-        <v>266</v>
+        <v>267.2</v>
       </c>
       <c r="E36" t="n">
         <v>264.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1439</v>
+        <v>2159.57</v>
       </c>
       <c r="G36" t="n">
-        <v>275.4083333333334</v>
+        <v>275.7283333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>264.5</v>
+        <v>266</v>
       </c>
       <c r="C37" t="n">
         <v>264.5</v>
       </c>
       <c r="D37" t="n">
-        <v>264.5</v>
+        <v>266</v>
       </c>
       <c r="E37" t="n">
         <v>264.5</v>
       </c>
       <c r="F37" t="n">
-        <v>148.9999</v>
+        <v>1439</v>
       </c>
       <c r="G37" t="n">
-        <v>275.0883333333333</v>
+        <v>275.4083333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>264.5</v>
       </c>
       <c r="F38" t="n">
-        <v>485</v>
+        <v>148.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7683333333333</v>
+        <v>275.0883333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>269</v>
+        <v>264.5</v>
       </c>
       <c r="C39" t="n">
         <v>264.5</v>
       </c>
       <c r="D39" t="n">
-        <v>269</v>
+        <v>264.5</v>
       </c>
       <c r="E39" t="n">
         <v>264.5</v>
       </c>
       <c r="F39" t="n">
-        <v>242.81</v>
+        <v>485</v>
       </c>
       <c r="G39" t="n">
-        <v>274.45</v>
+        <v>274.7683333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>264.6</v>
+        <v>269</v>
       </c>
       <c r="C40" t="n">
-        <v>264.4</v>
+        <v>264.5</v>
       </c>
       <c r="D40" t="n">
-        <v>264.6</v>
+        <v>269</v>
       </c>
       <c r="E40" t="n">
-        <v>264.4</v>
+        <v>264.5</v>
       </c>
       <c r="F40" t="n">
-        <v>4863.525</v>
+        <v>242.81</v>
       </c>
       <c r="G40" t="n">
-        <v>274.1316666666667</v>
+        <v>274.45</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>265.2</v>
+        <v>264.6</v>
       </c>
       <c r="C41" t="n">
-        <v>265.2</v>
+        <v>264.4</v>
       </c>
       <c r="D41" t="n">
-        <v>265.2</v>
+        <v>264.6</v>
       </c>
       <c r="E41" t="n">
-        <v>265.2</v>
+        <v>264.4</v>
       </c>
       <c r="F41" t="n">
-        <v>980.0037</v>
+        <v>4863.525</v>
       </c>
       <c r="G41" t="n">
-        <v>273.8433333333334</v>
+        <v>274.1316666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>266.9</v>
+        <v>265.2</v>
       </c>
       <c r="C42" t="n">
-        <v>266.9</v>
+        <v>265.2</v>
       </c>
       <c r="D42" t="n">
-        <v>266.9</v>
+        <v>265.2</v>
       </c>
       <c r="E42" t="n">
-        <v>266.9</v>
+        <v>265.2</v>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>980.0037</v>
       </c>
       <c r="G42" t="n">
-        <v>273.5833333333334</v>
+        <v>273.8433333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,38 +1868,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>266.8</v>
+        <v>266.9</v>
       </c>
       <c r="C43" t="n">
-        <v>266.8</v>
+        <v>266.9</v>
       </c>
       <c r="D43" t="n">
         <v>266.9</v>
       </c>
       <c r="E43" t="n">
-        <v>266</v>
+        <v>266.9</v>
       </c>
       <c r="F43" t="n">
-        <v>5024.7318</v>
+        <v>250</v>
       </c>
       <c r="G43" t="n">
-        <v>273.3633333333334</v>
+        <v>273.5833333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>266.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1909,38 +1903,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>266.9</v>
+        <v>266.8</v>
       </c>
       <c r="C44" t="n">
-        <v>266.9</v>
+        <v>266.8</v>
       </c>
       <c r="D44" t="n">
         <v>266.9</v>
       </c>
       <c r="E44" t="n">
-        <v>266.9</v>
+        <v>266</v>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>5024.7318</v>
       </c>
       <c r="G44" t="n">
-        <v>272.9833333333334</v>
+        <v>273.3633333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>266.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,38 +1938,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>267.5</v>
+        <v>266.9</v>
       </c>
       <c r="C45" t="n">
-        <v>267.5</v>
+        <v>266.9</v>
       </c>
       <c r="D45" t="n">
-        <v>267.5</v>
+        <v>266.9</v>
       </c>
       <c r="E45" t="n">
-        <v>267.5</v>
+        <v>266.9</v>
       </c>
       <c r="F45" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>272.8483333333334</v>
+        <v>272.9833333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>266.9</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1994,19 +1976,19 @@
         <v>267.5</v>
       </c>
       <c r="C46" t="n">
-        <v>267.6</v>
+        <v>267.5</v>
       </c>
       <c r="D46" t="n">
-        <v>267.6</v>
+        <v>267.5</v>
       </c>
       <c r="E46" t="n">
         <v>267.5</v>
       </c>
       <c r="F46" t="n">
-        <v>389.1167</v>
+        <v>56</v>
       </c>
       <c r="G46" t="n">
-        <v>272.5283333333334</v>
+        <v>272.8483333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2016,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2030,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>267.6</v>
+        <v>267.5</v>
       </c>
       <c r="C47" t="n">
         <v>267.6</v>
@@ -2039,13 +2017,13 @@
         <v>267.6</v>
       </c>
       <c r="E47" t="n">
-        <v>267.6</v>
+        <v>267.5</v>
       </c>
       <c r="F47" t="n">
-        <v>25.961</v>
+        <v>389.1167</v>
       </c>
       <c r="G47" t="n">
-        <v>272.2216666666667</v>
+        <v>272.5283333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2069,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>268.7</v>
+        <v>267.6</v>
       </c>
       <c r="C48" t="n">
-        <v>269.8</v>
+        <v>267.6</v>
       </c>
       <c r="D48" t="n">
-        <v>269.8</v>
+        <v>267.6</v>
       </c>
       <c r="E48" t="n">
-        <v>268.7</v>
+        <v>267.6</v>
       </c>
       <c r="F48" t="n">
-        <v>2995.6824</v>
+        <v>25.961</v>
       </c>
       <c r="G48" t="n">
-        <v>271.9366666666667</v>
+        <v>272.2216666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="C49" t="n">
         <v>269.8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>267.7</v>
       </c>
       <c r="D49" t="n">
         <v>269.8</v>
       </c>
       <c r="E49" t="n">
-        <v>267.7</v>
+        <v>268.7</v>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2995.6824</v>
       </c>
       <c r="G49" t="n">
-        <v>271.6633333333334</v>
+        <v>271.9366666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2133,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2150,19 +2116,19 @@
         <v>269.8</v>
       </c>
       <c r="C50" t="n">
-        <v>269.8</v>
+        <v>267.7</v>
       </c>
       <c r="D50" t="n">
         <v>269.8</v>
       </c>
       <c r="E50" t="n">
-        <v>269.8</v>
+        <v>267.7</v>
       </c>
       <c r="F50" t="n">
-        <v>5159.5802</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="n">
-        <v>271.4466666666667</v>
+        <v>271.6633333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2172,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2186,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>267.8</v>
+        <v>269.8</v>
       </c>
       <c r="C51" t="n">
-        <v>267.8</v>
+        <v>269.8</v>
       </c>
       <c r="D51" t="n">
-        <v>267.8</v>
+        <v>269.8</v>
       </c>
       <c r="E51" t="n">
-        <v>267.8</v>
+        <v>269.8</v>
       </c>
       <c r="F51" t="n">
-        <v>1675.04</v>
+        <v>5159.5802</v>
       </c>
       <c r="G51" t="n">
-        <v>271.1783333333334</v>
+        <v>271.4466666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2211,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2225,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>268</v>
+        <v>267.8</v>
       </c>
       <c r="C52" t="n">
-        <v>270</v>
+        <v>267.8</v>
       </c>
       <c r="D52" t="n">
-        <v>270</v>
+        <v>267.8</v>
       </c>
       <c r="E52" t="n">
-        <v>268</v>
+        <v>267.8</v>
       </c>
       <c r="F52" t="n">
-        <v>3585.1624</v>
+        <v>1675.04</v>
       </c>
       <c r="G52" t="n">
-        <v>270.9650000000001</v>
+        <v>271.1783333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2250,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2264,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>270.1</v>
+        <v>268</v>
       </c>
       <c r="C53" t="n">
-        <v>270.1</v>
+        <v>270</v>
       </c>
       <c r="D53" t="n">
-        <v>270.1</v>
+        <v>270</v>
       </c>
       <c r="E53" t="n">
-        <v>270.1</v>
+        <v>268</v>
       </c>
       <c r="F53" t="n">
-        <v>117.724</v>
+        <v>3585.1624</v>
       </c>
       <c r="G53" t="n">
-        <v>270.6733333333334</v>
+        <v>270.9650000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2289,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2306,19 +2256,19 @@
         <v>270.1</v>
       </c>
       <c r="C54" t="n">
-        <v>270.4</v>
+        <v>270.1</v>
       </c>
       <c r="D54" t="n">
-        <v>270.4</v>
+        <v>270.1</v>
       </c>
       <c r="E54" t="n">
         <v>270.1</v>
       </c>
       <c r="F54" t="n">
-        <v>951.05</v>
+        <v>117.724</v>
       </c>
       <c r="G54" t="n">
-        <v>270.385</v>
+        <v>270.6733333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2328,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2342,10 +2288,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="C55" t="n">
         <v>270.4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>270.1</v>
       </c>
       <c r="D55" t="n">
         <v>270.4</v>
@@ -2354,10 +2300,10 @@
         <v>270.1</v>
       </c>
       <c r="F55" t="n">
-        <v>869.4298</v>
+        <v>951.05</v>
       </c>
       <c r="G55" t="n">
-        <v>270.195</v>
+        <v>270.385</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2367,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2381,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>270.2</v>
+        <v>270.4</v>
       </c>
       <c r="C56" t="n">
-        <v>270.2</v>
+        <v>270.1</v>
       </c>
       <c r="D56" t="n">
-        <v>270.2</v>
+        <v>270.4</v>
       </c>
       <c r="E56" t="n">
-        <v>270.2</v>
+        <v>270.1</v>
       </c>
       <c r="F56" t="n">
-        <v>2359.89</v>
+        <v>869.4298</v>
       </c>
       <c r="G56" t="n">
-        <v>269.9233333333333</v>
+        <v>270.195</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2432,10 +2370,10 @@
         <v>270.2</v>
       </c>
       <c r="F57" t="n">
-        <v>1525.0701</v>
+        <v>2359.89</v>
       </c>
       <c r="G57" t="n">
-        <v>269.6933333333334</v>
+        <v>269.9233333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2445,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2462,19 +2396,19 @@
         <v>270.2</v>
       </c>
       <c r="C58" t="n">
-        <v>270.1</v>
+        <v>270.2</v>
       </c>
       <c r="D58" t="n">
         <v>270.2</v>
       </c>
       <c r="E58" t="n">
-        <v>270.1</v>
+        <v>270.2</v>
       </c>
       <c r="F58" t="n">
-        <v>21445.1432</v>
+        <v>1525.0701</v>
       </c>
       <c r="G58" t="n">
-        <v>269.495</v>
+        <v>269.6933333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2484,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>270.5</v>
+        <v>270.2</v>
       </c>
       <c r="C59" t="n">
-        <v>270.5</v>
+        <v>270.1</v>
       </c>
       <c r="D59" t="n">
-        <v>270.5</v>
+        <v>270.2</v>
       </c>
       <c r="E59" t="n">
-        <v>270.5</v>
+        <v>270.1</v>
       </c>
       <c r="F59" t="n">
-        <v>439.1442</v>
+        <v>21445.1432</v>
       </c>
       <c r="G59" t="n">
-        <v>269.395</v>
+        <v>269.495</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2523,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2537,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>270.9</v>
+        <v>270.5</v>
       </c>
       <c r="C60" t="n">
-        <v>270.9</v>
+        <v>270.5</v>
       </c>
       <c r="D60" t="n">
-        <v>270.9</v>
+        <v>270.5</v>
       </c>
       <c r="E60" t="n">
-        <v>270.9</v>
+        <v>270.5</v>
       </c>
       <c r="F60" t="n">
-        <v>52.8009</v>
+        <v>439.1442</v>
       </c>
       <c r="G60" t="n">
-        <v>269.3166666666667</v>
+        <v>269.395</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2588,10 +2510,10 @@
         <v>270.9</v>
       </c>
       <c r="F61" t="n">
-        <v>31.95</v>
+        <v>52.8009</v>
       </c>
       <c r="G61" t="n">
-        <v>269.1933333333334</v>
+        <v>269.3166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2601,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2615,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>271.5</v>
+        <v>270.9</v>
       </c>
       <c r="C62" t="n">
-        <v>270.5</v>
+        <v>270.9</v>
       </c>
       <c r="D62" t="n">
-        <v>271.5</v>
+        <v>270.9</v>
       </c>
       <c r="E62" t="n">
-        <v>270.5</v>
+        <v>270.9</v>
       </c>
       <c r="F62" t="n">
-        <v>542.659</v>
+        <v>31.95</v>
       </c>
       <c r="G62" t="n">
-        <v>269.1083333333333</v>
+        <v>269.1933333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2640,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2654,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>270.6</v>
+        <v>271.5</v>
       </c>
       <c r="C63" t="n">
-        <v>270.6</v>
+        <v>270.5</v>
       </c>
       <c r="D63" t="n">
-        <v>270.6</v>
+        <v>271.5</v>
       </c>
       <c r="E63" t="n">
-        <v>270.6</v>
+        <v>270.5</v>
       </c>
       <c r="F63" t="n">
-        <v>163.654</v>
+        <v>542.659</v>
       </c>
       <c r="G63" t="n">
-        <v>269.0266666666667</v>
+        <v>269.1083333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2679,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2693,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="C64" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="D64" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="E64" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="F64" t="n">
-        <v>305.072</v>
+        <v>163.654</v>
       </c>
       <c r="G64" t="n">
-        <v>268.9450000000001</v>
+        <v>269.0266666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2718,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2732,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>270.1</v>
+        <v>270.5</v>
       </c>
       <c r="C65" t="n">
-        <v>270.1</v>
+        <v>270.5</v>
       </c>
       <c r="D65" t="n">
-        <v>270.1</v>
+        <v>270.5</v>
       </c>
       <c r="E65" t="n">
-        <v>270.1</v>
+        <v>270.5</v>
       </c>
       <c r="F65" t="n">
-        <v>3049</v>
+        <v>305.072</v>
       </c>
       <c r="G65" t="n">
-        <v>268.8183333333334</v>
+        <v>268.9450000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2757,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2783,10 +2685,10 @@
         <v>270.1</v>
       </c>
       <c r="F66" t="n">
-        <v>3342</v>
+        <v>3049</v>
       </c>
       <c r="G66" t="n">
-        <v>268.7233333333334</v>
+        <v>268.8183333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2796,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2822,10 +2720,10 @@
         <v>270.1</v>
       </c>
       <c r="F67" t="n">
-        <v>2416.38</v>
+        <v>3342</v>
       </c>
       <c r="G67" t="n">
-        <v>268.6466666666666</v>
+        <v>268.7233333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2835,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2849,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>271.5</v>
+        <v>270.1</v>
       </c>
       <c r="C68" t="n">
-        <v>271.5</v>
+        <v>270.1</v>
       </c>
       <c r="D68" t="n">
-        <v>271.5</v>
+        <v>270.1</v>
       </c>
       <c r="E68" t="n">
-        <v>271.5</v>
+        <v>270.1</v>
       </c>
       <c r="F68" t="n">
-        <v>36.832412523</v>
+        <v>2416.38</v>
       </c>
       <c r="G68" t="n">
-        <v>268.5916666666666</v>
+        <v>268.6466666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2874,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="C69" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="D69" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="E69" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="F69" t="n">
-        <v>4.57</v>
+        <v>36.832412523</v>
       </c>
       <c r="G69" t="n">
-        <v>268.6383333333333</v>
+        <v>268.5916666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2913,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2930,19 +2816,19 @@
         <v>270.1</v>
       </c>
       <c r="C70" t="n">
-        <v>268.5</v>
+        <v>270.1</v>
       </c>
       <c r="D70" t="n">
         <v>270.1</v>
       </c>
       <c r="E70" t="n">
-        <v>268.5</v>
+        <v>270.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2284</v>
+        <v>4.57</v>
       </c>
       <c r="G70" t="n">
-        <v>268.5483333333333</v>
+        <v>268.6383333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2952,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2966,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="C71" t="n">
-        <v>265.7</v>
+        <v>268.5</v>
       </c>
       <c r="D71" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="E71" t="n">
-        <v>265.7</v>
+        <v>268.5</v>
       </c>
       <c r="F71" t="n">
-        <v>6855</v>
+        <v>2284</v>
       </c>
       <c r="G71" t="n">
-        <v>268.4116666666667</v>
+        <v>268.5483333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2991,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3005,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>270.9</v>
+        <v>268.6</v>
       </c>
       <c r="C72" t="n">
-        <v>270.9</v>
+        <v>265.7</v>
       </c>
       <c r="D72" t="n">
-        <v>270.9</v>
+        <v>268.6</v>
       </c>
       <c r="E72" t="n">
-        <v>270.9</v>
+        <v>265.7</v>
       </c>
       <c r="F72" t="n">
-        <v>3.0098</v>
+        <v>6855</v>
       </c>
       <c r="G72" t="n">
-        <v>268.46</v>
+        <v>268.4116666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3030,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3056,10 +2930,10 @@
         <v>270.9</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>3.0098</v>
       </c>
       <c r="G73" t="n">
-        <v>268.52</v>
+        <v>268.46</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3069,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3083,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>271</v>
+        <v>270.9</v>
       </c>
       <c r="C74" t="n">
-        <v>271</v>
+        <v>270.9</v>
       </c>
       <c r="D74" t="n">
-        <v>271</v>
+        <v>270.9</v>
       </c>
       <c r="E74" t="n">
-        <v>271</v>
+        <v>270.9</v>
       </c>
       <c r="F74" t="n">
-        <v>5.1777</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>268.565</v>
+        <v>268.52</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3108,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3125,19 +2991,19 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>271.5</v>
+        <v>271</v>
       </c>
       <c r="D75" t="n">
-        <v>271.5</v>
+        <v>271</v>
       </c>
       <c r="E75" t="n">
         <v>271</v>
       </c>
       <c r="F75" t="n">
-        <v>22.5769</v>
+        <v>5.1777</v>
       </c>
       <c r="G75" t="n">
-        <v>268.6366666666667</v>
+        <v>268.565</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3147,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>271.5</v>
+        <v>271</v>
       </c>
       <c r="C76" t="n">
         <v>271.5</v>
@@ -3170,13 +3032,13 @@
         <v>271.5</v>
       </c>
       <c r="E76" t="n">
-        <v>271.5</v>
+        <v>271</v>
       </c>
       <c r="F76" t="n">
-        <v>10.4122</v>
+        <v>22.5769</v>
       </c>
       <c r="G76" t="n">
-        <v>268.7083333333333</v>
+        <v>268.6366666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3186,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3200,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>269.4</v>
+        <v>271.5</v>
       </c>
       <c r="C77" t="n">
-        <v>269.4</v>
+        <v>271.5</v>
       </c>
       <c r="D77" t="n">
-        <v>269.4</v>
+        <v>271.5</v>
       </c>
       <c r="E77" t="n">
-        <v>269.4</v>
+        <v>271.5</v>
       </c>
       <c r="F77" t="n">
-        <v>128.7417</v>
+        <v>10.4122</v>
       </c>
       <c r="G77" t="n">
-        <v>268.7483333333333</v>
+        <v>268.7083333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3225,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3239,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>269</v>
+        <v>269.4</v>
       </c>
       <c r="C78" t="n">
-        <v>269</v>
+        <v>269.4</v>
       </c>
       <c r="D78" t="n">
-        <v>269</v>
+        <v>269.4</v>
       </c>
       <c r="E78" t="n">
-        <v>269</v>
+        <v>269.4</v>
       </c>
       <c r="F78" t="n">
-        <v>14.22</v>
+        <v>128.7417</v>
       </c>
       <c r="G78" t="n">
-        <v>268.78</v>
+        <v>268.7483333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3264,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C79" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D79" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E79" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F79" t="n">
-        <v>2.0998</v>
+        <v>14.22</v>
       </c>
       <c r="G79" t="n">
-        <v>268.8483333333334</v>
+        <v>268.78</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3303,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3317,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C80" t="n">
-        <v>267.9</v>
+        <v>271</v>
       </c>
       <c r="D80" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E80" t="n">
-        <v>267.9</v>
+        <v>271</v>
       </c>
       <c r="F80" t="n">
-        <v>3473.6416</v>
+        <v>2.0998</v>
       </c>
       <c r="G80" t="n">
-        <v>268.9033333333334</v>
+        <v>268.8483333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3342,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C81" t="n">
-        <v>268</v>
+        <v>267.9</v>
       </c>
       <c r="D81" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E81" t="n">
-        <v>268</v>
+        <v>267.9</v>
       </c>
       <c r="F81" t="n">
-        <v>775.9456</v>
+        <v>3473.6416</v>
       </c>
       <c r="G81" t="n">
-        <v>268.9083333333334</v>
+        <v>268.9033333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3381,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3395,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>271.6</v>
+        <v>271</v>
       </c>
       <c r="C82" t="n">
-        <v>271.6</v>
+        <v>268</v>
       </c>
       <c r="D82" t="n">
-        <v>271.6</v>
+        <v>271</v>
       </c>
       <c r="E82" t="n">
-        <v>271.6</v>
+        <v>268</v>
       </c>
       <c r="F82" t="n">
-        <v>18.4094256259</v>
+        <v>775.9456</v>
       </c>
       <c r="G82" t="n">
-        <v>268.975</v>
+        <v>268.9083333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3420,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3434,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>269</v>
+        <v>271.6</v>
       </c>
       <c r="C83" t="n">
-        <v>268</v>
+        <v>271.6</v>
       </c>
       <c r="D83" t="n">
-        <v>269</v>
+        <v>271.6</v>
       </c>
       <c r="E83" t="n">
-        <v>268</v>
+        <v>271.6</v>
       </c>
       <c r="F83" t="n">
-        <v>426.909</v>
+        <v>18.4094256259</v>
       </c>
       <c r="G83" t="n">
-        <v>268.9416666666667</v>
+        <v>268.975</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3459,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3473,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>269</v>
+      </c>
+      <c r="C84" t="n">
         <v>268</v>
       </c>
-      <c r="C84" t="n">
-        <v>267.9</v>
-      </c>
       <c r="D84" t="n">
+        <v>269</v>
+      </c>
+      <c r="E84" t="n">
         <v>268</v>
       </c>
-      <c r="E84" t="n">
-        <v>267.9</v>
-      </c>
       <c r="F84" t="n">
-        <v>5091.2868</v>
+        <v>426.909</v>
       </c>
       <c r="G84" t="n">
-        <v>268.93</v>
+        <v>268.9416666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3498,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3512,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C85" t="n">
-        <v>271</v>
+        <v>267.9</v>
       </c>
       <c r="D85" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E85" t="n">
-        <v>270</v>
+        <v>267.9</v>
       </c>
       <c r="F85" t="n">
-        <v>32.503306642</v>
+        <v>5091.2868</v>
       </c>
       <c r="G85" t="n">
-        <v>268.9466666666667</v>
+        <v>268.93</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3537,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3551,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>269.2</v>
+        <v>270</v>
       </c>
       <c r="C86" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D86" t="n">
-        <v>269.2</v>
+        <v>271</v>
       </c>
       <c r="E86" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F86" t="n">
-        <v>5582.9835</v>
+        <v>32.503306642</v>
       </c>
       <c r="G86" t="n">
-        <v>268.9300000000001</v>
+        <v>268.9466666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3576,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3590,10 +3408,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="C87" t="n">
         <v>269</v>
-      </c>
-      <c r="C87" t="n">
-        <v>269.2</v>
       </c>
       <c r="D87" t="n">
         <v>269.2</v>
@@ -3602,10 +3420,10 @@
         <v>269</v>
       </c>
       <c r="F87" t="n">
-        <v>2225.2862</v>
+        <v>5582.9835</v>
       </c>
       <c r="G87" t="n">
-        <v>268.9150000000001</v>
+        <v>268.9300000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3615,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3629,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>269.6</v>
+        <v>269</v>
       </c>
       <c r="C88" t="n">
-        <v>269.6</v>
+        <v>269.2</v>
       </c>
       <c r="D88" t="n">
-        <v>269.6</v>
+        <v>269.2</v>
       </c>
       <c r="E88" t="n">
-        <v>269.6</v>
+        <v>269</v>
       </c>
       <c r="F88" t="n">
-        <v>895.7704</v>
+        <v>2225.2862</v>
       </c>
       <c r="G88" t="n">
-        <v>268.8650000000001</v>
+        <v>268.9150000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3654,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3668,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>270</v>
+        <v>269.6</v>
       </c>
       <c r="C89" t="n">
-        <v>270</v>
+        <v>269.6</v>
       </c>
       <c r="D89" t="n">
-        <v>270</v>
+        <v>269.6</v>
       </c>
       <c r="E89" t="n">
-        <v>270</v>
+        <v>269.6</v>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>895.7704</v>
       </c>
       <c r="G89" t="n">
-        <v>268.9466666666667</v>
+        <v>268.8650000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3693,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3719,10 +3525,10 @@
         <v>270</v>
       </c>
       <c r="F90" t="n">
-        <v>595.7704</v>
+        <v>300</v>
       </c>
       <c r="G90" t="n">
-        <v>268.9216666666667</v>
+        <v>268.9466666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3732,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3746,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>271.5</v>
+        <v>270</v>
       </c>
       <c r="C91" t="n">
-        <v>271.5</v>
+        <v>270</v>
       </c>
       <c r="D91" t="n">
-        <v>271.5</v>
+        <v>270</v>
       </c>
       <c r="E91" t="n">
-        <v>271.5</v>
+        <v>270</v>
       </c>
       <c r="F91" t="n">
-        <v>36</v>
+        <v>595.7704</v>
       </c>
       <c r="G91" t="n">
-        <v>268.9466666666667</v>
+        <v>268.9216666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3771,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3785,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>268.1</v>
+        <v>271.5</v>
       </c>
       <c r="C92" t="n">
-        <v>267</v>
+        <v>271.5</v>
       </c>
       <c r="D92" t="n">
-        <v>268.1</v>
+        <v>271.5</v>
       </c>
       <c r="E92" t="n">
-        <v>267</v>
+        <v>271.5</v>
       </c>
       <c r="F92" t="n">
-        <v>4637.4087</v>
+        <v>36</v>
       </c>
       <c r="G92" t="n">
-        <v>268.8966666666667</v>
+        <v>268.9466666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3810,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3824,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>269.9</v>
+        <v>268.1</v>
       </c>
       <c r="C93" t="n">
-        <v>269.9</v>
+        <v>267</v>
       </c>
       <c r="D93" t="n">
-        <v>269.9</v>
+        <v>268.1</v>
       </c>
       <c r="E93" t="n">
-        <v>269.9</v>
+        <v>267</v>
       </c>
       <c r="F93" t="n">
-        <v>98</v>
+        <v>4637.4087</v>
       </c>
       <c r="G93" t="n">
-        <v>268.9266666666667</v>
+        <v>268.8966666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3849,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>267.2</v>
+        <v>269.9</v>
       </c>
       <c r="C94" t="n">
-        <v>265.6</v>
+        <v>269.9</v>
       </c>
       <c r="D94" t="n">
-        <v>267.2</v>
+        <v>269.9</v>
       </c>
       <c r="E94" t="n">
-        <v>265.6</v>
+        <v>269.9</v>
       </c>
       <c r="F94" t="n">
-        <v>3610.1162</v>
+        <v>98</v>
       </c>
       <c r="G94" t="n">
-        <v>268.8833333333334</v>
+        <v>268.9266666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3888,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3902,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>267.1</v>
+        <v>267.2</v>
       </c>
       <c r="C95" t="n">
-        <v>270.2</v>
+        <v>265.6</v>
       </c>
       <c r="D95" t="n">
-        <v>271.3</v>
+        <v>267.2</v>
       </c>
       <c r="E95" t="n">
-        <v>267.1</v>
+        <v>265.6</v>
       </c>
       <c r="F95" t="n">
-        <v>2089.4051</v>
+        <v>3610.1162</v>
       </c>
       <c r="G95" t="n">
-        <v>268.9783333333334</v>
+        <v>268.8833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3927,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3941,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>267.1</v>
+      </c>
+      <c r="C96" t="n">
         <v>270.2</v>
       </c>
-      <c r="C96" t="n">
-        <v>271.2</v>
-      </c>
       <c r="D96" t="n">
-        <v>271.2</v>
+        <v>271.3</v>
       </c>
       <c r="E96" t="n">
-        <v>270.2</v>
+        <v>267.1</v>
       </c>
       <c r="F96" t="n">
-        <v>1177</v>
+        <v>2089.4051</v>
       </c>
       <c r="G96" t="n">
-        <v>269.0900000000001</v>
+        <v>268.9783333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3966,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3980,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>270.3</v>
+        <v>270.2</v>
       </c>
       <c r="C97" t="n">
-        <v>271.3</v>
+        <v>271.2</v>
       </c>
       <c r="D97" t="n">
-        <v>271.3</v>
+        <v>271.2</v>
       </c>
       <c r="E97" t="n">
-        <v>270.3</v>
+        <v>270.2</v>
       </c>
       <c r="F97" t="n">
-        <v>138.8595650571</v>
+        <v>1177</v>
       </c>
       <c r="G97" t="n">
-        <v>269.2033333333334</v>
+        <v>269.0900000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4005,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>271.3</v>
+        <v>270.3</v>
       </c>
       <c r="C98" t="n">
         <v>271.3</v>
@@ -4028,13 +3802,13 @@
         <v>271.3</v>
       </c>
       <c r="E98" t="n">
-        <v>271.3</v>
+        <v>270.3</v>
       </c>
       <c r="F98" t="n">
-        <v>10.3206782159</v>
+        <v>138.8595650571</v>
       </c>
       <c r="G98" t="n">
-        <v>269.3166666666667</v>
+        <v>269.2033333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4044,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="C99" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="D99" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="E99" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="F99" t="n">
-        <v>622.8429</v>
+        <v>10.3206782159</v>
       </c>
       <c r="G99" t="n">
-        <v>269.4316666666667</v>
+        <v>269.3166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4083,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4109,10 +3875,10 @@
         <v>271.4</v>
       </c>
       <c r="F100" t="n">
-        <v>1377.157</v>
+        <v>622.8429</v>
       </c>
       <c r="G100" t="n">
-        <v>269.5483333333335</v>
+        <v>269.4316666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4122,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4136,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>268.3</v>
+        <v>271.4</v>
       </c>
       <c r="C101" t="n">
-        <v>271.3</v>
+        <v>271.4</v>
       </c>
       <c r="D101" t="n">
-        <v>271.3</v>
+        <v>271.4</v>
       </c>
       <c r="E101" t="n">
-        <v>267.2</v>
+        <v>271.4</v>
       </c>
       <c r="F101" t="n">
-        <v>442</v>
+        <v>1377.157</v>
       </c>
       <c r="G101" t="n">
-        <v>269.6500000000001</v>
+        <v>269.5483333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4161,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4175,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>268.2</v>
+        <v>268.3</v>
       </c>
       <c r="C102" t="n">
-        <v>267.1</v>
+        <v>271.3</v>
       </c>
       <c r="D102" t="n">
-        <v>268.2</v>
+        <v>271.3</v>
       </c>
       <c r="E102" t="n">
-        <v>267.1</v>
+        <v>267.2</v>
       </c>
       <c r="F102" t="n">
-        <v>878</v>
+        <v>442</v>
       </c>
       <c r="G102" t="n">
-        <v>269.6533333333334</v>
+        <v>269.6500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4200,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4217,19 +3971,19 @@
         <v>268.2</v>
       </c>
       <c r="C103" t="n">
-        <v>268</v>
+        <v>267.1</v>
       </c>
       <c r="D103" t="n">
         <v>268.2</v>
       </c>
       <c r="E103" t="n">
-        <v>268</v>
+        <v>267.1</v>
       </c>
       <c r="F103" t="n">
-        <v>1543.2649</v>
+        <v>878</v>
       </c>
       <c r="G103" t="n">
-        <v>269.6733333333334</v>
+        <v>269.6533333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4239,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4253,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>270</v>
+        <v>268.2</v>
       </c>
       <c r="C104" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D104" t="n">
-        <v>270</v>
+        <v>268.2</v>
       </c>
       <c r="E104" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F104" t="n">
-        <v>15</v>
+        <v>1543.2649</v>
       </c>
       <c r="G104" t="n">
-        <v>269.7250000000001</v>
+        <v>269.6733333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4278,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4292,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>271.3</v>
+        <v>270</v>
       </c>
       <c r="C105" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D105" t="n">
-        <v>271.3</v>
+        <v>270</v>
       </c>
       <c r="E105" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F105" t="n">
-        <v>886</v>
+        <v>15</v>
       </c>
       <c r="G105" t="n">
-        <v>269.7333333333335</v>
+        <v>269.7250000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4317,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4331,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="C106" t="n">
-        <v>271.6</v>
+        <v>268</v>
       </c>
       <c r="D106" t="n">
-        <v>271.6</v>
+        <v>271.3</v>
       </c>
       <c r="E106" t="n">
-        <v>271.4</v>
+        <v>268</v>
       </c>
       <c r="F106" t="n">
-        <v>1.9</v>
+        <v>886</v>
       </c>
       <c r="G106" t="n">
-        <v>269.8000000000001</v>
+        <v>269.7333333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4356,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4108,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>271.6</v>
+        <v>271.4</v>
       </c>
       <c r="C107" t="n">
         <v>271.6</v>
@@ -4379,13 +4117,13 @@
         <v>271.6</v>
       </c>
       <c r="E107" t="n">
-        <v>271.6</v>
+        <v>271.4</v>
       </c>
       <c r="F107" t="n">
-        <v>35.9430743741</v>
+        <v>1.9</v>
       </c>
       <c r="G107" t="n">
-        <v>269.8666666666667</v>
+        <v>269.8000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4395,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4421,10 +4155,10 @@
         <v>271.6</v>
       </c>
       <c r="F108" t="n">
-        <v>52.92</v>
+        <v>35.9430743741</v>
       </c>
       <c r="G108" t="n">
-        <v>269.8966666666668</v>
+        <v>269.8666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4434,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>270</v>
+        <v>271.6</v>
       </c>
       <c r="C109" t="n">
-        <v>271.4</v>
+        <v>271.6</v>
       </c>
       <c r="D109" t="n">
-        <v>271.4</v>
+        <v>271.6</v>
       </c>
       <c r="E109" t="n">
-        <v>270</v>
+        <v>271.6</v>
       </c>
       <c r="F109" t="n">
-        <v>16</v>
+        <v>52.92</v>
       </c>
       <c r="G109" t="n">
-        <v>269.9583333333334</v>
+        <v>269.8966666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4473,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4487,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>269.1</v>
+        <v>270</v>
       </c>
       <c r="C110" t="n">
-        <v>268.5</v>
+        <v>271.4</v>
       </c>
       <c r="D110" t="n">
-        <v>269.1</v>
+        <v>271.4</v>
       </c>
       <c r="E110" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F110" t="n">
-        <v>6289</v>
+        <v>16</v>
       </c>
       <c r="G110" t="n">
-        <v>269.9366666666668</v>
+        <v>269.9583333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4512,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4526,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="C111" t="n">
         <v>268.5</v>
       </c>
-      <c r="C111" t="n">
-        <v>271.5</v>
-      </c>
       <c r="D111" t="n">
-        <v>271.5</v>
+        <v>269.1</v>
       </c>
       <c r="E111" t="n">
-        <v>268.5</v>
+        <v>268</v>
       </c>
       <c r="F111" t="n">
-        <v>1109</v>
+        <v>6289</v>
       </c>
       <c r="G111" t="n">
-        <v>269.9983333333335</v>
+        <v>269.9366666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4551,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4565,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="C112" t="n">
         <v>271.5</v>
       </c>
-      <c r="C112" t="n">
-        <v>271.9</v>
-      </c>
       <c r="D112" t="n">
-        <v>271.9</v>
+        <v>271.5</v>
       </c>
       <c r="E112" t="n">
-        <v>271.5</v>
+        <v>268.5</v>
       </c>
       <c r="F112" t="n">
-        <v>637.2948</v>
+        <v>1109</v>
       </c>
       <c r="G112" t="n">
-        <v>270.0300000000001</v>
+        <v>269.9983333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4590,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4604,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>272</v>
+        <v>271.5</v>
       </c>
       <c r="C113" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="D113" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="E113" t="n">
-        <v>272</v>
+        <v>271.5</v>
       </c>
       <c r="F113" t="n">
-        <v>14</v>
+        <v>637.2948</v>
       </c>
       <c r="G113" t="n">
-        <v>270.0616666666668</v>
+        <v>270.0300000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4629,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4646,19 +4356,19 @@
         <v>272</v>
       </c>
       <c r="C114" t="n">
-        <v>272.7</v>
+        <v>272</v>
       </c>
       <c r="D114" t="n">
-        <v>272.7</v>
+        <v>272</v>
       </c>
       <c r="E114" t="n">
         <v>272</v>
       </c>
       <c r="F114" t="n">
-        <v>2188.0218</v>
+        <v>14</v>
       </c>
       <c r="G114" t="n">
-        <v>270.1000000000001</v>
+        <v>270.0616666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4668,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4682,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>272.6</v>
+        <v>272</v>
       </c>
       <c r="C115" t="n">
-        <v>269.1</v>
+        <v>272.7</v>
       </c>
       <c r="D115" t="n">
-        <v>273.3</v>
+        <v>272.7</v>
       </c>
       <c r="E115" t="n">
-        <v>269.1</v>
+        <v>272</v>
       </c>
       <c r="F115" t="n">
-        <v>6357.273</v>
+        <v>2188.0218</v>
       </c>
       <c r="G115" t="n">
-        <v>270.0833333333335</v>
+        <v>270.1000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4707,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4721,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>272.7</v>
+        <v>272.6</v>
       </c>
       <c r="C116" t="n">
-        <v>272.7</v>
+        <v>269.1</v>
       </c>
       <c r="D116" t="n">
-        <v>272.7</v>
+        <v>273.3</v>
       </c>
       <c r="E116" t="n">
-        <v>272.7</v>
+        <v>269.1</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>6357.273</v>
       </c>
       <c r="G116" t="n">
-        <v>270.1250000000001</v>
+        <v>270.0833333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4746,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4760,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>272.5</v>
+        <v>272.7</v>
       </c>
       <c r="C117" t="n">
-        <v>272.5</v>
+        <v>272.7</v>
       </c>
       <c r="D117" t="n">
-        <v>272.5</v>
+        <v>272.7</v>
       </c>
       <c r="E117" t="n">
-        <v>272.5</v>
+        <v>272.7</v>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>270.1633333333335</v>
+        <v>270.1250000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4785,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4799,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>273.3</v>
+        <v>272.5</v>
       </c>
       <c r="C118" t="n">
-        <v>273.3</v>
+        <v>272.5</v>
       </c>
       <c r="D118" t="n">
-        <v>273.3</v>
+        <v>272.5</v>
       </c>
       <c r="E118" t="n">
-        <v>273.3</v>
+        <v>272.5</v>
       </c>
       <c r="F118" t="n">
-        <v>169.0507</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>270.2166666666668</v>
+        <v>270.1633333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4824,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4841,19 +4531,19 @@
         <v>273.3</v>
       </c>
       <c r="C119" t="n">
-        <v>273.2</v>
+        <v>273.3</v>
       </c>
       <c r="D119" t="n">
         <v>273.3</v>
       </c>
       <c r="E119" t="n">
-        <v>273.2</v>
+        <v>273.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1659.8527</v>
+        <v>169.0507</v>
       </c>
       <c r="G119" t="n">
-        <v>270.2616666666667</v>
+        <v>270.2166666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4863,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4877,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>273.4</v>
+        <v>273.3</v>
       </c>
       <c r="C120" t="n">
-        <v>273.8</v>
+        <v>273.2</v>
       </c>
       <c r="D120" t="n">
-        <v>273.8</v>
+        <v>273.3</v>
       </c>
       <c r="E120" t="n">
-        <v>273.4</v>
+        <v>273.2</v>
       </c>
       <c r="F120" t="n">
-        <v>315.0474</v>
+        <v>1659.8527</v>
       </c>
       <c r="G120" t="n">
-        <v>270.3100000000001</v>
+        <v>270.2616666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4902,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4916,7 +4598,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>273.8</v>
+        <v>273.4</v>
       </c>
       <c r="C121" t="n">
         <v>273.8</v>
@@ -4925,13 +4607,13 @@
         <v>273.8</v>
       </c>
       <c r="E121" t="n">
-        <v>273.8</v>
+        <v>273.4</v>
       </c>
       <c r="F121" t="n">
-        <v>211</v>
+        <v>315.0474</v>
       </c>
       <c r="G121" t="n">
-        <v>270.3583333333334</v>
+        <v>270.3100000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4941,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4955,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>273.9</v>
+        <v>273.8</v>
       </c>
       <c r="C122" t="n">
-        <v>273.9</v>
+        <v>273.8</v>
       </c>
       <c r="D122" t="n">
-        <v>273.9</v>
+        <v>273.8</v>
       </c>
       <c r="E122" t="n">
-        <v>273.9</v>
+        <v>273.8</v>
       </c>
       <c r="F122" t="n">
-        <v>163.5334</v>
+        <v>211</v>
       </c>
       <c r="G122" t="n">
-        <v>270.4150000000001</v>
+        <v>270.3583333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4980,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4994,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>274</v>
+        <v>273.9</v>
       </c>
       <c r="C123" t="n">
-        <v>274</v>
+        <v>273.9</v>
       </c>
       <c r="D123" t="n">
-        <v>274</v>
+        <v>273.9</v>
       </c>
       <c r="E123" t="n">
-        <v>274</v>
+        <v>273.9</v>
       </c>
       <c r="F123" t="n">
-        <v>16</v>
+        <v>163.5334</v>
       </c>
       <c r="G123" t="n">
-        <v>270.4716666666667</v>
+        <v>270.4150000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5019,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5036,19 +4706,19 @@
         <v>274</v>
       </c>
       <c r="C124" t="n">
-        <v>275.7</v>
+        <v>274</v>
       </c>
       <c r="D124" t="n">
-        <v>275.7</v>
+        <v>274</v>
       </c>
       <c r="E124" t="n">
         <v>274</v>
       </c>
       <c r="F124" t="n">
-        <v>246.021</v>
+        <v>16</v>
       </c>
       <c r="G124" t="n">
-        <v>270.5583333333334</v>
+        <v>270.4716666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5058,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5072,7 +4738,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>275.7</v>
+        <v>274</v>
       </c>
       <c r="C125" t="n">
         <v>275.7</v>
@@ -5081,13 +4747,13 @@
         <v>275.7</v>
       </c>
       <c r="E125" t="n">
-        <v>275.7</v>
+        <v>274</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>246.021</v>
       </c>
       <c r="G125" t="n">
-        <v>270.6516666666668</v>
+        <v>270.5583333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5097,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5114,19 +4776,19 @@
         <v>275.7</v>
       </c>
       <c r="C126" t="n">
-        <v>276.8</v>
+        <v>275.7</v>
       </c>
       <c r="D126" t="n">
-        <v>276.8</v>
+        <v>275.7</v>
       </c>
       <c r="E126" t="n">
         <v>275.7</v>
       </c>
       <c r="F126" t="n">
-        <v>166.516</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>270.7633333333334</v>
+        <v>270.6516666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5136,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5150,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="C127" t="n">
         <v>276.8</v>
       </c>
-      <c r="C127" t="n">
-        <v>278.6</v>
-      </c>
       <c r="D127" t="n">
-        <v>278.6</v>
+        <v>276.8</v>
       </c>
       <c r="E127" t="n">
-        <v>276.8</v>
+        <v>275.7</v>
       </c>
       <c r="F127" t="n">
-        <v>72.34365269200001</v>
+        <v>166.516</v>
       </c>
       <c r="G127" t="n">
-        <v>270.9050000000001</v>
+        <v>270.7633333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5175,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5189,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>278.6</v>
+        <v>276.8</v>
       </c>
       <c r="C128" t="n">
         <v>278.6</v>
@@ -5198,13 +4852,13 @@
         <v>278.6</v>
       </c>
       <c r="E128" t="n">
-        <v>278.6</v>
+        <v>276.8</v>
       </c>
       <c r="F128" t="n">
-        <v>60.5851</v>
+        <v>72.34365269200001</v>
       </c>
       <c r="G128" t="n">
-        <v>271.0233333333334</v>
+        <v>270.9050000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5214,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5240,10 +4890,10 @@
         <v>278.6</v>
       </c>
       <c r="F129" t="n">
-        <v>4695.5328</v>
+        <v>60.5851</v>
       </c>
       <c r="G129" t="n">
-        <v>271.1650000000001</v>
+        <v>271.0233333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5253,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5267,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>275.5</v>
+        <v>278.6</v>
       </c>
       <c r="C130" t="n">
-        <v>275</v>
+        <v>278.6</v>
       </c>
       <c r="D130" t="n">
-        <v>275.5</v>
+        <v>278.6</v>
       </c>
       <c r="E130" t="n">
-        <v>275</v>
+        <v>278.6</v>
       </c>
       <c r="F130" t="n">
-        <v>48.8843</v>
+        <v>4695.5328</v>
       </c>
       <c r="G130" t="n">
-        <v>271.2733333333334</v>
+        <v>271.1650000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5292,34 +4938,32 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>274.7</v>
+        <v>275.5</v>
       </c>
       <c r="C131" t="n">
-        <v>274.7</v>
+        <v>275</v>
       </c>
       <c r="D131" t="n">
-        <v>274.7</v>
+        <v>275.5</v>
       </c>
       <c r="E131" t="n">
-        <v>274.7</v>
+        <v>275</v>
       </c>
       <c r="F131" t="n">
-        <v>1.9231</v>
+        <v>48.8843</v>
       </c>
       <c r="G131" t="n">
-        <v>271.4233333333333</v>
+        <v>271.2733333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5339,28 +4983,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>278</v>
+        <v>274.7</v>
       </c>
       <c r="C132" t="n">
-        <v>278</v>
+        <v>274.7</v>
       </c>
       <c r="D132" t="n">
-        <v>278</v>
+        <v>274.7</v>
       </c>
       <c r="E132" t="n">
-        <v>278</v>
+        <v>274.7</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>1.9231</v>
       </c>
       <c r="G132" t="n">
-        <v>271.5416666666667</v>
+        <v>271.4233333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5386,10 +5030,10 @@
         <v>278</v>
       </c>
       <c r="F133" t="n">
-        <v>84.6407</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>271.66</v>
+        <v>271.5416666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5421,10 +5065,10 @@
         <v>278</v>
       </c>
       <c r="F134" t="n">
-        <v>883.9446</v>
+        <v>84.6407</v>
       </c>
       <c r="G134" t="n">
-        <v>271.7766666666666</v>
+        <v>271.66</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5456,10 +5100,10 @@
         <v>278</v>
       </c>
       <c r="F135" t="n">
-        <v>36.1822</v>
+        <v>883.9446</v>
       </c>
       <c r="G135" t="n">
-        <v>271.885</v>
+        <v>271.7766666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5491,10 +5135,10 @@
         <v>278</v>
       </c>
       <c r="F136" t="n">
-        <v>133.2838</v>
+        <v>36.1822</v>
       </c>
       <c r="G136" t="n">
-        <v>271.9933333333333</v>
+        <v>271.885</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5514,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>278.8</v>
+        <v>278</v>
       </c>
       <c r="C137" t="n">
-        <v>278.8</v>
+        <v>278</v>
       </c>
       <c r="D137" t="n">
-        <v>278.8</v>
+        <v>278</v>
       </c>
       <c r="E137" t="n">
-        <v>278.8</v>
+        <v>278</v>
       </c>
       <c r="F137" t="n">
-        <v>143.7147</v>
+        <v>133.2838</v>
       </c>
       <c r="G137" t="n">
-        <v>272.15</v>
+        <v>271.9933333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5549,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>279</v>
+        <v>278.8</v>
       </c>
       <c r="C138" t="n">
-        <v>279</v>
+        <v>278.8</v>
       </c>
       <c r="D138" t="n">
-        <v>279</v>
+        <v>278.8</v>
       </c>
       <c r="E138" t="n">
-        <v>277.1</v>
+        <v>278.8</v>
       </c>
       <c r="F138" t="n">
-        <v>125.312</v>
+        <v>143.7147</v>
       </c>
       <c r="G138" t="n">
-        <v>272.3166666666667</v>
+        <v>272.15</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5593,13 +5237,13 @@
         <v>279</v>
       </c>
       <c r="E139" t="n">
-        <v>279</v>
+        <v>277.1</v>
       </c>
       <c r="F139" t="n">
-        <v>29</v>
+        <v>125.312</v>
       </c>
       <c r="G139" t="n">
-        <v>272.45</v>
+        <v>272.3166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5631,10 +5275,10 @@
         <v>279</v>
       </c>
       <c r="F140" t="n">
-        <v>4426.921</v>
+        <v>29</v>
       </c>
       <c r="G140" t="n">
-        <v>272.635</v>
+        <v>272.45</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5666,10 +5310,10 @@
         <v>279</v>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>4426.921</v>
       </c>
       <c r="G141" t="n">
-        <v>272.8183333333333</v>
+        <v>272.635</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5689,28 +5333,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>277.2</v>
+        <v>279</v>
       </c>
       <c r="C142" t="n">
-        <v>277.2</v>
+        <v>279</v>
       </c>
       <c r="D142" t="n">
-        <v>277.2</v>
+        <v>279</v>
       </c>
       <c r="E142" t="n">
-        <v>277.2</v>
+        <v>279</v>
       </c>
       <c r="F142" t="n">
-        <v>21.5362</v>
+        <v>30</v>
       </c>
       <c r="G142" t="n">
-        <v>272.9116666666666</v>
+        <v>272.8183333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5727,19 +5371,19 @@
         <v>277.2</v>
       </c>
       <c r="C143" t="n">
-        <v>275.4</v>
+        <v>277.2</v>
       </c>
       <c r="D143" t="n">
         <v>277.2</v>
       </c>
       <c r="E143" t="n">
-        <v>275.4</v>
+        <v>277.2</v>
       </c>
       <c r="F143" t="n">
-        <v>29983.5793</v>
+        <v>21.5362</v>
       </c>
       <c r="G143" t="n">
-        <v>273.035</v>
+        <v>272.9116666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5759,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>279</v>
+        <v>277.2</v>
       </c>
       <c r="C144" t="n">
-        <v>279.7</v>
+        <v>275.4</v>
       </c>
       <c r="D144" t="n">
-        <v>279.7</v>
+        <v>277.2</v>
       </c>
       <c r="E144" t="n">
-        <v>279</v>
+        <v>275.4</v>
       </c>
       <c r="F144" t="n">
-        <v>1102</v>
+        <v>29983.5793</v>
       </c>
       <c r="G144" t="n">
-        <v>273.2316666666666</v>
+        <v>273.035</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5794,28 +5438,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>278.9</v>
+        <v>279</v>
       </c>
       <c r="C145" t="n">
-        <v>279.9</v>
+        <v>279.7</v>
       </c>
       <c r="D145" t="n">
-        <v>279.9</v>
+        <v>279.7</v>
       </c>
       <c r="E145" t="n">
-        <v>278.9</v>
+        <v>279</v>
       </c>
       <c r="F145" t="n">
-        <v>2324.7565</v>
+        <v>1102</v>
       </c>
       <c r="G145" t="n">
-        <v>273.38</v>
+        <v>273.2316666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5829,28 +5473,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>278</v>
+        <v>278.9</v>
       </c>
       <c r="C146" t="n">
-        <v>278</v>
+        <v>279.9</v>
       </c>
       <c r="D146" t="n">
-        <v>278</v>
+        <v>279.9</v>
       </c>
       <c r="E146" t="n">
-        <v>278</v>
+        <v>278.9</v>
       </c>
       <c r="F146" t="n">
-        <v>313.0145</v>
+        <v>2324.7565</v>
       </c>
       <c r="G146" t="n">
-        <v>273.53</v>
+        <v>273.38</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5867,19 +5511,19 @@
         <v>278</v>
       </c>
       <c r="C147" t="n">
-        <v>279.8</v>
+        <v>278</v>
       </c>
       <c r="D147" t="n">
-        <v>279.9</v>
+        <v>278</v>
       </c>
       <c r="E147" t="n">
         <v>278</v>
       </c>
       <c r="F147" t="n">
-        <v>974</v>
+        <v>313.0145</v>
       </c>
       <c r="G147" t="n">
-        <v>273.7066666666666</v>
+        <v>273.53</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5899,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>278</v>
+      </c>
+      <c r="C148" t="n">
         <v>279.8</v>
       </c>
-      <c r="C148" t="n">
-        <v>280</v>
-      </c>
       <c r="D148" t="n">
-        <v>280</v>
+        <v>279.9</v>
       </c>
       <c r="E148" t="n">
-        <v>279.8</v>
+        <v>278</v>
       </c>
       <c r="F148" t="n">
-        <v>10941.2073</v>
+        <v>974</v>
       </c>
       <c r="G148" t="n">
-        <v>273.88</v>
+        <v>273.7066666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5934,7 +5578,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>280</v>
+        <v>279.8</v>
       </c>
       <c r="C149" t="n">
         <v>280</v>
@@ -5943,13 +5587,13 @@
         <v>280</v>
       </c>
       <c r="E149" t="n">
-        <v>280</v>
+        <v>279.8</v>
       </c>
       <c r="F149" t="n">
-        <v>1130.7927</v>
+        <v>10941.2073</v>
       </c>
       <c r="G149" t="n">
-        <v>274.0466666666667</v>
+        <v>273.88</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5972,19 +5616,19 @@
         <v>280</v>
       </c>
       <c r="C150" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D150" t="n">
         <v>280</v>
       </c>
       <c r="E150" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F150" t="n">
-        <v>1118.65</v>
+        <v>1130.7927</v>
       </c>
       <c r="G150" t="n">
-        <v>274.1466666666666</v>
+        <v>274.0466666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6004,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>280</v>
+      </c>
+      <c r="C151" t="n">
         <v>276</v>
       </c>
-      <c r="C151" t="n">
-        <v>274.1</v>
-      </c>
       <c r="D151" t="n">
+        <v>280</v>
+      </c>
+      <c r="E151" t="n">
         <v>276</v>
       </c>
-      <c r="E151" t="n">
-        <v>274.1</v>
-      </c>
       <c r="F151" t="n">
-        <v>30000</v>
+        <v>1118.65</v>
       </c>
       <c r="G151" t="n">
-        <v>274.1899999999999</v>
+        <v>274.1466666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6039,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C152" t="n">
-        <v>273.1</v>
+        <v>274.1</v>
       </c>
       <c r="D152" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E152" t="n">
-        <v>273.1</v>
+        <v>274.1</v>
       </c>
       <c r="F152" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G152" t="n">
-        <v>274.2916666666666</v>
+        <v>274.1899999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6074,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C153" t="n">
-        <v>275.8</v>
+        <v>273.1</v>
       </c>
       <c r="D153" t="n">
-        <v>275.8</v>
+        <v>274</v>
       </c>
       <c r="E153" t="n">
-        <v>273</v>
+        <v>273.1</v>
       </c>
       <c r="F153" t="n">
-        <v>4943.4147</v>
+        <v>20000</v>
       </c>
       <c r="G153" t="n">
-        <v>274.3899999999999</v>
+        <v>274.2916666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6109,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>274.1</v>
+        <v>273</v>
       </c>
       <c r="C154" t="n">
-        <v>274.7</v>
+        <v>275.8</v>
       </c>
       <c r="D154" t="n">
-        <v>274.7</v>
+        <v>275.8</v>
       </c>
       <c r="E154" t="n">
-        <v>274.1</v>
+        <v>273</v>
       </c>
       <c r="F154" t="n">
-        <v>405.9998</v>
+        <v>4943.4147</v>
       </c>
       <c r="G154" t="n">
-        <v>274.5416666666666</v>
+        <v>274.3899999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6144,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>274.1</v>
+      </c>
+      <c r="C155" t="n">
         <v>274.7</v>
       </c>
-      <c r="C155" t="n">
-        <v>274.8</v>
-      </c>
       <c r="D155" t="n">
-        <v>274.8</v>
+        <v>274.7</v>
       </c>
       <c r="E155" t="n">
-        <v>274.7</v>
+        <v>274.1</v>
       </c>
       <c r="F155" t="n">
-        <v>405.9999</v>
+        <v>405.9998</v>
       </c>
       <c r="G155" t="n">
-        <v>274.6183333333332</v>
+        <v>274.5416666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6179,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>276.9</v>
+        <v>274.7</v>
       </c>
       <c r="C156" t="n">
-        <v>276.9</v>
+        <v>274.8</v>
       </c>
       <c r="D156" t="n">
-        <v>276.9</v>
+        <v>274.8</v>
       </c>
       <c r="E156" t="n">
-        <v>276.9</v>
+        <v>274.7</v>
       </c>
       <c r="F156" t="n">
-        <v>559.5022</v>
+        <v>405.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>274.7133333333333</v>
+        <v>274.6183333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6214,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>277</v>
+        <v>276.9</v>
       </c>
       <c r="C157" t="n">
-        <v>277</v>
+        <v>276.9</v>
       </c>
       <c r="D157" t="n">
-        <v>277</v>
+        <v>276.9</v>
       </c>
       <c r="E157" t="n">
-        <v>277</v>
+        <v>276.9</v>
       </c>
       <c r="F157" t="n">
-        <v>28.7079</v>
+        <v>559.5022</v>
       </c>
       <c r="G157" t="n">
-        <v>274.8083333333333</v>
+        <v>274.7133333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6249,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>277.4</v>
+        <v>277</v>
       </c>
       <c r="C158" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D158" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E158" t="n">
-        <v>277.4</v>
+        <v>277</v>
       </c>
       <c r="F158" t="n">
-        <v>13962.2312</v>
+        <v>28.7079</v>
       </c>
       <c r="G158" t="n">
-        <v>274.92</v>
+        <v>274.8083333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6284,7 +5928,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>278</v>
+        <v>277.4</v>
       </c>
       <c r="C159" t="n">
         <v>278</v>
@@ -6293,13 +5937,13 @@
         <v>278</v>
       </c>
       <c r="E159" t="n">
-        <v>278</v>
+        <v>277.4</v>
       </c>
       <c r="F159" t="n">
-        <v>2907</v>
+        <v>13962.2312</v>
       </c>
       <c r="G159" t="n">
-        <v>275.0299999999999</v>
+        <v>274.92</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6331,10 +5975,10 @@
         <v>278</v>
       </c>
       <c r="F160" t="n">
-        <v>5351.2713</v>
+        <v>2907</v>
       </c>
       <c r="G160" t="n">
-        <v>275.1399999999999</v>
+        <v>275.0299999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6366,10 +6010,10 @@
         <v>278</v>
       </c>
       <c r="F161" t="n">
-        <v>2556.9638</v>
+        <v>5351.2713</v>
       </c>
       <c r="G161" t="n">
-        <v>275.2516666666666</v>
+        <v>275.1399999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6389,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C162" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D162" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E162" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F162" t="n">
-        <v>14.38</v>
+        <v>2556.9638</v>
       </c>
       <c r="G162" t="n">
-        <v>275.4499999999999</v>
+        <v>275.2516666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6424,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>280.8</v>
+        <v>279</v>
       </c>
       <c r="C163" t="n">
-        <v>280.8</v>
+        <v>279</v>
       </c>
       <c r="D163" t="n">
-        <v>280.8</v>
+        <v>279</v>
       </c>
       <c r="E163" t="n">
-        <v>280.8</v>
+        <v>279</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>14.38</v>
       </c>
       <c r="G163" t="n">
-        <v>275.6633333333332</v>
+        <v>275.4499999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6459,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>282.5</v>
+        <v>280.8</v>
       </c>
       <c r="C164" t="n">
-        <v>282.5</v>
+        <v>280.8</v>
       </c>
       <c r="D164" t="n">
-        <v>282.5</v>
+        <v>280.8</v>
       </c>
       <c r="E164" t="n">
-        <v>282.5</v>
+        <v>280.8</v>
       </c>
       <c r="F164" t="n">
         <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>275.8716666666666</v>
+        <v>275.6633333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6494,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>279</v>
+        <v>282.5</v>
       </c>
       <c r="C165" t="n">
-        <v>277.9</v>
+        <v>282.5</v>
       </c>
       <c r="D165" t="n">
-        <v>279</v>
+        <v>282.5</v>
       </c>
       <c r="E165" t="n">
-        <v>277.9</v>
+        <v>282.5</v>
       </c>
       <c r="F165" t="n">
-        <v>3393.5232</v>
+        <v>2</v>
       </c>
       <c r="G165" t="n">
-        <v>276.0366666666666</v>
+        <v>275.8716666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6529,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>280.7</v>
+        <v>279</v>
       </c>
       <c r="C166" t="n">
-        <v>280.7</v>
+        <v>277.9</v>
       </c>
       <c r="D166" t="n">
-        <v>280.7</v>
+        <v>279</v>
       </c>
       <c r="E166" t="n">
-        <v>280.7</v>
+        <v>277.9</v>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>3393.5232</v>
       </c>
       <c r="G166" t="n">
-        <v>276.1883333333333</v>
+        <v>276.0366666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6564,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>278.9</v>
+        <v>280.7</v>
       </c>
       <c r="C167" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="D167" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="E167" t="n">
-        <v>278.9</v>
+        <v>280.7</v>
       </c>
       <c r="F167" t="n">
-        <v>4044.7578</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>276.335</v>
+        <v>276.1883333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6599,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>282.4</v>
+        <v>278.9</v>
       </c>
       <c r="C168" t="n">
-        <v>282.4</v>
+        <v>280.4</v>
       </c>
       <c r="D168" t="n">
-        <v>282.4</v>
+        <v>280.4</v>
       </c>
       <c r="E168" t="n">
-        <v>282.4</v>
+        <v>278.9</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>4044.7578</v>
       </c>
       <c r="G168" t="n">
-        <v>276.5150000000001</v>
+        <v>276.335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6634,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>278.3</v>
+        <v>282.4</v>
       </c>
       <c r="C169" t="n">
-        <v>278.3</v>
+        <v>282.4</v>
       </c>
       <c r="D169" t="n">
-        <v>278.3</v>
+        <v>282.4</v>
       </c>
       <c r="E169" t="n">
-        <v>278.3</v>
+        <v>282.4</v>
       </c>
       <c r="F169" t="n">
-        <v>10685.9168</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>276.6300000000001</v>
+        <v>276.5150000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6672,19 +6316,19 @@
         <v>278.3</v>
       </c>
       <c r="C170" t="n">
-        <v>278.1</v>
+        <v>278.3</v>
       </c>
       <c r="D170" t="n">
         <v>278.3</v>
       </c>
       <c r="E170" t="n">
-        <v>277.3</v>
+        <v>278.3</v>
       </c>
       <c r="F170" t="n">
-        <v>575.2947</v>
+        <v>10685.9168</v>
       </c>
       <c r="G170" t="n">
-        <v>276.79</v>
+        <v>276.6300000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6704,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>277.3</v>
+        <v>278.3</v>
       </c>
       <c r="C171" t="n">
         <v>278.1</v>
       </c>
       <c r="D171" t="n">
-        <v>278.1</v>
+        <v>278.3</v>
       </c>
       <c r="E171" t="n">
         <v>277.3</v>
       </c>
       <c r="F171" t="n">
-        <v>500</v>
+        <v>575.2947</v>
       </c>
       <c r="G171" t="n">
-        <v>276.9</v>
+        <v>276.79</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6739,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>277.1</v>
+        <v>277.3</v>
       </c>
       <c r="C172" t="n">
-        <v>276.1</v>
+        <v>278.1</v>
       </c>
       <c r="D172" t="n">
-        <v>277.1</v>
+        <v>278.1</v>
       </c>
       <c r="E172" t="n">
-        <v>276</v>
+        <v>277.3</v>
       </c>
       <c r="F172" t="n">
-        <v>9396.6677</v>
+        <v>500</v>
       </c>
       <c r="G172" t="n">
-        <v>276.97</v>
+        <v>276.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6774,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>276.1</v>
+        <v>277.1</v>
       </c>
       <c r="C173" t="n">
         <v>276.1</v>
       </c>
       <c r="D173" t="n">
-        <v>276.1</v>
+        <v>277.1</v>
       </c>
       <c r="E173" t="n">
-        <v>276.1</v>
+        <v>276</v>
       </c>
       <c r="F173" t="n">
-        <v>4750</v>
+        <v>9396.6677</v>
       </c>
       <c r="G173" t="n">
-        <v>277.0383333333332</v>
+        <v>276.97</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6809,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>275.3</v>
+        <v>276.1</v>
       </c>
       <c r="C174" t="n">
-        <v>275.2</v>
+        <v>276.1</v>
       </c>
       <c r="D174" t="n">
-        <v>275.3</v>
+        <v>276.1</v>
       </c>
       <c r="E174" t="n">
-        <v>275.2</v>
+        <v>276.1</v>
       </c>
       <c r="F174" t="n">
-        <v>1020.1412</v>
+        <v>4750</v>
       </c>
       <c r="G174" t="n">
-        <v>277.0799999999999</v>
+        <v>277.0383333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6844,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>275</v>
+        <v>275.3</v>
       </c>
       <c r="C175" t="n">
-        <v>274.9</v>
+        <v>275.2</v>
       </c>
       <c r="D175" t="n">
-        <v>275</v>
+        <v>275.3</v>
       </c>
       <c r="E175" t="n">
-        <v>274.9</v>
+        <v>275.2</v>
       </c>
       <c r="F175" t="n">
-        <v>27493.3199</v>
+        <v>1020.1412</v>
       </c>
       <c r="G175" t="n">
-        <v>277.1766666666666</v>
+        <v>277.0799999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6879,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>274.8</v>
+        <v>275</v>
       </c>
       <c r="C176" t="n">
-        <v>274.8</v>
+        <v>274.9</v>
       </c>
       <c r="D176" t="n">
-        <v>274.8</v>
+        <v>275</v>
       </c>
       <c r="E176" t="n">
-        <v>274.8</v>
+        <v>274.9</v>
       </c>
       <c r="F176" t="n">
-        <v>15</v>
+        <v>27493.3199</v>
       </c>
       <c r="G176" t="n">
-        <v>277.2116666666666</v>
+        <v>277.1766666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6914,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>273.1</v>
+        <v>274.8</v>
       </c>
       <c r="C177" t="n">
-        <v>273</v>
+        <v>274.8</v>
       </c>
       <c r="D177" t="n">
-        <v>273.1</v>
+        <v>274.8</v>
       </c>
       <c r="E177" t="n">
-        <v>273</v>
+        <v>274.8</v>
       </c>
       <c r="F177" t="n">
-        <v>3075.0594</v>
+        <v>15</v>
       </c>
       <c r="G177" t="n">
-        <v>277.22</v>
+        <v>277.2116666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6949,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>277.2</v>
+        <v>273.1</v>
       </c>
       <c r="C178" t="n">
-        <v>277.2</v>
+        <v>273</v>
       </c>
       <c r="D178" t="n">
-        <v>277.2</v>
+        <v>273.1</v>
       </c>
       <c r="E178" t="n">
-        <v>277.2</v>
+        <v>273</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>3075.0594</v>
       </c>
       <c r="G178" t="n">
-        <v>277.285</v>
+        <v>277.22</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6984,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>277.5</v>
+        <v>277.2</v>
       </c>
       <c r="C179" t="n">
-        <v>277.5</v>
+        <v>277.2</v>
       </c>
       <c r="D179" t="n">
-        <v>277.5</v>
+        <v>277.2</v>
       </c>
       <c r="E179" t="n">
-        <v>277.5</v>
+        <v>277.2</v>
       </c>
       <c r="F179" t="n">
         <v>2</v>
       </c>
       <c r="G179" t="n">
-        <v>277.3566666666666</v>
+        <v>277.285</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7019,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>274.8</v>
+        <v>277.5</v>
       </c>
       <c r="C180" t="n">
-        <v>274.8</v>
+        <v>277.5</v>
       </c>
       <c r="D180" t="n">
-        <v>274.8</v>
+        <v>277.5</v>
       </c>
       <c r="E180" t="n">
-        <v>274.8</v>
+        <v>277.5</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>277.3733333333333</v>
+        <v>277.3566666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7054,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>274</v>
+        <v>274.8</v>
       </c>
       <c r="C181" t="n">
-        <v>274</v>
+        <v>274.8</v>
       </c>
       <c r="D181" t="n">
-        <v>274</v>
+        <v>274.8</v>
       </c>
       <c r="E181" t="n">
-        <v>274</v>
+        <v>274.8</v>
       </c>
       <c r="F181" t="n">
-        <v>36.91</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>277.3766666666667</v>
+        <v>277.3733333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7092,19 +6736,19 @@
         <v>274</v>
       </c>
       <c r="C182" t="n">
-        <v>270.2</v>
+        <v>274</v>
       </c>
       <c r="D182" t="n">
         <v>274</v>
       </c>
       <c r="E182" t="n">
-        <v>270.2</v>
+        <v>274</v>
       </c>
       <c r="F182" t="n">
-        <v>2988.6296</v>
+        <v>36.91</v>
       </c>
       <c r="G182" t="n">
-        <v>277.3149999999999</v>
+        <v>277.3766666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7124,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>271.1</v>
+        <v>274</v>
       </c>
       <c r="C183" t="n">
-        <v>271.1</v>
+        <v>270.2</v>
       </c>
       <c r="D183" t="n">
-        <v>271.1</v>
+        <v>274</v>
       </c>
       <c r="E183" t="n">
-        <v>271.1</v>
+        <v>270.2</v>
       </c>
       <c r="F183" t="n">
-        <v>241.4983</v>
+        <v>2988.6296</v>
       </c>
       <c r="G183" t="n">
-        <v>277.2666666666666</v>
+        <v>277.3149999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7171,10 +6815,10 @@
         <v>271.1</v>
       </c>
       <c r="F184" t="n">
-        <v>697.2091</v>
+        <v>241.4983</v>
       </c>
       <c r="G184" t="n">
-        <v>277.1899999999999</v>
+        <v>277.2666666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7194,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>270</v>
+        <v>271.1</v>
       </c>
       <c r="C185" t="n">
-        <v>270</v>
+        <v>271.1</v>
       </c>
       <c r="D185" t="n">
-        <v>270</v>
+        <v>271.1</v>
       </c>
       <c r="E185" t="n">
-        <v>270</v>
+        <v>271.1</v>
       </c>
       <c r="F185" t="n">
-        <v>66.17010000000001</v>
+        <v>697.2091</v>
       </c>
       <c r="G185" t="n">
-        <v>277.0949999999999</v>
+        <v>277.1899999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7229,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>272.9</v>
+        <v>270</v>
       </c>
       <c r="C186" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D186" t="n">
-        <v>272.9</v>
+        <v>270</v>
       </c>
       <c r="E186" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F186" t="n">
-        <v>52.1329</v>
+        <v>66.17010000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>276.9983333333332</v>
+        <v>277.0949999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7267,28 +6911,32 @@
         <v>272.9</v>
       </c>
       <c r="C187" t="n">
-        <v>272.9</v>
+        <v>271</v>
       </c>
       <c r="D187" t="n">
         <v>272.9</v>
       </c>
       <c r="E187" t="n">
-        <v>272.9</v>
+        <v>271</v>
       </c>
       <c r="F187" t="n">
-        <v>1534.2346</v>
+        <v>52.1329</v>
       </c>
       <c r="G187" t="n">
-        <v>276.9033333333333</v>
+        <v>276.9983333333332</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>270</v>
+      </c>
+      <c r="K187" t="n">
+        <v>270</v>
+      </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
@@ -7299,32 +6947,40 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>274.4</v>
+        <v>272.9</v>
       </c>
       <c r="C188" t="n">
-        <v>274.4</v>
+        <v>272.9</v>
       </c>
       <c r="D188" t="n">
-        <v>274.4</v>
+        <v>272.9</v>
       </c>
       <c r="E188" t="n">
-        <v>274.4</v>
+        <v>272.9</v>
       </c>
       <c r="F188" t="n">
-        <v>34.1551</v>
+        <v>1534.2346</v>
       </c>
       <c r="G188" t="n">
-        <v>276.8333333333333</v>
+        <v>276.9033333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>271</v>
+      </c>
+      <c r="K188" t="n">
+        <v>270</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7346,20 +7002,28 @@
         <v>274.4</v>
       </c>
       <c r="F189" t="n">
-        <v>10.902</v>
+        <v>34.1551</v>
       </c>
       <c r="G189" t="n">
-        <v>276.7633333333334</v>
+        <v>276.8333333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="K189" t="n">
+        <v>270</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7369,22 +7033,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>272.9</v>
+        <v>274.4</v>
       </c>
       <c r="C190" t="n">
-        <v>272.9</v>
+        <v>274.4</v>
       </c>
       <c r="D190" t="n">
-        <v>272.9</v>
+        <v>274.4</v>
       </c>
       <c r="E190" t="n">
-        <v>272.9</v>
+        <v>274.4</v>
       </c>
       <c r="F190" t="n">
-        <v>30.0021</v>
+        <v>10.902</v>
       </c>
       <c r="G190" t="n">
-        <v>276.7283333333334</v>
+        <v>276.7633333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7407,19 +7071,19 @@
         <v>272.9</v>
       </c>
       <c r="C191" t="n">
-        <v>273.2</v>
+        <v>272.9</v>
       </c>
       <c r="D191" t="n">
-        <v>273.2</v>
+        <v>272.9</v>
       </c>
       <c r="E191" t="n">
         <v>272.9</v>
       </c>
       <c r="F191" t="n">
-        <v>954.48</v>
+        <v>30.0021</v>
       </c>
       <c r="G191" t="n">
-        <v>276.7033333333334</v>
+        <v>276.7283333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7442,19 +7106,19 @@
         <v>272.9</v>
       </c>
       <c r="C192" t="n">
-        <v>272.9</v>
+        <v>273.2</v>
       </c>
       <c r="D192" t="n">
-        <v>272.9</v>
+        <v>273.2</v>
       </c>
       <c r="E192" t="n">
         <v>272.9</v>
       </c>
       <c r="F192" t="n">
-        <v>217</v>
+        <v>954.48</v>
       </c>
       <c r="G192" t="n">
-        <v>276.6183333333335</v>
+        <v>276.7033333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7486,10 +7150,10 @@
         <v>272.9</v>
       </c>
       <c r="F193" t="n">
-        <v>335.9086</v>
+        <v>217</v>
       </c>
       <c r="G193" t="n">
-        <v>276.5333333333335</v>
+        <v>276.6183333333335</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7512,19 +7176,19 @@
         <v>272.9</v>
       </c>
       <c r="C194" t="n">
-        <v>273.2</v>
+        <v>272.9</v>
       </c>
       <c r="D194" t="n">
-        <v>273.2</v>
+        <v>272.9</v>
       </c>
       <c r="E194" t="n">
         <v>272.9</v>
       </c>
       <c r="F194" t="n">
-        <v>13.98</v>
+        <v>335.9086</v>
       </c>
       <c r="G194" t="n">
-        <v>276.4533333333335</v>
+        <v>276.5333333333335</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7544,33 +7208,78 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="G195" t="n">
+        <v>276.4533333333335</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>273.3</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C196" t="n">
         <v>274.4</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D196" t="n">
         <v>274.4</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E196" t="n">
         <v>273.3</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F196" t="n">
         <v>7637.4958</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G196" t="n">
         <v>276.3933333333335</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>71.736</v>
       </c>
       <c r="G2" t="n">
+        <v>283.08</v>
+      </c>
+      <c r="H2" t="n">
         <v>285.2783333333335</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1105.8581</v>
       </c>
       <c r="G3" t="n">
+        <v>282.3866666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>285.0883333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3169.8348</v>
       </c>
       <c r="G4" t="n">
+        <v>281.6266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>284.9450000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>41396.3372</v>
       </c>
       <c r="G5" t="n">
+        <v>281.0466666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>284.8083333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4467.1574</v>
       </c>
       <c r="G6" t="n">
+        <v>280.7066666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>284.7033333333335</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>750</v>
       </c>
       <c r="G7" t="n">
+        <v>280.1666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>284.5666666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>14124.9636</v>
       </c>
       <c r="G8" t="n">
+        <v>279.6266666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>284.3616666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>6810.4505</v>
       </c>
       <c r="G9" t="n">
+        <v>278.7733333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>284.1550000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1719.42</v>
       </c>
       <c r="G10" t="n">
+        <v>277.4133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>283.8433333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
+        <v>276.9066666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>283.6416666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>479.1712</v>
       </c>
       <c r="G12" t="n">
+        <v>276.0666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>283.4433333333336</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3517.72</v>
       </c>
       <c r="G13" t="n">
+        <v>274.9999999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>283.1466666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>3464.1993</v>
       </c>
       <c r="G14" t="n">
+        <v>274.0199999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>282.7766666666669</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>250</v>
       </c>
       <c r="G15" t="n">
+        <v>273.4733333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>282.5116666666669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>5756.647</v>
       </c>
       <c r="G16" t="n">
+        <v>272.9133333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>282.1150000000002</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>472.3285</v>
       </c>
       <c r="G17" t="n">
+        <v>272.1733333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>281.7183333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>998.9171</v>
       </c>
       <c r="G18" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>281.3016666666669</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>226.12</v>
       </c>
       <c r="G19" t="n">
+        <v>271.04</v>
+      </c>
+      <c r="H19" t="n">
         <v>280.9216666666669</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>144.3448</v>
       </c>
       <c r="G20" t="n">
+        <v>270.4733333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>280.5533333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>144.02</v>
       </c>
       <c r="G21" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>280.1466666666668</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>29</v>
       </c>
       <c r="G22" t="n">
+        <v>269.0599999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>279.7766666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2433.9999</v>
       </c>
       <c r="G23" t="n">
+        <v>268.5866666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>279.4050000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>706</v>
       </c>
       <c r="G24" t="n">
+        <v>268.2666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>279.1050000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>250</v>
       </c>
       <c r="G25" t="n">
+        <v>268.3533333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>278.7900000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>974</v>
       </c>
       <c r="G26" t="n">
+        <v>268.0933333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>278.4983333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2788.1708</v>
       </c>
       <c r="G27" t="n">
+        <v>267.8333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>278.2066666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>144.3384</v>
       </c>
       <c r="G28" t="n">
+        <v>267.9733333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>277.9166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>249</v>
       </c>
       <c r="G29" t="n">
+        <v>268.3266666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>277.6683333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1000</v>
       </c>
       <c r="G30" t="n">
+        <v>268.1133333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>277.2833333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>598.9999</v>
       </c>
       <c r="G31" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>277.025</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>414.4338</v>
       </c>
       <c r="G32" t="n">
+        <v>268.5866666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>276.7916666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>11.8</v>
       </c>
       <c r="G33" t="n">
+        <v>268.7866666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>276.565</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>69.90000000000001</v>
       </c>
       <c r="G34" t="n">
+        <v>268.8533333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>276.3066666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>181</v>
       </c>
       <c r="G35" t="n">
+        <v>268.9400000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>276.0483333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2159.57</v>
       </c>
       <c r="G36" t="n">
+        <v>268.9333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>275.7283333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1439</v>
       </c>
       <c r="G37" t="n">
+        <v>268.72</v>
+      </c>
+      <c r="H37" t="n">
         <v>275.4083333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>148.9999</v>
       </c>
       <c r="G38" t="n">
+        <v>268.5133333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>275.0883333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>485</v>
       </c>
       <c r="G39" t="n">
+        <v>268.1466666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>274.7683333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>242.81</v>
       </c>
       <c r="G40" t="n">
+        <v>267.8733333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>274.45</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>4863.525</v>
       </c>
       <c r="G41" t="n">
+        <v>267.5000000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>274.1316666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>980.0037</v>
       </c>
       <c r="G42" t="n">
+        <v>267.1800000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>273.8433333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>250</v>
       </c>
       <c r="G43" t="n">
+        <v>266.9666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>273.5833333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>5024.7318</v>
       </c>
       <c r="G44" t="n">
+        <v>266.58</v>
+      </c>
+      <c r="H44" t="n">
         <v>273.3633333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>24</v>
       </c>
       <c r="G45" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="H45" t="n">
         <v>272.9833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>56</v>
       </c>
       <c r="G46" t="n">
+        <v>266.4333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>272.8483333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>389.1167</v>
       </c>
       <c r="G47" t="n">
+        <v>266.2733333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>272.5283333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>25.961</v>
       </c>
       <c r="G48" t="n">
+        <v>266.1133333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>272.2216666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2995.6824</v>
       </c>
       <c r="G49" t="n">
+        <v>266.2266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>271.9366666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1500</v>
       </c>
       <c r="G50" t="n">
+        <v>266.1933333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>271.6633333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5159.5802</v>
       </c>
       <c r="G51" t="n">
+        <v>266.5466666666668</v>
+      </c>
+      <c r="H51" t="n">
         <v>271.4466666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1675.04</v>
       </c>
       <c r="G52" t="n">
+        <v>266.7666666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>271.1783333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>3585.1624</v>
       </c>
       <c r="G53" t="n">
+        <v>267.1333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>270.9650000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>117.724</v>
       </c>
       <c r="G54" t="n">
+        <v>267.5066666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>270.6733333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>951.05</v>
       </c>
       <c r="G55" t="n">
+        <v>267.9000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>270.385</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>869.4298</v>
       </c>
       <c r="G56" t="n">
+        <v>268.2800000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>270.195</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>2359.89</v>
       </c>
       <c r="G57" t="n">
+        <v>268.6133333333335</v>
+      </c>
+      <c r="H57" t="n">
         <v>269.9233333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1525.0701</v>
       </c>
       <c r="G58" t="n">
+        <v>268.8333333333335</v>
+      </c>
+      <c r="H58" t="n">
         <v>269.6933333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>21445.1432</v>
       </c>
       <c r="G59" t="n">
+        <v>269.0533333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>269.495</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>439.1442</v>
       </c>
       <c r="G60" t="n">
+        <v>269.2933333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>269.395</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>52.8009</v>
       </c>
       <c r="G61" t="n">
+        <v>269.5200000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>269.3166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>31.95</v>
       </c>
       <c r="G62" t="n">
+        <v>269.7400000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>269.1933333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>542.659</v>
       </c>
       <c r="G63" t="n">
+        <v>269.9333333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>269.1083333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>163.654</v>
       </c>
       <c r="G64" t="n">
+        <v>269.9866666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>269.0266666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>305.072</v>
       </c>
       <c r="G65" t="n">
+        <v>270.1733333333335</v>
+      </c>
+      <c r="H65" t="n">
         <v>268.9450000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3049</v>
       </c>
       <c r="G66" t="n">
+        <v>270.1933333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>268.8183333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,25 @@
         <v>3342</v>
       </c>
       <c r="G67" t="n">
+        <v>270.3466666666669</v>
+      </c>
+      <c r="H67" t="n">
         <v>268.7233333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2965,29 @@
         <v>2416.38</v>
       </c>
       <c r="G68" t="n">
+        <v>270.3533333333335</v>
+      </c>
+      <c r="H68" t="n">
         <v>268.6466666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3011,29 @@
         <v>36.832412523</v>
       </c>
       <c r="G69" t="n">
+        <v>270.4466666666669</v>
+      </c>
+      <c r="H69" t="n">
         <v>268.5916666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3057,21 @@
         <v>4.57</v>
       </c>
       <c r="G70" t="n">
+        <v>270.4266666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>268.6383333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3095,21 @@
         <v>2284</v>
       </c>
       <c r="G71" t="n">
+        <v>270.3200000000002</v>
+      </c>
+      <c r="H71" t="n">
         <v>268.5483333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3133,21 @@
         <v>6855</v>
       </c>
       <c r="G72" t="n">
+        <v>270.0200000000003</v>
+      </c>
+      <c r="H72" t="n">
         <v>268.4116666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3171,21 @@
         <v>3.0098</v>
       </c>
       <c r="G73" t="n">
+        <v>270.0666666666669</v>
+      </c>
+      <c r="H73" t="n">
         <v>268.46</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3209,21 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>270.1200000000002</v>
+      </c>
+      <c r="H74" t="n">
         <v>268.52</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3247,21 @@
         <v>5.1777</v>
       </c>
       <c r="G75" t="n">
+        <v>270.1533333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>268.565</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3285,21 @@
         <v>22.5769</v>
       </c>
       <c r="G76" t="n">
+        <v>270.1933333333335</v>
+      </c>
+      <c r="H76" t="n">
         <v>268.6366666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3323,21 @@
         <v>10.4122</v>
       </c>
       <c r="G77" t="n">
+        <v>270.2333333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>268.7083333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3361,21 @@
         <v>128.7417</v>
       </c>
       <c r="G78" t="n">
+        <v>270.1600000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>268.7483333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3399,21 @@
         <v>14.22</v>
       </c>
       <c r="G79" t="n">
+        <v>270.0533333333336</v>
+      </c>
+      <c r="H79" t="n">
         <v>268.78</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3437,21 @@
         <v>2.0998</v>
       </c>
       <c r="G80" t="n">
+        <v>270.0866666666669</v>
+      </c>
+      <c r="H80" t="n">
         <v>268.8483333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3475,21 @@
         <v>3473.6416</v>
       </c>
       <c r="G81" t="n">
+        <v>269.9400000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>268.9033333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3513,25 @@
         <v>775.9456</v>
       </c>
       <c r="G82" t="n">
+        <v>269.8000000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>268.9083333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="L82" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3555,29 @@
         <v>18.4094256259</v>
       </c>
       <c r="G83" t="n">
+        <v>269.9000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>268.975</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>268</v>
+      </c>
+      <c r="L83" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3601,29 @@
         <v>426.909</v>
       </c>
       <c r="G84" t="n">
+        <v>269.6666666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>268.9416666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="L84" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3647,29 @@
         <v>5091.2868</v>
       </c>
       <c r="G85" t="n">
+        <v>269.5200000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>268.93</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>268</v>
+      </c>
+      <c r="L85" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3693,29 @@
         <v>32.503306642</v>
       </c>
       <c r="G86" t="n">
+        <v>269.6866666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>268.9466666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="L86" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3739,29 @@
         <v>5582.9835</v>
       </c>
       <c r="G87" t="n">
+        <v>269.9066666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>268.9300000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>271</v>
+      </c>
+      <c r="L87" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3785,29 @@
         <v>2225.2862</v>
       </c>
       <c r="G88" t="n">
+        <v>269.7933333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>268.9150000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>269</v>
+      </c>
+      <c r="L88" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3831,29 @@
         <v>895.7704</v>
       </c>
       <c r="G89" t="n">
+        <v>269.7066666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>268.8650000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3877,29 @@
         <v>300</v>
       </c>
       <c r="G90" t="n">
+        <v>269.64</v>
+      </c>
+      <c r="H90" t="n">
         <v>268.9466666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="L90" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3923,29 @@
         <v>595.7704</v>
       </c>
       <c r="G91" t="n">
+        <v>269.54</v>
+      </c>
+      <c r="H91" t="n">
         <v>268.9216666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>270</v>
+      </c>
+      <c r="L91" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3969,29 @@
         <v>36</v>
       </c>
       <c r="G92" t="n">
+        <v>269.54</v>
+      </c>
+      <c r="H92" t="n">
         <v>268.9466666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>270</v>
+      </c>
+      <c r="L92" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4015,29 @@
         <v>4637.4087</v>
       </c>
       <c r="G93" t="n">
+        <v>269.38</v>
+      </c>
+      <c r="H93" t="n">
         <v>268.8966666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4061,29 @@
         <v>98</v>
       </c>
       <c r="G94" t="n">
+        <v>269.44</v>
+      </c>
+      <c r="H94" t="n">
         <v>268.9266666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>267</v>
+      </c>
+      <c r="L94" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4107,29 @@
         <v>3610.1162</v>
       </c>
       <c r="G95" t="n">
+        <v>269.08</v>
+      </c>
+      <c r="H95" t="n">
         <v>268.8833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="L95" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4153,29 @@
         <v>2089.4051</v>
       </c>
       <c r="G96" t="n">
+        <v>269.2333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>268.9783333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>265.6</v>
+      </c>
+      <c r="L96" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4199,29 @@
         <v>1177</v>
       </c>
       <c r="G97" t="n">
+        <v>269.4466666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>269.0900000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4245,29 @@
         <v>138.8595650571</v>
       </c>
       <c r="G98" t="n">
+        <v>269.4266666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>269.2033333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>271.2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4291,29 @@
         <v>10.3206782159</v>
       </c>
       <c r="G99" t="n">
+        <v>269.6466666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>269.3166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4337,27 @@
         <v>622.8429</v>
       </c>
       <c r="G100" t="n">
+        <v>269.88</v>
+      </c>
+      <c r="H100" t="n">
         <v>269.4316666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4381,27 @@
         <v>1377.157</v>
       </c>
       <c r="G101" t="n">
+        <v>269.9066666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>269.5483333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4425,27 @@
         <v>442</v>
       </c>
       <c r="G102" t="n">
+        <v>270.0600000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>269.6500000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4469,27 @@
         <v>878</v>
       </c>
       <c r="G103" t="n">
+        <v>269.9200000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>269.6533333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4513,29 @@
         <v>1543.2649</v>
       </c>
       <c r="G104" t="n">
+        <v>269.8133333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>269.6733333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>267.1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4559,29 @@
         <v>15</v>
       </c>
       <c r="G105" t="n">
+        <v>269.8133333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>269.7250000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>268</v>
+      </c>
+      <c r="L105" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4605,29 @@
         <v>886</v>
       </c>
       <c r="G106" t="n">
+        <v>269.6800000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>269.7333333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>270</v>
+      </c>
+      <c r="L106" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4651,27 @@
         <v>1.9</v>
       </c>
       <c r="G107" t="n">
+        <v>269.6866666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>269.8000000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4695,27 @@
         <v>35.9430743741</v>
       </c>
       <c r="G108" t="n">
+        <v>269.9933333333335</v>
+      </c>
+      <c r="H108" t="n">
         <v>269.8666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4739,27 @@
         <v>52.92</v>
       </c>
       <c r="G109" t="n">
+        <v>270.1066666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>269.8966666666668</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4783,27 @@
         <v>16</v>
       </c>
       <c r="G110" t="n">
+        <v>270.4933333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>269.9583333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4827,27 @@
         <v>6289</v>
       </c>
       <c r="G111" t="n">
+        <v>270.3800000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>269.9366666666668</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4871,27 @@
         <v>1109</v>
       </c>
       <c r="G112" t="n">
+        <v>270.4000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>269.9983333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4915,27 @@
         <v>637.2948</v>
       </c>
       <c r="G113" t="n">
+        <v>270.4400000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>270.0300000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4959,27 @@
         <v>14</v>
       </c>
       <c r="G114" t="n">
+        <v>270.4866666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>270.0616666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5003,27 @@
         <v>2188.0218</v>
       </c>
       <c r="G115" t="n">
+        <v>270.5733333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>270.1000000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5047,27 @@
         <v>6357.273</v>
       </c>
       <c r="G116" t="n">
+        <v>270.42</v>
+      </c>
+      <c r="H116" t="n">
         <v>270.0833333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5091,27 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
+        <v>270.5133333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>270.1250000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5135,27 @@
         <v>40</v>
       </c>
       <c r="G118" t="n">
+        <v>270.8733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>270.1633333333335</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5179,27 @@
         <v>169.0507</v>
       </c>
       <c r="G119" t="n">
+        <v>271.2266666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>270.2166666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5223,27 @@
         <v>1659.8527</v>
       </c>
       <c r="G120" t="n">
+        <v>271.44</v>
+      </c>
+      <c r="H120" t="n">
         <v>270.2616666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5267,27 @@
         <v>315.0474</v>
       </c>
       <c r="G121" t="n">
+        <v>271.8266666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>270.3100000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5311,27 @@
         <v>211</v>
       </c>
       <c r="G122" t="n">
+        <v>271.9733333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>270.3583333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5355,27 @@
         <v>163.5334</v>
       </c>
       <c r="G123" t="n">
+        <v>272.1266666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>270.4150000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5399,27 @@
         <v>16</v>
       </c>
       <c r="G124" t="n">
+        <v>272.2866666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>270.4716666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5443,27 @@
         <v>246.021</v>
       </c>
       <c r="G125" t="n">
+        <v>272.5733333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>270.5583333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5487,27 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
+        <v>273.0533333333335</v>
+      </c>
+      <c r="H126" t="n">
         <v>270.6516666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5531,27 @@
         <v>166.516</v>
       </c>
       <c r="G127" t="n">
+        <v>273.4066666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>270.7633333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5575,27 @@
         <v>72.34365269200001</v>
       </c>
       <c r="G128" t="n">
+        <v>273.8533333333335</v>
+      </c>
+      <c r="H128" t="n">
         <v>270.9050000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5619,27 @@
         <v>60.5851</v>
       </c>
       <c r="G129" t="n">
+        <v>274.2933333333336</v>
+      </c>
+      <c r="H129" t="n">
         <v>271.0233333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5663,27 @@
         <v>4695.5328</v>
       </c>
       <c r="G130" t="n">
+        <v>274.6866666666669</v>
+      </c>
+      <c r="H130" t="n">
         <v>271.1650000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5707,27 @@
         <v>48.8843</v>
       </c>
       <c r="G131" t="n">
+        <v>275.0800000000002</v>
+      </c>
+      <c r="H131" t="n">
         <v>271.2733333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5751,27 @@
         <v>1.9231</v>
       </c>
       <c r="G132" t="n">
+        <v>275.2133333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>271.4233333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5795,27 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
+        <v>275.5800000000002</v>
+      </c>
+      <c r="H133" t="n">
         <v>271.5416666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5839,27 @@
         <v>84.6407</v>
       </c>
       <c r="G134" t="n">
+        <v>275.8933333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>271.66</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5883,27 @@
         <v>883.9446</v>
       </c>
       <c r="G135" t="n">
+        <v>276.2133333333335</v>
+      </c>
+      <c r="H135" t="n">
         <v>271.7766666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5927,27 @@
         <v>36.1822</v>
       </c>
       <c r="G136" t="n">
+        <v>276.4933333333336</v>
+      </c>
+      <c r="H136" t="n">
         <v>271.885</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5971,27 @@
         <v>133.2838</v>
       </c>
       <c r="G137" t="n">
+        <v>276.7733333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>271.9933333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6015,27 @@
         <v>143.7147</v>
       </c>
       <c r="G138" t="n">
+        <v>277.1000000000003</v>
+      </c>
+      <c r="H138" t="n">
         <v>272.15</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6059,27 @@
         <v>125.312</v>
       </c>
       <c r="G139" t="n">
+        <v>277.4333333333336</v>
+      </c>
+      <c r="H139" t="n">
         <v>272.3166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6103,27 @@
         <v>29</v>
       </c>
       <c r="G140" t="n">
+        <v>277.6533333333336</v>
+      </c>
+      <c r="H140" t="n">
         <v>272.45</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6147,27 @@
         <v>4426.921</v>
       </c>
       <c r="G141" t="n">
+        <v>277.8733333333336</v>
+      </c>
+      <c r="H141" t="n">
         <v>272.635</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6191,27 @@
         <v>30</v>
       </c>
       <c r="G142" t="n">
+        <v>278.0200000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>272.8183333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6235,27 @@
         <v>21.5362</v>
       </c>
       <c r="G143" t="n">
+        <v>277.9266666666669</v>
+      </c>
+      <c r="H143" t="n">
         <v>272.9116666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6279,27 @@
         <v>29983.5793</v>
       </c>
       <c r="G144" t="n">
+        <v>277.7133333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>273.035</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6323,27 @@
         <v>1102</v>
       </c>
       <c r="G145" t="n">
+        <v>277.7866666666668</v>
+      </c>
+      <c r="H145" t="n">
         <v>273.2316666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,19 +6367,28 @@
         <v>2324.7565</v>
       </c>
       <c r="G146" t="n">
+        <v>278.1133333333335</v>
+      </c>
+      <c r="H146" t="n">
         <v>273.38</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
+      <c r="L146" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1.039792833146697</v>
       </c>
     </row>
     <row r="147">
@@ -5523,18 +6411,21 @@
         <v>313.0145</v>
       </c>
       <c r="G147" t="n">
+        <v>278.3333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>273.53</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6449,21 @@
         <v>974</v>
       </c>
       <c r="G148" t="n">
+        <v>278.4533333333335</v>
+      </c>
+      <c r="H148" t="n">
         <v>273.7066666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6487,21 @@
         <v>10941.2073</v>
       </c>
       <c r="G149" t="n">
+        <v>278.5866666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>273.88</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6525,21 @@
         <v>1130.7927</v>
       </c>
       <c r="G150" t="n">
+        <v>278.7200000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>274.0466666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6563,21 @@
         <v>1118.65</v>
       </c>
       <c r="G151" t="n">
+        <v>278.5866666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>274.1466666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6601,21 @@
         <v>30000</v>
       </c>
       <c r="G152" t="n">
+        <v>278.3266666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>274.1899999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6639,21 @@
         <v>20000</v>
       </c>
       <c r="G153" t="n">
+        <v>277.9466666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>274.2916666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6677,21 @@
         <v>4943.4147</v>
       </c>
       <c r="G154" t="n">
+        <v>277.7333333333335</v>
+      </c>
+      <c r="H154" t="n">
         <v>274.3899999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6715,21 @@
         <v>405.9998</v>
       </c>
       <c r="G155" t="n">
+        <v>277.4466666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>274.5416666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6753,21 @@
         <v>405.9999</v>
       </c>
       <c r="G156" t="n">
+        <v>277.1666666666669</v>
+      </c>
+      <c r="H156" t="n">
         <v>274.6183333333332</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6791,21 @@
         <v>559.5022</v>
       </c>
       <c r="G157" t="n">
+        <v>277.0266666666668</v>
+      </c>
+      <c r="H157" t="n">
         <v>274.7133333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6829,21 @@
         <v>28.7079</v>
       </c>
       <c r="G158" t="n">
+        <v>277.0133333333335</v>
+      </c>
+      <c r="H158" t="n">
         <v>274.8083333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6867,21 @@
         <v>13962.2312</v>
       </c>
       <c r="G159" t="n">
+        <v>277.1866666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>274.92</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6905,21 @@
         <v>2907</v>
       </c>
       <c r="G160" t="n">
+        <v>277.0733333333336</v>
+      </c>
+      <c r="H160" t="n">
         <v>275.0299999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6943,21 @@
         <v>5351.2713</v>
       </c>
       <c r="G161" t="n">
+        <v>276.9466666666669</v>
+      </c>
+      <c r="H161" t="n">
         <v>275.1399999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6981,21 @@
         <v>2556.9638</v>
       </c>
       <c r="G162" t="n">
+        <v>276.9466666666669</v>
+      </c>
+      <c r="H162" t="n">
         <v>275.2516666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7019,21 @@
         <v>14.38</v>
       </c>
       <c r="G163" t="n">
+        <v>276.8933333333335</v>
+      </c>
+      <c r="H163" t="n">
         <v>275.4499999999999</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7057,21 @@
         <v>2</v>
       </c>
       <c r="G164" t="n">
+        <v>276.9466666666669</v>
+      </c>
+      <c r="H164" t="n">
         <v>275.6633333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7095,21 @@
         <v>2</v>
       </c>
       <c r="G165" t="n">
+        <v>277.1133333333336</v>
+      </c>
+      <c r="H165" t="n">
         <v>275.8716666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7133,21 @@
         <v>3393.5232</v>
       </c>
       <c r="G166" t="n">
+        <v>277.2400000000002</v>
+      </c>
+      <c r="H166" t="n">
         <v>276.0366666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7171,21 @@
         <v>2</v>
       </c>
       <c r="G167" t="n">
+        <v>277.6800000000002</v>
+      </c>
+      <c r="H167" t="n">
         <v>276.1883333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7209,21 @@
         <v>4044.7578</v>
       </c>
       <c r="G168" t="n">
+        <v>278.1666666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>276.335</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7247,21 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
+        <v>278.6066666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>276.5150000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7285,21 @@
         <v>10685.9168</v>
       </c>
       <c r="G170" t="n">
+        <v>278.8466666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>276.6300000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7323,21 @@
         <v>575.2947</v>
       </c>
       <c r="G171" t="n">
+        <v>279.0666666666668</v>
+      </c>
+      <c r="H171" t="n">
         <v>276.79</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7361,21 @@
         <v>500</v>
       </c>
       <c r="G172" t="n">
+        <v>279.1466666666668</v>
+      </c>
+      <c r="H172" t="n">
         <v>276.9</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7399,21 @@
         <v>9396.6677</v>
       </c>
       <c r="G173" t="n">
+        <v>279.0866666666669</v>
+      </c>
+      <c r="H173" t="n">
         <v>276.97</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7437,21 @@
         <v>4750</v>
       </c>
       <c r="G174" t="n">
+        <v>278.9600000000002</v>
+      </c>
+      <c r="H174" t="n">
         <v>277.0383333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7475,21 @@
         <v>1020.1412</v>
       </c>
       <c r="G175" t="n">
+        <v>278.7733333333335</v>
+      </c>
+      <c r="H175" t="n">
         <v>277.0799999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7513,21 @@
         <v>27493.3199</v>
       </c>
       <c r="G176" t="n">
+        <v>278.5666666666668</v>
+      </c>
+      <c r="H176" t="n">
         <v>277.1766666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7551,21 @@
         <v>15</v>
       </c>
       <c r="G177" t="n">
+        <v>278.3533333333335</v>
+      </c>
+      <c r="H177" t="n">
         <v>277.2116666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7589,21 @@
         <v>3075.0594</v>
       </c>
       <c r="G178" t="n">
+        <v>277.9533333333335</v>
+      </c>
+      <c r="H178" t="n">
         <v>277.22</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7627,21 @@
         <v>2</v>
       </c>
       <c r="G179" t="n">
+        <v>277.7133333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>277.285</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7665,21 @@
         <v>2</v>
       </c>
       <c r="G180" t="n">
+        <v>277.3800000000002</v>
+      </c>
+      <c r="H180" t="n">
         <v>277.3566666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7703,21 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
+        <v>277.1733333333335</v>
+      </c>
+      <c r="H181" t="n">
         <v>277.3733333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7741,21 @@
         <v>36.91</v>
       </c>
       <c r="G182" t="n">
+        <v>276.7266666666669</v>
+      </c>
+      <c r="H182" t="n">
         <v>277.3766666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7779,21 @@
         <v>2988.6296</v>
       </c>
       <c r="G183" t="n">
+        <v>276.0466666666669</v>
+      </c>
+      <c r="H183" t="n">
         <v>277.3149999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7817,21 @@
         <v>241.4983</v>
       </c>
       <c r="G184" t="n">
+        <v>275.2933333333336</v>
+      </c>
+      <c r="H184" t="n">
         <v>277.2666666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7855,21 @@
         <v>697.2091</v>
       </c>
       <c r="G185" t="n">
+        <v>274.8133333333336</v>
+      </c>
+      <c r="H185" t="n">
         <v>277.1899999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7893,21 @@
         <v>66.17010000000001</v>
       </c>
       <c r="G186" t="n">
+        <v>274.2733333333336</v>
+      </c>
+      <c r="H186" t="n">
         <v>277.0949999999999</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,22 +7931,21 @@
         <v>52.1329</v>
       </c>
       <c r="G187" t="n">
+        <v>273.8000000000002</v>
+      </c>
+      <c r="H187" t="n">
         <v>276.9983333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>270</v>
-      </c>
-      <c r="K187" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6962,26 +7969,21 @@
         <v>1534.2346</v>
       </c>
       <c r="G188" t="n">
+        <v>273.5866666666669</v>
+      </c>
+      <c r="H188" t="n">
         <v>276.9033333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>271</v>
-      </c>
-      <c r="K188" t="n">
-        <v>270</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7005,26 +8007,21 @@
         <v>34.1551</v>
       </c>
       <c r="G189" t="n">
+        <v>273.4733333333335</v>
+      </c>
+      <c r="H189" t="n">
         <v>276.8333333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="K189" t="n">
-        <v>270</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,18 +8045,21 @@
         <v>10.902</v>
       </c>
       <c r="G190" t="n">
+        <v>273.4200000000001</v>
+      </c>
+      <c r="H190" t="n">
         <v>276.7633333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7083,18 +8083,21 @@
         <v>30.0021</v>
       </c>
       <c r="G191" t="n">
+        <v>273.2866666666668</v>
+      </c>
+      <c r="H191" t="n">
         <v>276.7283333333334</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,18 +8121,21 @@
         <v>954.48</v>
       </c>
       <c r="G192" t="n">
+        <v>273.1800000000001</v>
+      </c>
+      <c r="H192" t="n">
         <v>276.7033333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7153,18 +8159,21 @@
         <v>217</v>
       </c>
       <c r="G193" t="n">
+        <v>273.1733333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>276.6183333333335</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,18 +8197,21 @@
         <v>335.9086</v>
       </c>
       <c r="G194" t="n">
+        <v>272.8866666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>276.5333333333335</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,24 +8235,21 @@
         <v>13.98</v>
       </c>
       <c r="G195" t="n">
+        <v>272.6000000000001</v>
+      </c>
+      <c r="H195" t="n">
         <v>276.4533333333335</v>
       </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>272.9</v>
+        <v>0</v>
       </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7264,22 +8273,401 @@
         <v>7637.4958</v>
       </c>
       <c r="G196" t="n">
+        <v>272.5733333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>276.3933333333335</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="D197" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+      <c r="G197" t="n">
+        <v>272.6866666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>276.3550000000002</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="D198" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="F198" t="n">
+        <v>498.1257</v>
+      </c>
+      <c r="G198" t="n">
+        <v>273.0533333333333</v>
+      </c>
+      <c r="H198" t="n">
+        <v>276.3033333333335</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="C199" t="n">
+        <v>273</v>
+      </c>
+      <c r="D199" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>273</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1739.0443</v>
+      </c>
+      <c r="G199" t="n">
+        <v>273.18</v>
+      </c>
+      <c r="H199" t="n">
+        <v>276.2033333333335</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="C200" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="D200" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="E200" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2</v>
+      </c>
+      <c r="G200" t="n">
+        <v>273.6666666666666</v>
+      </c>
+      <c r="H200" t="n">
+        <v>276.1933333333336</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+      <c r="G201" t="n">
+        <v>274.22</v>
+      </c>
+      <c r="H201" t="n">
+        <v>276.1816666666669</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="C202" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="D202" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4</v>
+      </c>
+      <c r="G202" t="n">
+        <v>274.7799999999999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>276.1883333333336</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="n">
+        <v>275.22</v>
+      </c>
+      <c r="H203" t="n">
+        <v>276.2266666666669</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>277.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>273</v>
+      </c>
+      <c r="D204" t="n">
+        <v>277.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>273</v>
+      </c>
+      <c r="F204" t="n">
+        <v>430.3752</v>
+      </c>
+      <c r="G204" t="n">
+        <v>275.1266666666667</v>
+      </c>
+      <c r="H204" t="n">
+        <v>276.1866666666668</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>275.3866666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>276.1633333333335</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="C206" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="D206" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>257</v>
+      </c>
+      <c r="G206" t="n">
+        <v>275.7466666666667</v>
+      </c>
+      <c r="H206" t="n">
+        <v>276.1366666666668</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>283.6</v>
+        <v>268.3</v>
       </c>
       <c r="C2" t="n">
-        <v>283.6</v>
+        <v>268.3</v>
       </c>
       <c r="D2" t="n">
-        <v>283.6</v>
+        <v>268.3</v>
       </c>
       <c r="E2" t="n">
-        <v>283.6</v>
+        <v>268.3</v>
       </c>
       <c r="F2" t="n">
-        <v>391.9999</v>
+        <v>250</v>
       </c>
       <c r="G2" t="n">
-        <v>-86405.28799999997</v>
+        <v>-166719.9400723308</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>283.6</v>
+        <v>268.3</v>
       </c>
       <c r="C3" t="n">
-        <v>283.6</v>
+        <v>267.2</v>
       </c>
       <c r="D3" t="n">
-        <v>283.6</v>
+        <v>268.3</v>
       </c>
       <c r="E3" t="n">
-        <v>283.6</v>
+        <v>267.2</v>
       </c>
       <c r="F3" t="n">
-        <v>772.9999</v>
+        <v>5756.647</v>
       </c>
       <c r="G3" t="n">
-        <v>-86405.28799999997</v>
+        <v>-172476.5870723308</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>283.7</v>
+        <v>267.2</v>
       </c>
       <c r="C4" t="n">
-        <v>283.7</v>
+        <v>267.2</v>
       </c>
       <c r="D4" t="n">
-        <v>283.7</v>
+        <v>267.2</v>
       </c>
       <c r="E4" t="n">
-        <v>283.6</v>
+        <v>267.2</v>
       </c>
       <c r="F4" t="n">
-        <v>596.2568</v>
+        <v>472.3285</v>
       </c>
       <c r="G4" t="n">
-        <v>-85809.03119999997</v>
+        <v>-172476.5870723308</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>283.8</v>
+        <v>267.2</v>
       </c>
       <c r="C5" t="n">
-        <v>283.7</v>
+        <v>267</v>
       </c>
       <c r="D5" t="n">
-        <v>283.8</v>
+        <v>267.2</v>
       </c>
       <c r="E5" t="n">
-        <v>283.7</v>
+        <v>267</v>
       </c>
       <c r="F5" t="n">
-        <v>183.8299</v>
+        <v>998.9171</v>
       </c>
       <c r="G5" t="n">
-        <v>-85809.03119999997</v>
+        <v>-173475.5041723308</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>283.7</v>
+        <v>267</v>
       </c>
       <c r="C6" t="n">
-        <v>283.7</v>
+        <v>267.1</v>
       </c>
       <c r="D6" t="n">
-        <v>283.7</v>
+        <v>267.1</v>
       </c>
       <c r="E6" t="n">
-        <v>283.7</v>
+        <v>267</v>
       </c>
       <c r="F6" t="n">
-        <v>515.49</v>
+        <v>226.12</v>
       </c>
       <c r="G6" t="n">
-        <v>-85809.03119999997</v>
+        <v>-173249.3841723308</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>283.7</v>
+        <v>267</v>
       </c>
       <c r="C7" t="n">
-        <v>283.7</v>
+        <v>266.9</v>
       </c>
       <c r="D7" t="n">
-        <v>283.7</v>
+        <v>267</v>
       </c>
       <c r="E7" t="n">
-        <v>283.7</v>
+        <v>266.9</v>
       </c>
       <c r="F7" t="n">
-        <v>302.7346</v>
+        <v>144.3448</v>
       </c>
       <c r="G7" t="n">
-        <v>-85809.03119999997</v>
+        <v>-173393.7289723308</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>283.7</v>
+        <v>264.6</v>
       </c>
       <c r="C8" t="n">
-        <v>283.7</v>
+        <v>264.6</v>
       </c>
       <c r="D8" t="n">
-        <v>283.7</v>
+        <v>264.6</v>
       </c>
       <c r="E8" t="n">
-        <v>283.7</v>
+        <v>264.6</v>
       </c>
       <c r="F8" t="n">
-        <v>31.95</v>
+        <v>144.02</v>
       </c>
       <c r="G8" t="n">
-        <v>-85809.03119999997</v>
+        <v>-173537.7489723308</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>283.7</v>
+        <v>267.7</v>
       </c>
       <c r="C9" t="n">
-        <v>283.6</v>
+        <v>267.7</v>
       </c>
       <c r="D9" t="n">
-        <v>283.7</v>
+        <v>267.7</v>
       </c>
       <c r="E9" t="n">
-        <v>283.6</v>
+        <v>267.7</v>
       </c>
       <c r="F9" t="n">
-        <v>363.91</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>-86172.94119999997</v>
+        <v>-173508.7489723308</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>283.7</v>
+        <v>267.6</v>
       </c>
       <c r="C10" t="n">
-        <v>283.5</v>
+        <v>267.6</v>
       </c>
       <c r="D10" t="n">
-        <v>283.8</v>
+        <v>268.9</v>
       </c>
       <c r="E10" t="n">
-        <v>283.5</v>
+        <v>267.5</v>
       </c>
       <c r="F10" t="n">
-        <v>15772.0419</v>
+        <v>2433.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>-101944.9831</v>
+        <v>-175942.7488723308</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>282.5</v>
+        <v>268.9</v>
       </c>
       <c r="C11" t="n">
-        <v>282.5</v>
+        <v>270</v>
       </c>
       <c r="D11" t="n">
-        <v>282.5</v>
+        <v>270</v>
       </c>
       <c r="E11" t="n">
-        <v>282.5</v>
+        <v>268.9</v>
       </c>
       <c r="F11" t="n">
-        <v>162</v>
+        <v>706</v>
       </c>
       <c r="G11" t="n">
-        <v>-102106.9831</v>
+        <v>-175236.7488723308</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>282.5</v>
+        <v>268.6</v>
       </c>
       <c r="C12" t="n">
-        <v>282.5</v>
+        <v>268.6</v>
       </c>
       <c r="D12" t="n">
-        <v>282.5</v>
+        <v>268.6</v>
       </c>
       <c r="E12" t="n">
-        <v>282.5</v>
+        <v>268.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1040.1916</v>
+        <v>250</v>
       </c>
       <c r="G12" t="n">
-        <v>-102106.9831</v>
+        <v>-175486.7488723308</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>282.5</v>
+        <v>268.9</v>
       </c>
       <c r="C13" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D13" t="n">
-        <v>282.5</v>
+        <v>270</v>
       </c>
       <c r="E13" t="n">
-        <v>280</v>
+        <v>268.8</v>
       </c>
       <c r="F13" t="n">
-        <v>11924.7882</v>
+        <v>974</v>
       </c>
       <c r="G13" t="n">
-        <v>-114031.7713</v>
+        <v>-174512.7488723308</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>280</v>
+        <v>268.9</v>
       </c>
       <c r="C14" t="n">
-        <v>289.7</v>
+        <v>270</v>
       </c>
       <c r="D14" t="n">
-        <v>289.7</v>
+        <v>270.1</v>
       </c>
       <c r="E14" t="n">
-        <v>280</v>
+        <v>268.9</v>
       </c>
       <c r="F14" t="n">
-        <v>12544.5884</v>
+        <v>2788.1708</v>
       </c>
       <c r="G14" t="n">
-        <v>-101487.1829</v>
+        <v>-174512.7488723308</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>280.7</v>
+        <v>270.1</v>
       </c>
       <c r="C15" t="n">
-        <v>275.6</v>
+        <v>270.1</v>
       </c>
       <c r="D15" t="n">
-        <v>280.7</v>
+        <v>270.1</v>
       </c>
       <c r="E15" t="n">
-        <v>275.2</v>
+        <v>270.1</v>
       </c>
       <c r="F15" t="n">
-        <v>4358.5859</v>
+        <v>144.3384</v>
       </c>
       <c r="G15" t="n">
-        <v>-105845.7688</v>
+        <v>-174368.4104723308</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282.9</v>
+        <v>270.1</v>
       </c>
       <c r="C16" t="n">
-        <v>286.8</v>
+        <v>272.6</v>
       </c>
       <c r="D16" t="n">
-        <v>286.8</v>
+        <v>272.6</v>
       </c>
       <c r="E16" t="n">
-        <v>282.9</v>
+        <v>270.1</v>
       </c>
       <c r="F16" t="n">
-        <v>352.4880830892</v>
+        <v>249</v>
       </c>
       <c r="G16" t="n">
-        <v>-105493.2807169108</v>
+        <v>-174119.4104723308</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>278.2</v>
+        <v>268.6</v>
       </c>
       <c r="C17" t="n">
-        <v>286</v>
+        <v>265.1</v>
       </c>
       <c r="D17" t="n">
-        <v>286.9</v>
+        <v>268.6</v>
       </c>
       <c r="E17" t="n">
-        <v>278.2</v>
+        <v>265.1</v>
       </c>
       <c r="F17" t="n">
-        <v>897.9293</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>-106391.2100169108</v>
+        <v>-175119.4104723308</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>285.3</v>
+        <v>271.3</v>
       </c>
       <c r="C18" t="n">
-        <v>286.9</v>
+        <v>271.5</v>
       </c>
       <c r="D18" t="n">
-        <v>286.9</v>
+        <v>272.3</v>
       </c>
       <c r="E18" t="n">
-        <v>285.3</v>
+        <v>271.3</v>
       </c>
       <c r="F18" t="n">
-        <v>698.0869445799</v>
+        <v>598.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-105693.1230723309</v>
+        <v>-174520.4105723308</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>285.7</v>
+        <v>270</v>
       </c>
       <c r="C19" t="n">
-        <v>284.1</v>
+        <v>270</v>
       </c>
       <c r="D19" t="n">
-        <v>285.7</v>
+        <v>270</v>
       </c>
       <c r="E19" t="n">
-        <v>284.1</v>
+        <v>270</v>
       </c>
       <c r="F19" t="n">
-        <v>2344.5986</v>
+        <v>414.4338</v>
       </c>
       <c r="G19" t="n">
-        <v>-108037.7216723309</v>
+        <v>-174934.8443723308</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>284.1</v>
+        <v>270</v>
       </c>
       <c r="C20" t="n">
-        <v>282.8</v>
+        <v>270</v>
       </c>
       <c r="D20" t="n">
-        <v>284.1</v>
+        <v>270</v>
       </c>
       <c r="E20" t="n">
-        <v>282.8</v>
+        <v>270</v>
       </c>
       <c r="F20" t="n">
-        <v>102.9988</v>
+        <v>11.8</v>
       </c>
       <c r="G20" t="n">
-        <v>-108140.7204723309</v>
+        <v>-174934.8443723308</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>283.9</v>
+        <v>270</v>
       </c>
       <c r="C21" t="n">
-        <v>283.9</v>
+        <v>268.1</v>
       </c>
       <c r="D21" t="n">
-        <v>283.9</v>
+        <v>270</v>
       </c>
       <c r="E21" t="n">
-        <v>283.9</v>
+        <v>268.1</v>
       </c>
       <c r="F21" t="n">
-        <v>66.42740000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-108074.2930723309</v>
+        <v>-175004.7443723308</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>282.8</v>
+        <v>268.2</v>
       </c>
       <c r="C22" t="n">
-        <v>282.8</v>
+        <v>268.2</v>
       </c>
       <c r="D22" t="n">
-        <v>282.8</v>
+        <v>268.2</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8</v>
+        <v>268.2</v>
       </c>
       <c r="F22" t="n">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="G22" t="n">
-        <v>-108187.2930723309</v>
+        <v>-174823.7443723308</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>282.8</v>
+        <v>267.2</v>
       </c>
       <c r="C23" t="n">
-        <v>287.6</v>
+        <v>264.5</v>
       </c>
       <c r="D23" t="n">
-        <v>287.6</v>
+        <v>267.2</v>
       </c>
       <c r="E23" t="n">
-        <v>278.4</v>
+        <v>264.5</v>
       </c>
       <c r="F23" t="n">
-        <v>4095</v>
+        <v>2159.57</v>
       </c>
       <c r="G23" t="n">
-        <v>-104092.2930723309</v>
+        <v>-176983.3143723308</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>287.7</v>
+        <v>266</v>
       </c>
       <c r="C24" t="n">
-        <v>287.7</v>
+        <v>264.5</v>
       </c>
       <c r="D24" t="n">
-        <v>287.7</v>
+        <v>266</v>
       </c>
       <c r="E24" t="n">
-        <v>287.7</v>
+        <v>264.5</v>
       </c>
       <c r="F24" t="n">
-        <v>113</v>
+        <v>1439</v>
       </c>
       <c r="G24" t="n">
-        <v>-103979.2930723309</v>
+        <v>-176983.3143723308</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>284.5</v>
+        <v>264.5</v>
       </c>
       <c r="C25" t="n">
-        <v>281.5</v>
+        <v>264.5</v>
       </c>
       <c r="D25" t="n">
-        <v>284.5</v>
+        <v>264.5</v>
       </c>
       <c r="E25" t="n">
-        <v>281.5</v>
+        <v>264.5</v>
       </c>
       <c r="F25" t="n">
-        <v>2583.3205</v>
+        <v>148.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>-106562.6135723309</v>
+        <v>-176983.3143723308</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>286.5</v>
+        <v>264.5</v>
       </c>
       <c r="C26" t="n">
-        <v>286.5</v>
+        <v>264.5</v>
       </c>
       <c r="D26" t="n">
-        <v>286.5</v>
+        <v>264.5</v>
       </c>
       <c r="E26" t="n">
-        <v>286.5</v>
+        <v>264.5</v>
       </c>
       <c r="F26" t="n">
-        <v>146</v>
+        <v>485</v>
       </c>
       <c r="G26" t="n">
-        <v>-106416.6135723309</v>
+        <v>-176983.3143723308</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C27" t="n">
-        <v>284</v>
+        <v>264.5</v>
       </c>
       <c r="D27" t="n">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E27" t="n">
-        <v>284</v>
+        <v>264.5</v>
       </c>
       <c r="F27" t="n">
-        <v>546</v>
+        <v>242.81</v>
       </c>
       <c r="G27" t="n">
-        <v>-106962.6135723309</v>
+        <v>-176983.3143723308</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>282</v>
+        <v>264.6</v>
       </c>
       <c r="C28" t="n">
-        <v>282</v>
+        <v>264.4</v>
       </c>
       <c r="D28" t="n">
-        <v>282</v>
+        <v>264.6</v>
       </c>
       <c r="E28" t="n">
-        <v>282</v>
+        <v>264.4</v>
       </c>
       <c r="F28" t="n">
-        <v>183.72</v>
+        <v>4863.525</v>
       </c>
       <c r="G28" t="n">
-        <v>-107146.3335723309</v>
+        <v>-181846.8393723308</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>282</v>
+        <v>265.2</v>
       </c>
       <c r="C29" t="n">
-        <v>276.5</v>
+        <v>265.2</v>
       </c>
       <c r="D29" t="n">
-        <v>282</v>
+        <v>265.2</v>
       </c>
       <c r="E29" t="n">
-        <v>276.5</v>
+        <v>265.2</v>
       </c>
       <c r="F29" t="n">
-        <v>1684.8074</v>
+        <v>980.0037</v>
       </c>
       <c r="G29" t="n">
-        <v>-108831.1409723309</v>
+        <v>-180866.8356723308</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>276.6</v>
+        <v>266.9</v>
       </c>
       <c r="C30" t="n">
-        <v>275.6</v>
+        <v>266.9</v>
       </c>
       <c r="D30" t="n">
-        <v>276.6</v>
+        <v>266.9</v>
       </c>
       <c r="E30" t="n">
-        <v>275.6</v>
+        <v>266.9</v>
       </c>
       <c r="F30" t="n">
-        <v>259.81</v>
+        <v>250</v>
       </c>
       <c r="G30" t="n">
-        <v>-109090.9509723309</v>
+        <v>-180616.8356723308</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>278.3</v>
+        <v>266.8</v>
       </c>
       <c r="C31" t="n">
-        <v>278.3</v>
+        <v>266.8</v>
       </c>
       <c r="D31" t="n">
-        <v>278.3</v>
+        <v>266.9</v>
       </c>
       <c r="E31" t="n">
-        <v>278.3</v>
+        <v>266</v>
       </c>
       <c r="F31" t="n">
-        <v>71.736</v>
+        <v>5024.7318</v>
       </c>
       <c r="G31" t="n">
-        <v>-109019.2149723309</v>
+        <v>-185641.5674723308</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>276.5</v>
+        <v>266.9</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6</v>
+        <v>266.9</v>
       </c>
       <c r="D32" t="n">
-        <v>276.5</v>
+        <v>266.9</v>
       </c>
       <c r="E32" t="n">
-        <v>275.6</v>
+        <v>266.9</v>
       </c>
       <c r="F32" t="n">
-        <v>1105.8581</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>-110125.0730723309</v>
+        <v>-185617.5674723308</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>275.6</v>
+        <v>267.5</v>
       </c>
       <c r="C33" t="n">
-        <v>275.5</v>
+        <v>267.5</v>
       </c>
       <c r="D33" t="n">
-        <v>276.2</v>
+        <v>267.5</v>
       </c>
       <c r="E33" t="n">
-        <v>275.5</v>
+        <v>267.5</v>
       </c>
       <c r="F33" t="n">
-        <v>3169.8348</v>
+        <v>56</v>
       </c>
       <c r="G33" t="n">
-        <v>-113294.9078723308</v>
+        <v>-185561.5674723308</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>275.5</v>
+        <v>267.5</v>
       </c>
       <c r="C34" t="n">
-        <v>275.4</v>
+        <v>267.6</v>
       </c>
       <c r="D34" t="n">
-        <v>275.5</v>
+        <v>267.6</v>
       </c>
       <c r="E34" t="n">
-        <v>267.2</v>
+        <v>267.5</v>
       </c>
       <c r="F34" t="n">
-        <v>41396.3372</v>
+        <v>389.1167</v>
       </c>
       <c r="G34" t="n">
-        <v>-154691.2450723308</v>
+        <v>-185172.4507723308</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>271.2</v>
+        <v>267.6</v>
       </c>
       <c r="C35" t="n">
-        <v>277.7</v>
+        <v>267.6</v>
       </c>
       <c r="D35" t="n">
-        <v>277.7</v>
+        <v>267.6</v>
       </c>
       <c r="E35" t="n">
-        <v>271</v>
+        <v>267.6</v>
       </c>
       <c r="F35" t="n">
-        <v>4467.1574</v>
+        <v>25.961</v>
       </c>
       <c r="G35" t="n">
-        <v>-150224.0876723308</v>
+        <v>-185172.4507723308</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>271</v>
+        <v>268.7</v>
       </c>
       <c r="C36" t="n">
-        <v>275.8</v>
+        <v>269.8</v>
       </c>
       <c r="D36" t="n">
-        <v>275.9</v>
+        <v>269.8</v>
       </c>
       <c r="E36" t="n">
-        <v>271</v>
+        <v>268.7</v>
       </c>
       <c r="F36" t="n">
-        <v>750</v>
+        <v>2995.6824</v>
       </c>
       <c r="G36" t="n">
-        <v>-150974.0876723308</v>
+        <v>-182176.7683723308</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>274.7</v>
+        <v>269.8</v>
       </c>
       <c r="C37" t="n">
-        <v>274.7</v>
+        <v>267.7</v>
       </c>
       <c r="D37" t="n">
-        <v>274.7</v>
+        <v>269.8</v>
       </c>
       <c r="E37" t="n">
-        <v>274.7</v>
+        <v>267.7</v>
       </c>
       <c r="F37" t="n">
-        <v>14124.9636</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="n">
-        <v>-165099.0512723308</v>
+        <v>-183676.7683723308</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>274.8</v>
+        <v>269.8</v>
       </c>
       <c r="C38" t="n">
-        <v>274.8</v>
+        <v>269.8</v>
       </c>
       <c r="D38" t="n">
-        <v>274.8</v>
+        <v>269.8</v>
       </c>
       <c r="E38" t="n">
-        <v>274.8</v>
+        <v>269.8</v>
       </c>
       <c r="F38" t="n">
-        <v>6810.4505</v>
+        <v>5159.5802</v>
       </c>
       <c r="G38" t="n">
-        <v>-158288.6007723308</v>
+        <v>-178517.1881723308</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>274.8</v>
+        <v>267.8</v>
       </c>
       <c r="C39" t="n">
-        <v>267.3</v>
+        <v>267.8</v>
       </c>
       <c r="D39" t="n">
-        <v>274.8</v>
+        <v>267.8</v>
       </c>
       <c r="E39" t="n">
-        <v>267.3</v>
+        <v>267.8</v>
       </c>
       <c r="F39" t="n">
-        <v>1719.42</v>
+        <v>1675.04</v>
       </c>
       <c r="G39" t="n">
-        <v>-160008.0207723308</v>
+        <v>-180192.2281723308</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>273.9</v>
+        <v>268</v>
       </c>
       <c r="C40" t="n">
-        <v>273.9</v>
+        <v>270</v>
       </c>
       <c r="D40" t="n">
-        <v>273.9</v>
+        <v>270</v>
       </c>
       <c r="E40" t="n">
-        <v>273.9</v>
+        <v>268</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>3585.1624</v>
       </c>
       <c r="G40" t="n">
-        <v>-159988.0207723308</v>
+        <v>-176607.0657723308</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>273.9</v>
+        <v>270.1</v>
       </c>
       <c r="C41" t="n">
-        <v>273.9</v>
+        <v>270.1</v>
       </c>
       <c r="D41" t="n">
-        <v>273.9</v>
+        <v>270.1</v>
       </c>
       <c r="E41" t="n">
-        <v>273.9</v>
+        <v>270.1</v>
       </c>
       <c r="F41" t="n">
-        <v>479.1712</v>
+        <v>117.724</v>
       </c>
       <c r="G41" t="n">
-        <v>-159988.0207723308</v>
+        <v>-176489.3417723308</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>273.9</v>
+        <v>270.1</v>
       </c>
       <c r="C42" t="n">
-        <v>268</v>
+        <v>270.4</v>
       </c>
       <c r="D42" t="n">
-        <v>273.9</v>
+        <v>270.4</v>
       </c>
       <c r="E42" t="n">
-        <v>268</v>
+        <v>270.1</v>
       </c>
       <c r="F42" t="n">
-        <v>3517.72</v>
+        <v>951.05</v>
       </c>
       <c r="G42" t="n">
-        <v>-163505.7407723308</v>
+        <v>-175538.2917723308</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>269</v>
+        <v>270.4</v>
       </c>
       <c r="C43" t="n">
-        <v>267.3</v>
+        <v>270.1</v>
       </c>
       <c r="D43" t="n">
-        <v>269</v>
+        <v>270.4</v>
       </c>
       <c r="E43" t="n">
-        <v>267.3</v>
+        <v>270.1</v>
       </c>
       <c r="F43" t="n">
-        <v>3464.1993</v>
+        <v>869.4298</v>
       </c>
       <c r="G43" t="n">
-        <v>-166969.9400723308</v>
+        <v>-176407.7215723309</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>268.3</v>
+        <v>270.2</v>
       </c>
       <c r="C44" t="n">
-        <v>268.3</v>
+        <v>270.2</v>
       </c>
       <c r="D44" t="n">
-        <v>268.3</v>
+        <v>270.2</v>
       </c>
       <c r="E44" t="n">
-        <v>268.3</v>
+        <v>270.2</v>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>2359.89</v>
       </c>
       <c r="G44" t="n">
-        <v>-166719.9400723308</v>
+        <v>-174047.8315723308</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>268.3</v>
+        <v>270.2</v>
       </c>
       <c r="C45" t="n">
-        <v>267.2</v>
+        <v>270.2</v>
       </c>
       <c r="D45" t="n">
-        <v>268.3</v>
+        <v>270.2</v>
       </c>
       <c r="E45" t="n">
-        <v>267.2</v>
+        <v>270.2</v>
       </c>
       <c r="F45" t="n">
-        <v>5756.647</v>
+        <v>1525.0701</v>
       </c>
       <c r="G45" t="n">
-        <v>-172476.5870723308</v>
+        <v>-174047.8315723308</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>267.2</v>
+        <v>270.2</v>
       </c>
       <c r="C46" t="n">
-        <v>267.2</v>
+        <v>270.1</v>
       </c>
       <c r="D46" t="n">
-        <v>267.2</v>
+        <v>270.2</v>
       </c>
       <c r="E46" t="n">
-        <v>267.2</v>
+        <v>270.1</v>
       </c>
       <c r="F46" t="n">
-        <v>472.3285</v>
+        <v>21445.1432</v>
       </c>
       <c r="G46" t="n">
-        <v>-172476.5870723308</v>
+        <v>-195492.9747723308</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>267.2</v>
+        <v>270.5</v>
       </c>
       <c r="C47" t="n">
-        <v>267</v>
+        <v>270.5</v>
       </c>
       <c r="D47" t="n">
-        <v>267.2</v>
+        <v>270.5</v>
       </c>
       <c r="E47" t="n">
-        <v>267</v>
+        <v>270.5</v>
       </c>
       <c r="F47" t="n">
-        <v>998.9171</v>
+        <v>439.1442</v>
       </c>
       <c r="G47" t="n">
-        <v>-173475.5041723308</v>
+        <v>-195053.8305723308</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>267</v>
+        <v>270.9</v>
       </c>
       <c r="C48" t="n">
-        <v>267.1</v>
+        <v>270.9</v>
       </c>
       <c r="D48" t="n">
-        <v>267.1</v>
+        <v>270.9</v>
       </c>
       <c r="E48" t="n">
-        <v>267</v>
+        <v>270.9</v>
       </c>
       <c r="F48" t="n">
-        <v>226.12</v>
+        <v>52.8009</v>
       </c>
       <c r="G48" t="n">
-        <v>-173249.3841723308</v>
+        <v>-195001.0296723308</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>267</v>
+        <v>270.9</v>
       </c>
       <c r="C49" t="n">
-        <v>266.9</v>
+        <v>270.9</v>
       </c>
       <c r="D49" t="n">
-        <v>267</v>
+        <v>270.9</v>
       </c>
       <c r="E49" t="n">
-        <v>266.9</v>
+        <v>270.9</v>
       </c>
       <c r="F49" t="n">
-        <v>144.3448</v>
+        <v>31.95</v>
       </c>
       <c r="G49" t="n">
-        <v>-173393.7289723308</v>
+        <v>-195001.0296723308</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>264.6</v>
+        <v>271.5</v>
       </c>
       <c r="C50" t="n">
-        <v>264.6</v>
+        <v>270.5</v>
       </c>
       <c r="D50" t="n">
-        <v>264.6</v>
+        <v>271.5</v>
       </c>
       <c r="E50" t="n">
-        <v>264.6</v>
+        <v>270.5</v>
       </c>
       <c r="F50" t="n">
-        <v>144.02</v>
+        <v>542.659</v>
       </c>
       <c r="G50" t="n">
-        <v>-173537.7489723308</v>
+        <v>-195543.6886723308</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>267.7</v>
+        <v>270.6</v>
       </c>
       <c r="C51" t="n">
-        <v>267.7</v>
+        <v>270.6</v>
       </c>
       <c r="D51" t="n">
-        <v>267.7</v>
+        <v>270.6</v>
       </c>
       <c r="E51" t="n">
-        <v>267.7</v>
+        <v>270.6</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>163.654</v>
       </c>
       <c r="G51" t="n">
-        <v>-173508.7489723308</v>
+        <v>-195380.0346723308</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>267.6</v>
+        <v>270.5</v>
       </c>
       <c r="C52" t="n">
-        <v>267.6</v>
+        <v>270.5</v>
       </c>
       <c r="D52" t="n">
-        <v>268.9</v>
+        <v>270.5</v>
       </c>
       <c r="E52" t="n">
-        <v>267.5</v>
+        <v>270.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2433.9999</v>
+        <v>305.072</v>
       </c>
       <c r="G52" t="n">
-        <v>-175942.7488723308</v>
+        <v>-195685.1066723308</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>268.9</v>
+        <v>270.1</v>
       </c>
       <c r="C53" t="n">
-        <v>270</v>
+        <v>270.1</v>
       </c>
       <c r="D53" t="n">
-        <v>270</v>
+        <v>270.1</v>
       </c>
       <c r="E53" t="n">
-        <v>268.9</v>
+        <v>270.1</v>
       </c>
       <c r="F53" t="n">
-        <v>706</v>
+        <v>3049</v>
       </c>
       <c r="G53" t="n">
-        <v>-175236.7488723308</v>
+        <v>-198734.1066723308</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="C54" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="D54" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="E54" t="n">
-        <v>268.6</v>
+        <v>270.1</v>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>3342</v>
       </c>
       <c r="G54" t="n">
-        <v>-175486.7488723308</v>
+        <v>-198734.1066723308</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>268.9</v>
+        <v>270.1</v>
       </c>
       <c r="C55" t="n">
-        <v>270</v>
+        <v>270.1</v>
       </c>
       <c r="D55" t="n">
-        <v>270</v>
+        <v>270.1</v>
       </c>
       <c r="E55" t="n">
-        <v>268.8</v>
+        <v>270.1</v>
       </c>
       <c r="F55" t="n">
-        <v>974</v>
+        <v>2416.38</v>
       </c>
       <c r="G55" t="n">
-        <v>-174512.7488723308</v>
+        <v>-198734.1066723308</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>268.9</v>
+        <v>271.5</v>
       </c>
       <c r="C56" t="n">
-        <v>270</v>
+        <v>271.5</v>
       </c>
       <c r="D56" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="E56" t="n">
-        <v>268.9</v>
+        <v>271.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2788.1708</v>
+        <v>36.832412523</v>
       </c>
       <c r="G56" t="n">
-        <v>-174512.7488723308</v>
+        <v>-198697.2742598078</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2370,10 +2430,10 @@
         <v>270.1</v>
       </c>
       <c r="F57" t="n">
-        <v>144.3384</v>
+        <v>4.57</v>
       </c>
       <c r="G57" t="n">
-        <v>-174368.4104723308</v>
+        <v>-198701.8442598078</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2396,19 +2457,19 @@
         <v>270.1</v>
       </c>
       <c r="C58" t="n">
-        <v>272.6</v>
+        <v>268.5</v>
       </c>
       <c r="D58" t="n">
-        <v>272.6</v>
+        <v>270.1</v>
       </c>
       <c r="E58" t="n">
-        <v>270.1</v>
+        <v>268.5</v>
       </c>
       <c r="F58" t="n">
-        <v>249</v>
+        <v>2284</v>
       </c>
       <c r="G58" t="n">
-        <v>-174119.4104723308</v>
+        <v>-200985.8442598078</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2431,19 +2493,19 @@
         <v>268.6</v>
       </c>
       <c r="C59" t="n">
-        <v>265.1</v>
+        <v>265.7</v>
       </c>
       <c r="D59" t="n">
         <v>268.6</v>
       </c>
       <c r="E59" t="n">
-        <v>265.1</v>
+        <v>265.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>6855</v>
       </c>
       <c r="G59" t="n">
-        <v>-175119.4104723308</v>
+        <v>-207840.8442598078</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>271.3</v>
+        <v>270.9</v>
       </c>
       <c r="C60" t="n">
-        <v>271.5</v>
+        <v>270.9</v>
       </c>
       <c r="D60" t="n">
-        <v>272.3</v>
+        <v>270.9</v>
       </c>
       <c r="E60" t="n">
-        <v>271.3</v>
+        <v>270.9</v>
       </c>
       <c r="F60" t="n">
-        <v>598.9999</v>
+        <v>3.0098</v>
       </c>
       <c r="G60" t="n">
-        <v>-174520.4105723308</v>
+        <v>-207837.8344598078</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>270</v>
+        <v>270.9</v>
       </c>
       <c r="C61" t="n">
-        <v>270</v>
+        <v>270.9</v>
       </c>
       <c r="D61" t="n">
-        <v>270</v>
+        <v>270.9</v>
       </c>
       <c r="E61" t="n">
-        <v>270</v>
+        <v>270.9</v>
       </c>
       <c r="F61" t="n">
-        <v>414.4338</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-174934.8443723308</v>
+        <v>-207837.8344598078</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C62" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D62" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E62" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F62" t="n">
-        <v>11.8</v>
+        <v>5.1777</v>
       </c>
       <c r="G62" t="n">
-        <v>-174934.8443723308</v>
+        <v>-207832.6567598078</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C63" t="n">
-        <v>268.1</v>
+        <v>271.5</v>
       </c>
       <c r="D63" t="n">
-        <v>270</v>
+        <v>271.5</v>
       </c>
       <c r="E63" t="n">
-        <v>268.1</v>
+        <v>271</v>
       </c>
       <c r="F63" t="n">
-        <v>69.90000000000001</v>
+        <v>22.5769</v>
       </c>
       <c r="G63" t="n">
-        <v>-175004.7443723308</v>
+        <v>-207810.0798598078</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>268.2</v>
+        <v>271.5</v>
       </c>
       <c r="C64" t="n">
-        <v>268.2</v>
+        <v>271.5</v>
       </c>
       <c r="D64" t="n">
-        <v>268.2</v>
+        <v>271.5</v>
       </c>
       <c r="E64" t="n">
-        <v>268.2</v>
+        <v>271.5</v>
       </c>
       <c r="F64" t="n">
-        <v>181</v>
+        <v>10.4122</v>
       </c>
       <c r="G64" t="n">
-        <v>-174823.7443723308</v>
+        <v>-207810.0798598078</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>267.2</v>
+        <v>269.4</v>
       </c>
       <c r="C65" t="n">
-        <v>264.5</v>
+        <v>269.4</v>
       </c>
       <c r="D65" t="n">
-        <v>267.2</v>
+        <v>269.4</v>
       </c>
       <c r="E65" t="n">
-        <v>264.5</v>
+        <v>269.4</v>
       </c>
       <c r="F65" t="n">
-        <v>2159.57</v>
+        <v>128.7417</v>
       </c>
       <c r="G65" t="n">
-        <v>-176983.3143723308</v>
+        <v>-207938.8215598078</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C66" t="n">
-        <v>264.5</v>
+        <v>269</v>
       </c>
       <c r="D66" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E66" t="n">
-        <v>264.5</v>
+        <v>269</v>
       </c>
       <c r="F66" t="n">
-        <v>1439</v>
+        <v>14.22</v>
       </c>
       <c r="G66" t="n">
-        <v>-176983.3143723308</v>
+        <v>-207953.0415598078</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>264.5</v>
+        <v>271</v>
       </c>
       <c r="C67" t="n">
-        <v>264.5</v>
+        <v>271</v>
       </c>
       <c r="D67" t="n">
-        <v>264.5</v>
+        <v>271</v>
       </c>
       <c r="E67" t="n">
-        <v>264.5</v>
+        <v>271</v>
       </c>
       <c r="F67" t="n">
-        <v>148.9999</v>
+        <v>2.0998</v>
       </c>
       <c r="G67" t="n">
-        <v>-176983.3143723308</v>
+        <v>-207950.9417598078</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>264.5</v>
+        <v>269</v>
       </c>
       <c r="C68" t="n">
-        <v>264.5</v>
+        <v>267.9</v>
       </c>
       <c r="D68" t="n">
-        <v>264.5</v>
+        <v>269</v>
       </c>
       <c r="E68" t="n">
-        <v>264.5</v>
+        <v>267.9</v>
       </c>
       <c r="F68" t="n">
-        <v>485</v>
+        <v>3473.6416</v>
       </c>
       <c r="G68" t="n">
-        <v>-176983.3143723308</v>
+        <v>-211424.5833598078</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C69" t="n">
-        <v>264.5</v>
+        <v>268</v>
       </c>
       <c r="D69" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E69" t="n">
-        <v>264.5</v>
+        <v>268</v>
       </c>
       <c r="F69" t="n">
-        <v>242.81</v>
+        <v>775.9456</v>
       </c>
       <c r="G69" t="n">
-        <v>-176983.3143723308</v>
+        <v>-210648.6377598078</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>264.6</v>
+        <v>271.6</v>
       </c>
       <c r="C70" t="n">
-        <v>264.4</v>
+        <v>271.6</v>
       </c>
       <c r="D70" t="n">
-        <v>264.6</v>
+        <v>271.6</v>
       </c>
       <c r="E70" t="n">
-        <v>264.4</v>
+        <v>271.6</v>
       </c>
       <c r="F70" t="n">
-        <v>4863.525</v>
+        <v>18.4094256259</v>
       </c>
       <c r="G70" t="n">
-        <v>-181846.8393723308</v>
+        <v>-210630.2283341819</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>265.2</v>
+        <v>269</v>
       </c>
       <c r="C71" t="n">
-        <v>265.2</v>
+        <v>268</v>
       </c>
       <c r="D71" t="n">
-        <v>265.2</v>
+        <v>269</v>
       </c>
       <c r="E71" t="n">
-        <v>265.2</v>
+        <v>268</v>
       </c>
       <c r="F71" t="n">
-        <v>980.0037</v>
+        <v>426.909</v>
       </c>
       <c r="G71" t="n">
-        <v>-180866.8356723308</v>
+        <v>-211057.137334182</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>266.9</v>
+        <v>268</v>
       </c>
       <c r="C72" t="n">
-        <v>266.9</v>
+        <v>267.9</v>
       </c>
       <c r="D72" t="n">
-        <v>266.9</v>
+        <v>268</v>
       </c>
       <c r="E72" t="n">
-        <v>266.9</v>
+        <v>267.9</v>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>5091.2868</v>
       </c>
       <c r="G72" t="n">
-        <v>-180616.8356723308</v>
+        <v>-216148.424134182</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>266.8</v>
+        <v>270</v>
       </c>
       <c r="C73" t="n">
-        <v>266.8</v>
+        <v>271</v>
       </c>
       <c r="D73" t="n">
-        <v>266.9</v>
+        <v>271</v>
       </c>
       <c r="E73" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F73" t="n">
-        <v>5024.7318</v>
+        <v>32.503306642</v>
       </c>
       <c r="G73" t="n">
-        <v>-185641.5674723308</v>
+        <v>-216115.92082754</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>266.9</v>
+        <v>269.2</v>
       </c>
       <c r="C74" t="n">
-        <v>266.9</v>
+        <v>269</v>
       </c>
       <c r="D74" t="n">
-        <v>266.9</v>
+        <v>269.2</v>
       </c>
       <c r="E74" t="n">
-        <v>266.9</v>
+        <v>269</v>
       </c>
       <c r="F74" t="n">
-        <v>24</v>
+        <v>5582.9835</v>
       </c>
       <c r="G74" t="n">
-        <v>-185617.5674723308</v>
+        <v>-221698.90432754</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>267.5</v>
+        <v>269</v>
       </c>
       <c r="C75" t="n">
-        <v>267.5</v>
+        <v>269.2</v>
       </c>
       <c r="D75" t="n">
-        <v>267.5</v>
+        <v>269.2</v>
       </c>
       <c r="E75" t="n">
-        <v>267.5</v>
+        <v>269</v>
       </c>
       <c r="F75" t="n">
-        <v>56</v>
+        <v>2225.2862</v>
       </c>
       <c r="G75" t="n">
-        <v>-185561.5674723308</v>
+        <v>-219473.61812754</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>267.5</v>
+        <v>269.6</v>
       </c>
       <c r="C76" t="n">
-        <v>267.6</v>
+        <v>269.6</v>
       </c>
       <c r="D76" t="n">
-        <v>267.6</v>
+        <v>269.6</v>
       </c>
       <c r="E76" t="n">
-        <v>267.5</v>
+        <v>269.6</v>
       </c>
       <c r="F76" t="n">
-        <v>389.1167</v>
+        <v>895.7704</v>
       </c>
       <c r="G76" t="n">
-        <v>-185172.4507723308</v>
+        <v>-218577.8477275399</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>267.6</v>
+        <v>270</v>
       </c>
       <c r="C77" t="n">
-        <v>267.6</v>
+        <v>270</v>
       </c>
       <c r="D77" t="n">
-        <v>267.6</v>
+        <v>270</v>
       </c>
       <c r="E77" t="n">
-        <v>267.6</v>
+        <v>270</v>
       </c>
       <c r="F77" t="n">
-        <v>25.961</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>-185172.4507723308</v>
+        <v>-218277.8477275399</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>268.7</v>
+        <v>270</v>
       </c>
       <c r="C78" t="n">
-        <v>269.8</v>
+        <v>270</v>
       </c>
       <c r="D78" t="n">
-        <v>269.8</v>
+        <v>270</v>
       </c>
       <c r="E78" t="n">
-        <v>268.7</v>
+        <v>270</v>
       </c>
       <c r="F78" t="n">
-        <v>2995.6824</v>
+        <v>595.7704</v>
       </c>
       <c r="G78" t="n">
-        <v>-182176.7683723308</v>
+        <v>-218277.8477275399</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>269.8</v>
+        <v>271.5</v>
       </c>
       <c r="C79" t="n">
-        <v>267.7</v>
+        <v>271.5</v>
       </c>
       <c r="D79" t="n">
-        <v>269.8</v>
+        <v>271.5</v>
       </c>
       <c r="E79" t="n">
-        <v>267.7</v>
+        <v>271.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1500</v>
+        <v>36</v>
       </c>
       <c r="G79" t="n">
-        <v>-183676.7683723308</v>
+        <v>-218241.8477275399</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>269.8</v>
+        <v>268.1</v>
       </c>
       <c r="C80" t="n">
-        <v>269.8</v>
+        <v>267</v>
       </c>
       <c r="D80" t="n">
-        <v>269.8</v>
+        <v>268.1</v>
       </c>
       <c r="E80" t="n">
-        <v>269.8</v>
+        <v>267</v>
       </c>
       <c r="F80" t="n">
-        <v>5159.5802</v>
+        <v>4637.4087</v>
       </c>
       <c r="G80" t="n">
-        <v>-178517.1881723308</v>
+        <v>-222879.2564275399</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>267.8</v>
+        <v>269.9</v>
       </c>
       <c r="C81" t="n">
-        <v>267.8</v>
+        <v>269.9</v>
       </c>
       <c r="D81" t="n">
-        <v>267.8</v>
+        <v>269.9</v>
       </c>
       <c r="E81" t="n">
-        <v>267.8</v>
+        <v>269.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1675.04</v>
+        <v>98</v>
       </c>
       <c r="G81" t="n">
-        <v>-180192.2281723308</v>
+        <v>-222781.2564275399</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>268</v>
+        <v>267.2</v>
       </c>
       <c r="C82" t="n">
-        <v>270</v>
+        <v>265.6</v>
       </c>
       <c r="D82" t="n">
-        <v>270</v>
+        <v>267.2</v>
       </c>
       <c r="E82" t="n">
-        <v>268</v>
+        <v>265.6</v>
       </c>
       <c r="F82" t="n">
-        <v>3585.1624</v>
+        <v>3610.1162</v>
       </c>
       <c r="G82" t="n">
-        <v>-176607.0657723308</v>
+        <v>-226391.3726275399</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>270.1</v>
+        <v>267.1</v>
       </c>
       <c r="C83" t="n">
-        <v>270.1</v>
+        <v>270.2</v>
       </c>
       <c r="D83" t="n">
-        <v>270.1</v>
+        <v>271.3</v>
       </c>
       <c r="E83" t="n">
-        <v>270.1</v>
+        <v>267.1</v>
       </c>
       <c r="F83" t="n">
-        <v>117.724</v>
+        <v>2089.4051</v>
       </c>
       <c r="G83" t="n">
-        <v>-176489.3417723308</v>
+        <v>-224301.9675275399</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>270.1</v>
+        <v>270.2</v>
       </c>
       <c r="C84" t="n">
-        <v>270.4</v>
+        <v>271.2</v>
       </c>
       <c r="D84" t="n">
-        <v>270.4</v>
+        <v>271.2</v>
       </c>
       <c r="E84" t="n">
-        <v>270.1</v>
+        <v>270.2</v>
       </c>
       <c r="F84" t="n">
-        <v>951.05</v>
+        <v>1177</v>
       </c>
       <c r="G84" t="n">
-        <v>-175538.2917723308</v>
+        <v>-223124.9675275399</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>270.4</v>
+        <v>270.3</v>
       </c>
       <c r="C85" t="n">
-        <v>270.1</v>
+        <v>271.3</v>
       </c>
       <c r="D85" t="n">
-        <v>270.4</v>
+        <v>271.3</v>
       </c>
       <c r="E85" t="n">
-        <v>270.1</v>
+        <v>270.3</v>
       </c>
       <c r="F85" t="n">
-        <v>869.4298</v>
+        <v>138.8595650571</v>
       </c>
       <c r="G85" t="n">
-        <v>-176407.7215723309</v>
+        <v>-222986.1079624828</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>270.2</v>
+        <v>271.3</v>
       </c>
       <c r="C86" t="n">
-        <v>270.2</v>
+        <v>271.3</v>
       </c>
       <c r="D86" t="n">
-        <v>270.2</v>
+        <v>271.3</v>
       </c>
       <c r="E86" t="n">
-        <v>270.2</v>
+        <v>271.3</v>
       </c>
       <c r="F86" t="n">
-        <v>2359.89</v>
+        <v>10.3206782159</v>
       </c>
       <c r="G86" t="n">
-        <v>-174047.8315723308</v>
+        <v>-222986.1079624828</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>270.2</v>
+        <v>271.4</v>
       </c>
       <c r="C87" t="n">
-        <v>270.2</v>
+        <v>271.4</v>
       </c>
       <c r="D87" t="n">
-        <v>270.2</v>
+        <v>271.4</v>
       </c>
       <c r="E87" t="n">
-        <v>270.2</v>
+        <v>271.4</v>
       </c>
       <c r="F87" t="n">
-        <v>1525.0701</v>
+        <v>622.8429</v>
       </c>
       <c r="G87" t="n">
-        <v>-174047.8315723308</v>
+        <v>-222363.2650624829</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>270.2</v>
+        <v>271.4</v>
       </c>
       <c r="C88" t="n">
-        <v>270.1</v>
+        <v>271.4</v>
       </c>
       <c r="D88" t="n">
-        <v>270.2</v>
+        <v>271.4</v>
       </c>
       <c r="E88" t="n">
-        <v>270.1</v>
+        <v>271.4</v>
       </c>
       <c r="F88" t="n">
-        <v>21445.1432</v>
+        <v>1377.157</v>
       </c>
       <c r="G88" t="n">
-        <v>-195492.9747723308</v>
+        <v>-222363.2650624829</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>270.5</v>
+        <v>268.3</v>
       </c>
       <c r="C89" t="n">
-        <v>270.5</v>
+        <v>271.3</v>
       </c>
       <c r="D89" t="n">
-        <v>270.5</v>
+        <v>271.3</v>
       </c>
       <c r="E89" t="n">
-        <v>270.5</v>
+        <v>267.2</v>
       </c>
       <c r="F89" t="n">
-        <v>439.1442</v>
+        <v>442</v>
       </c>
       <c r="G89" t="n">
-        <v>-195053.8305723308</v>
+        <v>-222805.2650624829</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>270.9</v>
+        <v>268.2</v>
       </c>
       <c r="C90" t="n">
-        <v>270.9</v>
+        <v>267.1</v>
       </c>
       <c r="D90" t="n">
-        <v>270.9</v>
+        <v>268.2</v>
       </c>
       <c r="E90" t="n">
-        <v>270.9</v>
+        <v>267.1</v>
       </c>
       <c r="F90" t="n">
-        <v>52.8009</v>
+        <v>878</v>
       </c>
       <c r="G90" t="n">
-        <v>-195001.0296723308</v>
+        <v>-223683.2650624829</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>270.9</v>
+        <v>268.2</v>
       </c>
       <c r="C91" t="n">
-        <v>270.9</v>
+        <v>268</v>
       </c>
       <c r="D91" t="n">
-        <v>270.9</v>
+        <v>268.2</v>
       </c>
       <c r="E91" t="n">
-        <v>270.9</v>
+        <v>268</v>
       </c>
       <c r="F91" t="n">
-        <v>31.95</v>
+        <v>1543.2649</v>
       </c>
       <c r="G91" t="n">
-        <v>-195001.0296723308</v>
+        <v>-222140.0001624828</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>271.5</v>
+        <v>270</v>
       </c>
       <c r="C92" t="n">
-        <v>270.5</v>
+        <v>270</v>
       </c>
       <c r="D92" t="n">
-        <v>271.5</v>
+        <v>270</v>
       </c>
       <c r="E92" t="n">
-        <v>270.5</v>
+        <v>270</v>
       </c>
       <c r="F92" t="n">
-        <v>542.659</v>
+        <v>15</v>
       </c>
       <c r="G92" t="n">
-        <v>-195543.6886723308</v>
+        <v>-222125.0001624828</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,378 +3707,449 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>270.6</v>
+        <v>271.3</v>
       </c>
       <c r="C93" t="n">
-        <v>270.6</v>
+        <v>268</v>
       </c>
       <c r="D93" t="n">
-        <v>270.6</v>
+        <v>271.3</v>
       </c>
       <c r="E93" t="n">
-        <v>270.6</v>
+        <v>268</v>
       </c>
       <c r="F93" t="n">
-        <v>163.654</v>
+        <v>886</v>
       </c>
       <c r="G93" t="n">
-        <v>-195380.0346723308</v>
+        <v>-223011.0001624828</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>270</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>270.5</v>
+        <v>271.4</v>
       </c>
       <c r="C94" t="n">
-        <v>270.5</v>
+        <v>271.6</v>
       </c>
       <c r="D94" t="n">
-        <v>270.5</v>
+        <v>271.6</v>
       </c>
       <c r="E94" t="n">
-        <v>270.5</v>
+        <v>271.4</v>
       </c>
       <c r="F94" t="n">
-        <v>305.072</v>
+        <v>1.9</v>
       </c>
       <c r="G94" t="n">
-        <v>-195685.1066723308</v>
+        <v>-223009.1001624828</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>268</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="C95" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="D95" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="E95" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="F95" t="n">
-        <v>3049</v>
+        <v>35.9430743741</v>
       </c>
       <c r="G95" t="n">
-        <v>-198734.1066723308</v>
+        <v>-223009.1001624828</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>271.6</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="C96" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="D96" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="E96" t="n">
-        <v>270.1</v>
+        <v>271.6</v>
       </c>
       <c r="F96" t="n">
-        <v>3342</v>
+        <v>52.92</v>
       </c>
       <c r="G96" t="n">
-        <v>-198734.1066723308</v>
+        <v>-223009.1001624828</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>271.6</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>270.1</v>
+        <v>270</v>
       </c>
       <c r="C97" t="n">
-        <v>270.1</v>
+        <v>271.4</v>
       </c>
       <c r="D97" t="n">
-        <v>270.1</v>
+        <v>271.4</v>
       </c>
       <c r="E97" t="n">
-        <v>270.1</v>
+        <v>270</v>
       </c>
       <c r="F97" t="n">
-        <v>2416.38</v>
+        <v>16</v>
       </c>
       <c r="G97" t="n">
-        <v>-198734.1066723308</v>
+        <v>-223025.1001624828</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>271.6</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>271.5</v>
+        <v>269.1</v>
       </c>
       <c r="C98" t="n">
-        <v>271.5</v>
+        <v>268.5</v>
       </c>
       <c r="D98" t="n">
-        <v>271.5</v>
+        <v>269.1</v>
       </c>
       <c r="E98" t="n">
-        <v>271.5</v>
+        <v>268</v>
       </c>
       <c r="F98" t="n">
-        <v>36.832412523</v>
+        <v>6289</v>
       </c>
       <c r="G98" t="n">
-        <v>-198697.2742598078</v>
+        <v>-229314.1001624828</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>271.4</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>270.1</v>
+        <v>268.5</v>
       </c>
       <c r="C99" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="D99" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="E99" t="n">
-        <v>270.1</v>
+        <v>268.5</v>
       </c>
       <c r="F99" t="n">
-        <v>4.57</v>
+        <v>1109</v>
       </c>
       <c r="G99" t="n">
-        <v>-198701.8442598078</v>
+        <v>-228205.1001624828</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>268.5</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>270.1</v>
+        <v>271.5</v>
       </c>
       <c r="C100" t="n">
-        <v>268.5</v>
+        <v>271.9</v>
       </c>
       <c r="D100" t="n">
-        <v>270.1</v>
+        <v>271.9</v>
       </c>
       <c r="E100" t="n">
-        <v>268.5</v>
+        <v>271.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2284</v>
+        <v>637.2948</v>
       </c>
       <c r="G100" t="n">
-        <v>-200985.8442598078</v>
+        <v>-227567.8053624828</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>271.5</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>268.6</v>
+        <v>272</v>
       </c>
       <c r="C101" t="n">
-        <v>265.7</v>
+        <v>272</v>
       </c>
       <c r="D101" t="n">
-        <v>268.6</v>
+        <v>272</v>
       </c>
       <c r="E101" t="n">
-        <v>265.7</v>
+        <v>272</v>
       </c>
       <c r="F101" t="n">
-        <v>6855</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
-        <v>-207840.8442598078</v>
+        <v>-227553.8053624828</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>271.9</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>270.9</v>
+        <v>272</v>
       </c>
       <c r="C102" t="n">
-        <v>270.9</v>
+        <v>272.7</v>
       </c>
       <c r="D102" t="n">
-        <v>270.9</v>
+        <v>272.7</v>
       </c>
       <c r="E102" t="n">
-        <v>270.9</v>
+        <v>272</v>
       </c>
       <c r="F102" t="n">
-        <v>3.0098</v>
+        <v>2188.0218</v>
       </c>
       <c r="G102" t="n">
-        <v>-207837.8344598078</v>
+        <v>-225365.7835624829</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>272</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>270.9</v>
+        <v>272.6</v>
       </c>
       <c r="C103" t="n">
-        <v>270.9</v>
+        <v>269.1</v>
       </c>
       <c r="D103" t="n">
-        <v>270.9</v>
+        <v>273.3</v>
       </c>
       <c r="E103" t="n">
-        <v>270.9</v>
+        <v>269.1</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>6357.273</v>
       </c>
       <c r="G103" t="n">
-        <v>-207837.8344598078</v>
+        <v>-231723.0565624828</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,67 +4159,79 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>271</v>
+        <v>272.7</v>
       </c>
       <c r="C104" t="n">
-        <v>271</v>
+        <v>272.7</v>
       </c>
       <c r="D104" t="n">
-        <v>271</v>
+        <v>272.7</v>
       </c>
       <c r="E104" t="n">
-        <v>271</v>
+        <v>272.7</v>
       </c>
       <c r="F104" t="n">
-        <v>5.1777</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>-207832.6567598078</v>
+        <v>-231721.0565624828</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>269.1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>271</v>
+        <v>272.5</v>
       </c>
       <c r="C105" t="n">
-        <v>271.5</v>
+        <v>272.5</v>
       </c>
       <c r="D105" t="n">
-        <v>271.5</v>
+        <v>272.5</v>
       </c>
       <c r="E105" t="n">
-        <v>271</v>
+        <v>272.5</v>
       </c>
       <c r="F105" t="n">
-        <v>22.5769</v>
+        <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>-207810.0798598078</v>
+        <v>-231761.0565624828</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,67 +4241,79 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>271.5</v>
+        <v>273.3</v>
       </c>
       <c r="C106" t="n">
-        <v>271.5</v>
+        <v>273.3</v>
       </c>
       <c r="D106" t="n">
-        <v>271.5</v>
+        <v>273.3</v>
       </c>
       <c r="E106" t="n">
-        <v>271.5</v>
+        <v>273.3</v>
       </c>
       <c r="F106" t="n">
-        <v>10.4122</v>
+        <v>169.0507</v>
       </c>
       <c r="G106" t="n">
-        <v>-207810.0798598078</v>
+        <v>-231592.0058624829</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>272.5</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>269.4</v>
+        <v>273.3</v>
       </c>
       <c r="C107" t="n">
-        <v>269.4</v>
+        <v>273.2</v>
       </c>
       <c r="D107" t="n">
-        <v>269.4</v>
+        <v>273.3</v>
       </c>
       <c r="E107" t="n">
-        <v>269.4</v>
+        <v>273.2</v>
       </c>
       <c r="F107" t="n">
-        <v>128.7417</v>
+        <v>1659.8527</v>
       </c>
       <c r="G107" t="n">
-        <v>-207938.8215598078</v>
+        <v>-233251.8585624828</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,32 +4323,37 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>269</v>
+        <v>273.4</v>
       </c>
       <c r="C108" t="n">
-        <v>269</v>
+        <v>273.8</v>
       </c>
       <c r="D108" t="n">
-        <v>269</v>
+        <v>273.8</v>
       </c>
       <c r="E108" t="n">
-        <v>269</v>
+        <v>273.4</v>
       </c>
       <c r="F108" t="n">
-        <v>14.22</v>
+        <v>315.0474</v>
       </c>
       <c r="G108" t="n">
-        <v>-207953.0415598078</v>
+        <v>-232936.8111624828</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,32 +4363,37 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>271</v>
+        <v>273.8</v>
       </c>
       <c r="C109" t="n">
-        <v>271</v>
+        <v>273.8</v>
       </c>
       <c r="D109" t="n">
-        <v>271</v>
+        <v>273.8</v>
       </c>
       <c r="E109" t="n">
-        <v>271</v>
+        <v>273.8</v>
       </c>
       <c r="F109" t="n">
-        <v>2.0998</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
-        <v>-207950.9417598078</v>
+        <v>-232936.8111624828</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,32 +4403,37 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>269</v>
+        <v>273.9</v>
       </c>
       <c r="C110" t="n">
-        <v>267.9</v>
+        <v>273.9</v>
       </c>
       <c r="D110" t="n">
-        <v>269</v>
+        <v>273.9</v>
       </c>
       <c r="E110" t="n">
-        <v>267.9</v>
+        <v>273.9</v>
       </c>
       <c r="F110" t="n">
-        <v>3473.6416</v>
+        <v>163.5334</v>
       </c>
       <c r="G110" t="n">
-        <v>-211424.5833598078</v>
+        <v>-232773.2777624828</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,32 +4443,37 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C111" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D111" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E111" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F111" t="n">
-        <v>775.9456</v>
+        <v>16</v>
       </c>
       <c r="G111" t="n">
-        <v>-210648.6377598078</v>
+        <v>-232757.2777624828</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,32 +4483,37 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>271.6</v>
+        <v>274</v>
       </c>
       <c r="C112" t="n">
-        <v>271.6</v>
+        <v>275.7</v>
       </c>
       <c r="D112" t="n">
-        <v>271.6</v>
+        <v>275.7</v>
       </c>
       <c r="E112" t="n">
-        <v>271.6</v>
+        <v>274</v>
       </c>
       <c r="F112" t="n">
-        <v>18.4094256259</v>
+        <v>246.021</v>
       </c>
       <c r="G112" t="n">
-        <v>-210630.2283341819</v>
+        <v>-232511.2567624828</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,32 +4523,37 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>269</v>
+        <v>275.7</v>
       </c>
       <c r="C113" t="n">
-        <v>268</v>
+        <v>275.7</v>
       </c>
       <c r="D113" t="n">
-        <v>269</v>
+        <v>275.7</v>
       </c>
       <c r="E113" t="n">
-        <v>268</v>
+        <v>275.7</v>
       </c>
       <c r="F113" t="n">
-        <v>426.909</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-211057.137334182</v>
+        <v>-232511.2567624828</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,32 +4563,37 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>268</v>
+        <v>275.7</v>
       </c>
       <c r="C114" t="n">
-        <v>267.9</v>
+        <v>276.8</v>
       </c>
       <c r="D114" t="n">
-        <v>268</v>
+        <v>276.8</v>
       </c>
       <c r="E114" t="n">
-        <v>267.9</v>
+        <v>275.7</v>
       </c>
       <c r="F114" t="n">
-        <v>5091.2868</v>
+        <v>166.516</v>
       </c>
       <c r="G114" t="n">
-        <v>-216148.424134182</v>
+        <v>-232344.7407624828</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,32 +4603,37 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>270</v>
+        <v>276.8</v>
       </c>
       <c r="C115" t="n">
-        <v>271</v>
+        <v>278.6</v>
       </c>
       <c r="D115" t="n">
-        <v>271</v>
+        <v>278.6</v>
       </c>
       <c r="E115" t="n">
-        <v>270</v>
+        <v>276.8</v>
       </c>
       <c r="F115" t="n">
-        <v>32.503306642</v>
+        <v>72.34365269200001</v>
       </c>
       <c r="G115" t="n">
-        <v>-216115.92082754</v>
+        <v>-232272.3971097908</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,32 +4643,37 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>269.2</v>
+        <v>278.6</v>
       </c>
       <c r="C116" t="n">
-        <v>269</v>
+        <v>278.6</v>
       </c>
       <c r="D116" t="n">
-        <v>269.2</v>
+        <v>278.6</v>
       </c>
       <c r="E116" t="n">
-        <v>269</v>
+        <v>278.6</v>
       </c>
       <c r="F116" t="n">
-        <v>5582.9835</v>
+        <v>60.5851</v>
       </c>
       <c r="G116" t="n">
-        <v>-221698.90432754</v>
+        <v>-232272.3971097908</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,32 +4683,37 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>269</v>
+        <v>278.6</v>
       </c>
       <c r="C117" t="n">
-        <v>269.2</v>
+        <v>278.6</v>
       </c>
       <c r="D117" t="n">
-        <v>269.2</v>
+        <v>278.6</v>
       </c>
       <c r="E117" t="n">
-        <v>269</v>
+        <v>278.6</v>
       </c>
       <c r="F117" t="n">
-        <v>2225.2862</v>
+        <v>4695.5328</v>
       </c>
       <c r="G117" t="n">
-        <v>-219473.61812754</v>
+        <v>-232272.3971097908</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,32 +4723,37 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>269.6</v>
+        <v>275.5</v>
       </c>
       <c r="C118" t="n">
-        <v>269.6</v>
+        <v>275</v>
       </c>
       <c r="D118" t="n">
-        <v>269.6</v>
+        <v>275.5</v>
       </c>
       <c r="E118" t="n">
-        <v>269.6</v>
+        <v>275</v>
       </c>
       <c r="F118" t="n">
-        <v>895.7704</v>
+        <v>48.8843</v>
       </c>
       <c r="G118" t="n">
-        <v>-218577.8477275399</v>
+        <v>-232321.2814097908</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,32 +4763,37 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>270</v>
+        <v>274.7</v>
       </c>
       <c r="C119" t="n">
-        <v>270</v>
+        <v>274.7</v>
       </c>
       <c r="D119" t="n">
-        <v>270</v>
+        <v>274.7</v>
       </c>
       <c r="E119" t="n">
-        <v>270</v>
+        <v>274.7</v>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>1.9231</v>
       </c>
       <c r="G119" t="n">
-        <v>-218277.8477275399</v>
+        <v>-232323.2045097908</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,32 +4803,37 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C120" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D120" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E120" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F120" t="n">
-        <v>595.7704</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>-218277.8477275399</v>
+        <v>-232321.2045097908</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,32 +4843,37 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>271.5</v>
+        <v>278</v>
       </c>
       <c r="C121" t="n">
-        <v>271.5</v>
+        <v>278</v>
       </c>
       <c r="D121" t="n">
-        <v>271.5</v>
+        <v>278</v>
       </c>
       <c r="E121" t="n">
-        <v>271.5</v>
+        <v>278</v>
       </c>
       <c r="F121" t="n">
-        <v>36</v>
+        <v>84.6407</v>
       </c>
       <c r="G121" t="n">
-        <v>-218241.8477275399</v>
+        <v>-232321.2045097908</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,32 +4883,37 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>268.1</v>
+        <v>278</v>
       </c>
       <c r="C122" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D122" t="n">
-        <v>268.1</v>
+        <v>278</v>
       </c>
       <c r="E122" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F122" t="n">
-        <v>4637.4087</v>
+        <v>883.9446</v>
       </c>
       <c r="G122" t="n">
-        <v>-222879.2564275399</v>
+        <v>-232321.2045097908</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,32 +4923,37 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>269.9</v>
+        <v>278</v>
       </c>
       <c r="C123" t="n">
-        <v>269.9</v>
+        <v>278</v>
       </c>
       <c r="D123" t="n">
-        <v>269.9</v>
+        <v>278</v>
       </c>
       <c r="E123" t="n">
-        <v>269.9</v>
+        <v>278</v>
       </c>
       <c r="F123" t="n">
-        <v>98</v>
+        <v>36.1822</v>
       </c>
       <c r="G123" t="n">
-        <v>-222781.2564275399</v>
+        <v>-232321.2045097908</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,32 +4963,37 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>267.2</v>
+        <v>278</v>
       </c>
       <c r="C124" t="n">
-        <v>265.6</v>
+        <v>278</v>
       </c>
       <c r="D124" t="n">
-        <v>267.2</v>
+        <v>278</v>
       </c>
       <c r="E124" t="n">
-        <v>265.6</v>
+        <v>278</v>
       </c>
       <c r="F124" t="n">
-        <v>3610.1162</v>
+        <v>133.2838</v>
       </c>
       <c r="G124" t="n">
-        <v>-226391.3726275399</v>
+        <v>-232321.2045097908</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,32 +5003,37 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>267.1</v>
+        <v>278.8</v>
       </c>
       <c r="C125" t="n">
-        <v>270.2</v>
+        <v>278.8</v>
       </c>
       <c r="D125" t="n">
-        <v>271.3</v>
+        <v>278.8</v>
       </c>
       <c r="E125" t="n">
-        <v>267.1</v>
+        <v>278.8</v>
       </c>
       <c r="F125" t="n">
-        <v>2089.4051</v>
+        <v>143.7147</v>
       </c>
       <c r="G125" t="n">
-        <v>-224301.9675275399</v>
+        <v>-232177.4898097908</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,32 +5043,37 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>270.2</v>
+        <v>279</v>
       </c>
       <c r="C126" t="n">
-        <v>271.2</v>
+        <v>279</v>
       </c>
       <c r="D126" t="n">
-        <v>271.2</v>
+        <v>279</v>
       </c>
       <c r="E126" t="n">
-        <v>270.2</v>
+        <v>277.1</v>
       </c>
       <c r="F126" t="n">
-        <v>1177</v>
+        <v>125.312</v>
       </c>
       <c r="G126" t="n">
-        <v>-223124.9675275399</v>
+        <v>-232052.1778097908</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,32 +5083,37 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>270.3</v>
+        <v>279</v>
       </c>
       <c r="C127" t="n">
-        <v>271.3</v>
+        <v>279</v>
       </c>
       <c r="D127" t="n">
-        <v>271.3</v>
+        <v>279</v>
       </c>
       <c r="E127" t="n">
-        <v>270.3</v>
+        <v>279</v>
       </c>
       <c r="F127" t="n">
-        <v>138.8595650571</v>
+        <v>29</v>
       </c>
       <c r="G127" t="n">
-        <v>-222986.1079624828</v>
+        <v>-232052.1778097908</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,32 +5123,37 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>271.3</v>
+        <v>279</v>
       </c>
       <c r="C128" t="n">
-        <v>271.3</v>
+        <v>279</v>
       </c>
       <c r="D128" t="n">
-        <v>271.3</v>
+        <v>279</v>
       </c>
       <c r="E128" t="n">
-        <v>271.3</v>
+        <v>279</v>
       </c>
       <c r="F128" t="n">
-        <v>10.3206782159</v>
+        <v>4426.921</v>
       </c>
       <c r="G128" t="n">
-        <v>-222986.1079624828</v>
+        <v>-232052.1778097908</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,32 +5163,37 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>271.4</v>
+        <v>279</v>
       </c>
       <c r="C129" t="n">
-        <v>271.4</v>
+        <v>279</v>
       </c>
       <c r="D129" t="n">
-        <v>271.4</v>
+        <v>279</v>
       </c>
       <c r="E129" t="n">
-        <v>271.4</v>
+        <v>279</v>
       </c>
       <c r="F129" t="n">
-        <v>622.8429</v>
+        <v>30</v>
       </c>
       <c r="G129" t="n">
-        <v>-222363.2650624829</v>
+        <v>-232052.1778097908</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,32 +5203,37 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>271.4</v>
+        <v>277.2</v>
       </c>
       <c r="C130" t="n">
-        <v>271.4</v>
+        <v>277.2</v>
       </c>
       <c r="D130" t="n">
-        <v>271.4</v>
+        <v>277.2</v>
       </c>
       <c r="E130" t="n">
-        <v>271.4</v>
+        <v>277.2</v>
       </c>
       <c r="F130" t="n">
-        <v>1377.157</v>
+        <v>21.5362</v>
       </c>
       <c r="G130" t="n">
-        <v>-222363.2650624829</v>
+        <v>-232073.7140097908</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,32 +5243,37 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>268.3</v>
+        <v>277.2</v>
       </c>
       <c r="C131" t="n">
-        <v>271.3</v>
+        <v>275.4</v>
       </c>
       <c r="D131" t="n">
-        <v>271.3</v>
+        <v>277.2</v>
       </c>
       <c r="E131" t="n">
-        <v>267.2</v>
+        <v>275.4</v>
       </c>
       <c r="F131" t="n">
-        <v>442</v>
+        <v>29983.5793</v>
       </c>
       <c r="G131" t="n">
-        <v>-222805.2650624829</v>
+        <v>-262057.2933097908</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,32 +5283,37 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>268.2</v>
+        <v>279</v>
       </c>
       <c r="C132" t="n">
-        <v>267.1</v>
+        <v>279.7</v>
       </c>
       <c r="D132" t="n">
-        <v>268.2</v>
+        <v>279.7</v>
       </c>
       <c r="E132" t="n">
-        <v>267.1</v>
+        <v>279</v>
       </c>
       <c r="F132" t="n">
-        <v>878</v>
+        <v>1102</v>
       </c>
       <c r="G132" t="n">
-        <v>-223683.2650624829</v>
+        <v>-260955.2933097908</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5323,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>268.2</v>
+        <v>278.9</v>
       </c>
       <c r="C133" t="n">
-        <v>268</v>
+        <v>279.9</v>
       </c>
       <c r="D133" t="n">
-        <v>268.2</v>
+        <v>279.9</v>
       </c>
       <c r="E133" t="n">
-        <v>268</v>
+        <v>278.9</v>
       </c>
       <c r="F133" t="n">
-        <v>1543.2649</v>
+        <v>2324.7565</v>
       </c>
       <c r="G133" t="n">
-        <v>-222140.0001624828</v>
+        <v>-258630.5368097909</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,32 +5363,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C134" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D134" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E134" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F134" t="n">
-        <v>15</v>
+        <v>313.0145</v>
       </c>
       <c r="G134" t="n">
-        <v>-222125.0001624828</v>
+        <v>-258943.5513097908</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,32 +5403,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>271.3</v>
+        <v>278</v>
       </c>
       <c r="C135" t="n">
-        <v>268</v>
+        <v>279.8</v>
       </c>
       <c r="D135" t="n">
-        <v>271.3</v>
+        <v>279.9</v>
       </c>
       <c r="E135" t="n">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F135" t="n">
-        <v>886</v>
+        <v>974</v>
       </c>
       <c r="G135" t="n">
-        <v>-223011.0001624828</v>
+        <v>-257969.5513097908</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,32 +5443,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>271.4</v>
+        <v>279.8</v>
       </c>
       <c r="C136" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="D136" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="E136" t="n">
-        <v>271.4</v>
+        <v>279.8</v>
       </c>
       <c r="F136" t="n">
-        <v>1.9</v>
+        <v>10941.2073</v>
       </c>
       <c r="G136" t="n">
-        <v>-223009.1001624828</v>
+        <v>-247028.3440097908</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,32 +5483,37 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="C137" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="D137" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="E137" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="F137" t="n">
-        <v>35.9430743741</v>
+        <v>1130.7927</v>
       </c>
       <c r="G137" t="n">
-        <v>-223009.1001624828</v>
+        <v>-247028.3440097908</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,32 +5523,37 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="C138" t="n">
-        <v>271.6</v>
+        <v>276</v>
       </c>
       <c r="D138" t="n">
-        <v>271.6</v>
+        <v>280</v>
       </c>
       <c r="E138" t="n">
-        <v>271.6</v>
+        <v>276</v>
       </c>
       <c r="F138" t="n">
-        <v>52.92</v>
+        <v>1118.65</v>
       </c>
       <c r="G138" t="n">
-        <v>-223009.1001624828</v>
+        <v>-248146.9940097908</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,32 +5563,37 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C139" t="n">
-        <v>271.4</v>
+        <v>274.1</v>
       </c>
       <c r="D139" t="n">
-        <v>271.4</v>
+        <v>276</v>
       </c>
       <c r="E139" t="n">
-        <v>270</v>
+        <v>274.1</v>
       </c>
       <c r="F139" t="n">
-        <v>16</v>
+        <v>30000</v>
       </c>
       <c r="G139" t="n">
-        <v>-223025.1001624828</v>
+        <v>-278146.9940097908</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,32 +5603,37 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>269.1</v>
+        <v>274</v>
       </c>
       <c r="C140" t="n">
-        <v>268.5</v>
+        <v>273.1</v>
       </c>
       <c r="D140" t="n">
-        <v>269.1</v>
+        <v>274</v>
       </c>
       <c r="E140" t="n">
-        <v>268</v>
+        <v>273.1</v>
       </c>
       <c r="F140" t="n">
-        <v>6289</v>
+        <v>20000</v>
       </c>
       <c r="G140" t="n">
-        <v>-229314.1001624828</v>
+        <v>-298146.9940097908</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,32 +5643,37 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>268.5</v>
+        <v>273</v>
       </c>
       <c r="C141" t="n">
-        <v>271.5</v>
+        <v>275.8</v>
       </c>
       <c r="D141" t="n">
-        <v>271.5</v>
+        <v>275.8</v>
       </c>
       <c r="E141" t="n">
-        <v>268.5</v>
+        <v>273</v>
       </c>
       <c r="F141" t="n">
-        <v>1109</v>
+        <v>4943.4147</v>
       </c>
       <c r="G141" t="n">
-        <v>-228205.1001624828</v>
+        <v>-293203.5793097908</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,32 +5683,37 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>271.5</v>
+        <v>274.1</v>
       </c>
       <c r="C142" t="n">
-        <v>271.9</v>
+        <v>274.7</v>
       </c>
       <c r="D142" t="n">
-        <v>271.9</v>
+        <v>274.7</v>
       </c>
       <c r="E142" t="n">
-        <v>271.5</v>
+        <v>274.1</v>
       </c>
       <c r="F142" t="n">
-        <v>637.2948</v>
+        <v>405.9998</v>
       </c>
       <c r="G142" t="n">
-        <v>-227567.8053624828</v>
+        <v>-293609.5791097908</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,32 +5723,37 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>272</v>
+        <v>274.7</v>
       </c>
       <c r="C143" t="n">
-        <v>272</v>
+        <v>274.8</v>
       </c>
       <c r="D143" t="n">
-        <v>272</v>
+        <v>274.8</v>
       </c>
       <c r="E143" t="n">
-        <v>272</v>
+        <v>274.7</v>
       </c>
       <c r="F143" t="n">
-        <v>14</v>
+        <v>405.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>-227553.8053624828</v>
+        <v>-293203.5792097908</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,32 +5763,37 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>272</v>
+        <v>276.9</v>
       </c>
       <c r="C144" t="n">
-        <v>272.7</v>
+        <v>276.9</v>
       </c>
       <c r="D144" t="n">
-        <v>272.7</v>
+        <v>276.9</v>
       </c>
       <c r="E144" t="n">
-        <v>272</v>
+        <v>276.9</v>
       </c>
       <c r="F144" t="n">
-        <v>2188.0218</v>
+        <v>559.5022</v>
       </c>
       <c r="G144" t="n">
-        <v>-225365.7835624829</v>
+        <v>-292644.0770097908</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,32 +5803,37 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>272.6</v>
+        <v>277</v>
       </c>
       <c r="C145" t="n">
-        <v>269.1</v>
+        <v>277</v>
       </c>
       <c r="D145" t="n">
-        <v>273.3</v>
+        <v>277</v>
       </c>
       <c r="E145" t="n">
-        <v>269.1</v>
+        <v>277</v>
       </c>
       <c r="F145" t="n">
-        <v>6357.273</v>
+        <v>28.7079</v>
       </c>
       <c r="G145" t="n">
-        <v>-231723.0565624828</v>
+        <v>-292615.3691097908</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,32 +5843,37 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>272.7</v>
+        <v>277.4</v>
       </c>
       <c r="C146" t="n">
-        <v>272.7</v>
+        <v>278</v>
       </c>
       <c r="D146" t="n">
-        <v>272.7</v>
+        <v>278</v>
       </c>
       <c r="E146" t="n">
-        <v>272.7</v>
+        <v>277.4</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>13962.2312</v>
       </c>
       <c r="G146" t="n">
-        <v>-231721.0565624828</v>
+        <v>-278653.1379097909</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,32 +5883,37 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>272.5</v>
+        <v>278</v>
       </c>
       <c r="C147" t="n">
-        <v>272.5</v>
+        <v>278</v>
       </c>
       <c r="D147" t="n">
-        <v>272.5</v>
+        <v>278</v>
       </c>
       <c r="E147" t="n">
-        <v>272.5</v>
+        <v>278</v>
       </c>
       <c r="F147" t="n">
-        <v>40</v>
+        <v>2907</v>
       </c>
       <c r="G147" t="n">
-        <v>-231761.0565624828</v>
+        <v>-278653.1379097909</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,32 +5923,37 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>273.3</v>
+        <v>278</v>
       </c>
       <c r="C148" t="n">
-        <v>273.3</v>
+        <v>278</v>
       </c>
       <c r="D148" t="n">
-        <v>273.3</v>
+        <v>278</v>
       </c>
       <c r="E148" t="n">
-        <v>273.3</v>
+        <v>278</v>
       </c>
       <c r="F148" t="n">
-        <v>169.0507</v>
+        <v>5351.2713</v>
       </c>
       <c r="G148" t="n">
-        <v>-231592.0058624829</v>
+        <v>-278653.1379097909</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,32 +5963,37 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>273.3</v>
+        <v>278</v>
       </c>
       <c r="C149" t="n">
-        <v>273.2</v>
+        <v>278</v>
       </c>
       <c r="D149" t="n">
-        <v>273.3</v>
+        <v>278</v>
       </c>
       <c r="E149" t="n">
-        <v>273.2</v>
+        <v>278</v>
       </c>
       <c r="F149" t="n">
-        <v>1659.8527</v>
+        <v>2556.9638</v>
       </c>
       <c r="G149" t="n">
-        <v>-233251.8585624828</v>
+        <v>-278653.1379097909</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,32 +6003,37 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>273.4</v>
+        <v>279</v>
       </c>
       <c r="C150" t="n">
-        <v>273.8</v>
+        <v>279</v>
       </c>
       <c r="D150" t="n">
-        <v>273.8</v>
+        <v>279</v>
       </c>
       <c r="E150" t="n">
-        <v>273.4</v>
+        <v>279</v>
       </c>
       <c r="F150" t="n">
-        <v>315.0474</v>
+        <v>14.38</v>
       </c>
       <c r="G150" t="n">
-        <v>-232936.8111624828</v>
+        <v>-278638.7579097908</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,32 +6043,37 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>273.8</v>
+        <v>280.8</v>
       </c>
       <c r="C151" t="n">
-        <v>273.8</v>
+        <v>280.8</v>
       </c>
       <c r="D151" t="n">
-        <v>273.8</v>
+        <v>280.8</v>
       </c>
       <c r="E151" t="n">
-        <v>273.8</v>
+        <v>280.8</v>
       </c>
       <c r="F151" t="n">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>-232936.8111624828</v>
+        <v>-278636.7579097908</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,32 +6083,37 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>273.9</v>
+        <v>282.5</v>
       </c>
       <c r="C152" t="n">
-        <v>273.9</v>
+        <v>282.5</v>
       </c>
       <c r="D152" t="n">
-        <v>273.9</v>
+        <v>282.5</v>
       </c>
       <c r="E152" t="n">
-        <v>273.9</v>
+        <v>282.5</v>
       </c>
       <c r="F152" t="n">
-        <v>163.5334</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>-232773.2777624828</v>
+        <v>-278634.7579097908</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,32 +6123,37 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C153" t="n">
-        <v>274</v>
+        <v>277.9</v>
       </c>
       <c r="D153" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E153" t="n">
-        <v>274</v>
+        <v>277.9</v>
       </c>
       <c r="F153" t="n">
-        <v>16</v>
+        <v>3393.5232</v>
       </c>
       <c r="G153" t="n">
-        <v>-232757.2777624828</v>
+        <v>-282028.2811097908</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,32 +6163,37 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>274</v>
+        <v>280.7</v>
       </c>
       <c r="C154" t="n">
-        <v>275.7</v>
+        <v>280.7</v>
       </c>
       <c r="D154" t="n">
-        <v>275.7</v>
+        <v>280.7</v>
       </c>
       <c r="E154" t="n">
-        <v>274</v>
+        <v>280.7</v>
       </c>
       <c r="F154" t="n">
-        <v>246.021</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>-232511.2567624828</v>
+        <v>-282026.2811097908</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,32 +6203,37 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>275.7</v>
+        <v>278.9</v>
       </c>
       <c r="C155" t="n">
-        <v>275.7</v>
+        <v>280.4</v>
       </c>
       <c r="D155" t="n">
-        <v>275.7</v>
+        <v>280.4</v>
       </c>
       <c r="E155" t="n">
-        <v>275.7</v>
+        <v>278.9</v>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>4044.7578</v>
       </c>
       <c r="G155" t="n">
-        <v>-232511.2567624828</v>
+        <v>-286071.0389097909</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,32 +6243,37 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>275.7</v>
+        <v>282.4</v>
       </c>
       <c r="C156" t="n">
-        <v>276.8</v>
+        <v>282.4</v>
       </c>
       <c r="D156" t="n">
-        <v>276.8</v>
+        <v>282.4</v>
       </c>
       <c r="E156" t="n">
-        <v>275.7</v>
+        <v>282.4</v>
       </c>
       <c r="F156" t="n">
-        <v>166.516</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>-232344.7407624828</v>
+        <v>-286069.0389097909</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,32 +6283,37 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>276.8</v>
+        <v>278.3</v>
       </c>
       <c r="C157" t="n">
-        <v>278.6</v>
+        <v>278.3</v>
       </c>
       <c r="D157" t="n">
-        <v>278.6</v>
+        <v>278.3</v>
       </c>
       <c r="E157" t="n">
-        <v>276.8</v>
+        <v>278.3</v>
       </c>
       <c r="F157" t="n">
-        <v>72.34365269200001</v>
+        <v>10685.9168</v>
       </c>
       <c r="G157" t="n">
-        <v>-232272.3971097908</v>
+        <v>-296754.9557097909</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,32 +6323,37 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>278.6</v>
+        <v>278.3</v>
       </c>
       <c r="C158" t="n">
-        <v>278.6</v>
+        <v>278.1</v>
       </c>
       <c r="D158" t="n">
-        <v>278.6</v>
+        <v>278.3</v>
       </c>
       <c r="E158" t="n">
-        <v>278.6</v>
+        <v>277.3</v>
       </c>
       <c r="F158" t="n">
-        <v>60.5851</v>
+        <v>575.2947</v>
       </c>
       <c r="G158" t="n">
-        <v>-232272.3971097908</v>
+        <v>-297330.2504097909</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,32 +6363,37 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>278.6</v>
+        <v>277.3</v>
       </c>
       <c r="C159" t="n">
-        <v>278.6</v>
+        <v>278.1</v>
       </c>
       <c r="D159" t="n">
-        <v>278.6</v>
+        <v>278.1</v>
       </c>
       <c r="E159" t="n">
-        <v>278.6</v>
+        <v>277.3</v>
       </c>
       <c r="F159" t="n">
-        <v>4695.5328</v>
+        <v>500</v>
       </c>
       <c r="G159" t="n">
-        <v>-232272.3971097908</v>
+        <v>-297330.2504097909</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,32 +6403,37 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>275.5</v>
+        <v>277.1</v>
       </c>
       <c r="C160" t="n">
-        <v>275</v>
+        <v>276.1</v>
       </c>
       <c r="D160" t="n">
-        <v>275.5</v>
+        <v>277.1</v>
       </c>
       <c r="E160" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F160" t="n">
-        <v>48.8843</v>
+        <v>9396.6677</v>
       </c>
       <c r="G160" t="n">
-        <v>-232321.2814097908</v>
+        <v>-306726.9181097909</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,32 +6443,37 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>274.7</v>
+        <v>276.1</v>
       </c>
       <c r="C161" t="n">
-        <v>274.7</v>
+        <v>276.1</v>
       </c>
       <c r="D161" t="n">
-        <v>274.7</v>
+        <v>276.1</v>
       </c>
       <c r="E161" t="n">
-        <v>274.7</v>
+        <v>276.1</v>
       </c>
       <c r="F161" t="n">
-        <v>1.9231</v>
+        <v>4750</v>
       </c>
       <c r="G161" t="n">
-        <v>-232323.2045097908</v>
+        <v>-306726.9181097909</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,32 +6483,37 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>278</v>
+        <v>275.3</v>
       </c>
       <c r="C162" t="n">
-        <v>278</v>
+        <v>275.2</v>
       </c>
       <c r="D162" t="n">
-        <v>278</v>
+        <v>275.3</v>
       </c>
       <c r="E162" t="n">
-        <v>278</v>
+        <v>275.2</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>1020.1412</v>
       </c>
       <c r="G162" t="n">
-        <v>-232321.2045097908</v>
+        <v>-307747.0593097909</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,32 +6523,37 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C163" t="n">
-        <v>278</v>
+        <v>274.9</v>
       </c>
       <c r="D163" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E163" t="n">
-        <v>278</v>
+        <v>274.9</v>
       </c>
       <c r="F163" t="n">
-        <v>84.6407</v>
+        <v>27493.3199</v>
       </c>
       <c r="G163" t="n">
-        <v>-232321.2045097908</v>
+        <v>-335240.3792097909</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,32 +6563,37 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>278</v>
+        <v>274.8</v>
       </c>
       <c r="C164" t="n">
-        <v>278</v>
+        <v>274.8</v>
       </c>
       <c r="D164" t="n">
-        <v>278</v>
+        <v>274.8</v>
       </c>
       <c r="E164" t="n">
-        <v>278</v>
+        <v>274.8</v>
       </c>
       <c r="F164" t="n">
-        <v>883.9446</v>
+        <v>15</v>
       </c>
       <c r="G164" t="n">
-        <v>-232321.2045097908</v>
+        <v>-335255.3792097909</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6128,32 +6603,37 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>278</v>
+        <v>273.1</v>
       </c>
       <c r="C165" t="n">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D165" t="n">
-        <v>278</v>
+        <v>273.1</v>
       </c>
       <c r="E165" t="n">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F165" t="n">
-        <v>36.1822</v>
+        <v>3075.0594</v>
       </c>
       <c r="G165" t="n">
-        <v>-232321.2045097908</v>
+        <v>-338330.4386097909</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6163,32 +6643,37 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>278</v>
+        <v>277.2</v>
       </c>
       <c r="C166" t="n">
-        <v>278</v>
+        <v>277.2</v>
       </c>
       <c r="D166" t="n">
-        <v>278</v>
+        <v>277.2</v>
       </c>
       <c r="E166" t="n">
-        <v>278</v>
+        <v>277.2</v>
       </c>
       <c r="F166" t="n">
-        <v>133.2838</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>-232321.2045097908</v>
+        <v>-338328.4386097909</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6198,32 +6683,37 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>278.8</v>
+        <v>277.5</v>
       </c>
       <c r="C167" t="n">
-        <v>278.8</v>
+        <v>277.5</v>
       </c>
       <c r="D167" t="n">
-        <v>278.8</v>
+        <v>277.5</v>
       </c>
       <c r="E167" t="n">
-        <v>278.8</v>
+        <v>277.5</v>
       </c>
       <c r="F167" t="n">
-        <v>143.7147</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>-232177.4898097908</v>
+        <v>-338326.4386097909</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6233,32 +6723,37 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>279</v>
+        <v>274.8</v>
       </c>
       <c r="C168" t="n">
-        <v>279</v>
+        <v>274.8</v>
       </c>
       <c r="D168" t="n">
-        <v>279</v>
+        <v>274.8</v>
       </c>
       <c r="E168" t="n">
-        <v>277.1</v>
+        <v>274.8</v>
       </c>
       <c r="F168" t="n">
-        <v>125.312</v>
+        <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>-232052.1778097908</v>
+        <v>-338336.4386097909</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6268,32 +6763,37 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C169" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D169" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E169" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F169" t="n">
-        <v>29</v>
+        <v>36.91</v>
       </c>
       <c r="G169" t="n">
-        <v>-232052.1778097908</v>
+        <v>-338373.3486097909</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6303,32 +6803,37 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C170" t="n">
-        <v>279</v>
+        <v>270.2</v>
       </c>
       <c r="D170" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E170" t="n">
-        <v>279</v>
+        <v>270.2</v>
       </c>
       <c r="F170" t="n">
-        <v>4426.921</v>
+        <v>2988.6296</v>
       </c>
       <c r="G170" t="n">
-        <v>-232052.1778097908</v>
+        <v>-341361.9782097909</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6338,32 +6843,37 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>279</v>
+        <v>271.1</v>
       </c>
       <c r="C171" t="n">
-        <v>279</v>
+        <v>271.1</v>
       </c>
       <c r="D171" t="n">
-        <v>279</v>
+        <v>271.1</v>
       </c>
       <c r="E171" t="n">
-        <v>279</v>
+        <v>271.1</v>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>241.4983</v>
       </c>
       <c r="G171" t="n">
-        <v>-232052.1778097908</v>
+        <v>-341120.4799097909</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6373,32 +6883,37 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>277.2</v>
+        <v>271.1</v>
       </c>
       <c r="C172" t="n">
-        <v>277.2</v>
+        <v>271.1</v>
       </c>
       <c r="D172" t="n">
-        <v>277.2</v>
+        <v>271.1</v>
       </c>
       <c r="E172" t="n">
-        <v>277.2</v>
+        <v>271.1</v>
       </c>
       <c r="F172" t="n">
-        <v>21.5362</v>
+        <v>697.2091</v>
       </c>
       <c r="G172" t="n">
-        <v>-232073.7140097908</v>
+        <v>-341120.4799097909</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6408,32 +6923,37 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>277.2</v>
+        <v>270</v>
       </c>
       <c r="C173" t="n">
-        <v>275.4</v>
+        <v>270</v>
       </c>
       <c r="D173" t="n">
-        <v>277.2</v>
+        <v>270</v>
       </c>
       <c r="E173" t="n">
-        <v>275.4</v>
+        <v>270</v>
       </c>
       <c r="F173" t="n">
-        <v>29983.5793</v>
+        <v>66.17010000000001</v>
       </c>
       <c r="G173" t="n">
-        <v>-262057.2933097908</v>
+        <v>-341186.6500097909</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6443,32 +6963,37 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>279</v>
+        <v>272.9</v>
       </c>
       <c r="C174" t="n">
-        <v>279.7</v>
+        <v>271</v>
       </c>
       <c r="D174" t="n">
-        <v>279.7</v>
+        <v>272.9</v>
       </c>
       <c r="E174" t="n">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F174" t="n">
-        <v>1102</v>
+        <v>52.1329</v>
       </c>
       <c r="G174" t="n">
-        <v>-260955.2933097908</v>
+        <v>-341134.5171097909</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6478,32 +7003,37 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>278.9</v>
+        <v>272.9</v>
       </c>
       <c r="C175" t="n">
-        <v>279.9</v>
+        <v>272.9</v>
       </c>
       <c r="D175" t="n">
-        <v>279.9</v>
+        <v>272.9</v>
       </c>
       <c r="E175" t="n">
-        <v>278.9</v>
+        <v>272.9</v>
       </c>
       <c r="F175" t="n">
-        <v>2324.7565</v>
+        <v>1534.2346</v>
       </c>
       <c r="G175" t="n">
-        <v>-258630.5368097909</v>
+        <v>-339600.2825097908</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6513,32 +7043,37 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>278</v>
+        <v>274.4</v>
       </c>
       <c r="C176" t="n">
-        <v>278</v>
+        <v>274.4</v>
       </c>
       <c r="D176" t="n">
-        <v>278</v>
+        <v>274.4</v>
       </c>
       <c r="E176" t="n">
-        <v>278</v>
+        <v>274.4</v>
       </c>
       <c r="F176" t="n">
-        <v>313.0145</v>
+        <v>34.1551</v>
       </c>
       <c r="G176" t="n">
-        <v>-258943.5513097908</v>
+        <v>-339566.1274097909</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6548,32 +7083,37 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>278</v>
+        <v>274.4</v>
       </c>
       <c r="C177" t="n">
-        <v>279.8</v>
+        <v>274.4</v>
       </c>
       <c r="D177" t="n">
-        <v>279.9</v>
+        <v>274.4</v>
       </c>
       <c r="E177" t="n">
-        <v>278</v>
+        <v>274.4</v>
       </c>
       <c r="F177" t="n">
-        <v>974</v>
+        <v>10.902</v>
       </c>
       <c r="G177" t="n">
-        <v>-257969.5513097908</v>
+        <v>-339566.1274097909</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6583,32 +7123,37 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>279.8</v>
+        <v>272.9</v>
       </c>
       <c r="C178" t="n">
-        <v>280</v>
+        <v>272.9</v>
       </c>
       <c r="D178" t="n">
-        <v>280</v>
+        <v>272.9</v>
       </c>
       <c r="E178" t="n">
-        <v>279.8</v>
+        <v>272.9</v>
       </c>
       <c r="F178" t="n">
-        <v>10941.2073</v>
+        <v>30.0021</v>
       </c>
       <c r="G178" t="n">
-        <v>-247028.3440097908</v>
+        <v>-339596.1295097909</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6618,32 +7163,37 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>280</v>
+        <v>272.9</v>
       </c>
       <c r="C179" t="n">
-        <v>280</v>
+        <v>273.2</v>
       </c>
       <c r="D179" t="n">
-        <v>280</v>
+        <v>273.2</v>
       </c>
       <c r="E179" t="n">
-        <v>280</v>
+        <v>272.9</v>
       </c>
       <c r="F179" t="n">
-        <v>1130.7927</v>
+        <v>954.48</v>
       </c>
       <c r="G179" t="n">
-        <v>-247028.3440097908</v>
+        <v>-338641.6495097909</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6653,32 +7203,37 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>280</v>
+        <v>272.9</v>
       </c>
       <c r="C180" t="n">
-        <v>276</v>
+        <v>272.9</v>
       </c>
       <c r="D180" t="n">
-        <v>280</v>
+        <v>272.9</v>
       </c>
       <c r="E180" t="n">
-        <v>276</v>
+        <v>272.9</v>
       </c>
       <c r="F180" t="n">
-        <v>1118.65</v>
+        <v>217</v>
       </c>
       <c r="G180" t="n">
-        <v>-248146.9940097908</v>
+        <v>-338858.6495097909</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6688,32 +7243,37 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>276</v>
+        <v>272.9</v>
       </c>
       <c r="C181" t="n">
-        <v>274.1</v>
+        <v>272.9</v>
       </c>
       <c r="D181" t="n">
-        <v>276</v>
+        <v>272.9</v>
       </c>
       <c r="E181" t="n">
-        <v>274.1</v>
+        <v>272.9</v>
       </c>
       <c r="F181" t="n">
-        <v>30000</v>
+        <v>335.9086</v>
       </c>
       <c r="G181" t="n">
-        <v>-278146.9940097908</v>
+        <v>-338858.6495097909</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6723,32 +7283,37 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>274</v>
+        <v>272.9</v>
       </c>
       <c r="C182" t="n">
-        <v>273.1</v>
+        <v>273.2</v>
       </c>
       <c r="D182" t="n">
-        <v>274</v>
+        <v>273.2</v>
       </c>
       <c r="E182" t="n">
-        <v>273.1</v>
+        <v>272.9</v>
       </c>
       <c r="F182" t="n">
-        <v>20000</v>
+        <v>13.98</v>
       </c>
       <c r="G182" t="n">
-        <v>-298146.9940097908</v>
+        <v>-338844.6695097909</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6758,32 +7323,37 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>273</v>
+        <v>273.3</v>
       </c>
       <c r="C183" t="n">
-        <v>275.8</v>
+        <v>274.4</v>
       </c>
       <c r="D183" t="n">
-        <v>275.8</v>
+        <v>274.4</v>
       </c>
       <c r="E183" t="n">
-        <v>273</v>
+        <v>273.3</v>
       </c>
       <c r="F183" t="n">
-        <v>4943.4147</v>
+        <v>7637.4958</v>
       </c>
       <c r="G183" t="n">
-        <v>-293203.5793097908</v>
+        <v>-331207.1737097909</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6793,32 +7363,37 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>274.1</v>
+        <v>275.7</v>
       </c>
       <c r="C184" t="n">
-        <v>274.7</v>
+        <v>275.7</v>
       </c>
       <c r="D184" t="n">
-        <v>274.7</v>
+        <v>275.7</v>
       </c>
       <c r="E184" t="n">
-        <v>274.1</v>
+        <v>275.7</v>
       </c>
       <c r="F184" t="n">
-        <v>405.9998</v>
+        <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>-293609.5791097908</v>
+        <v>-331205.1737097909</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6828,32 +7403,37 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>274.7</v>
+        <v>275.7</v>
       </c>
       <c r="C185" t="n">
-        <v>274.8</v>
+        <v>275.7</v>
       </c>
       <c r="D185" t="n">
-        <v>274.8</v>
+        <v>275.7</v>
       </c>
       <c r="E185" t="n">
-        <v>274.7</v>
+        <v>275.7</v>
       </c>
       <c r="F185" t="n">
-        <v>405.9999</v>
+        <v>498.1257</v>
       </c>
       <c r="G185" t="n">
-        <v>-293203.5792097908</v>
+        <v>-331205.1737097909</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6863,32 +7443,37 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>276.9</v>
+        <v>276.7</v>
       </c>
       <c r="C186" t="n">
-        <v>276.9</v>
+        <v>273</v>
       </c>
       <c r="D186" t="n">
-        <v>276.9</v>
+        <v>276.7</v>
       </c>
       <c r="E186" t="n">
-        <v>276.9</v>
+        <v>273</v>
       </c>
       <c r="F186" t="n">
-        <v>559.5022</v>
+        <v>1739.0443</v>
       </c>
       <c r="G186" t="n">
-        <v>-292644.0770097908</v>
+        <v>-332944.2180097909</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6898,32 +7483,37 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>277</v>
+        <v>278.4</v>
       </c>
       <c r="C187" t="n">
-        <v>277</v>
+        <v>278.4</v>
       </c>
       <c r="D187" t="n">
-        <v>277</v>
+        <v>278.4</v>
       </c>
       <c r="E187" t="n">
-        <v>277</v>
+        <v>278.4</v>
       </c>
       <c r="F187" t="n">
-        <v>28.7079</v>
+        <v>2</v>
       </c>
       <c r="G187" t="n">
-        <v>-292615.3691097908</v>
+        <v>-332942.2180097909</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6933,196 +7523,197 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>277.4</v>
+        <v>278.3</v>
       </c>
       <c r="C188" t="n">
-        <v>278</v>
+        <v>278.3</v>
       </c>
       <c r="D188" t="n">
-        <v>278</v>
+        <v>278.3</v>
       </c>
       <c r="E188" t="n">
-        <v>277.4</v>
+        <v>278.3</v>
       </c>
       <c r="F188" t="n">
-        <v>13962.2312</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>-278653.1379097909</v>
+        <v>-332944.2180097909</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>277</v>
-      </c>
-      <c r="K188" t="n">
-        <v>277</v>
-      </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>278</v>
+        <v>278.4</v>
       </c>
       <c r="C189" t="n">
-        <v>278</v>
+        <v>279.4</v>
       </c>
       <c r="D189" t="n">
-        <v>278</v>
+        <v>279.4</v>
       </c>
       <c r="E189" t="n">
-        <v>278</v>
+        <v>278.4</v>
       </c>
       <c r="F189" t="n">
-        <v>2907</v>
+        <v>4</v>
       </c>
       <c r="G189" t="n">
-        <v>-278653.1379097909</v>
+        <v>-332940.2180097909</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>278</v>
-      </c>
-      <c r="K189" t="n">
-        <v>277</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>278</v>
+        <v>279.5</v>
       </c>
       <c r="C190" t="n">
-        <v>278</v>
+        <v>279.5</v>
       </c>
       <c r="D190" t="n">
-        <v>278</v>
+        <v>279.5</v>
       </c>
       <c r="E190" t="n">
-        <v>278</v>
+        <v>279.5</v>
       </c>
       <c r="F190" t="n">
-        <v>5351.2713</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>-278653.1379097909</v>
+        <v>-332938.2180097909</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>278</v>
-      </c>
-      <c r="K190" t="n">
-        <v>277</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>278</v>
+        <v>277.2</v>
       </c>
       <c r="C191" t="n">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D191" t="n">
-        <v>278</v>
+        <v>277.2</v>
       </c>
       <c r="E191" t="n">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F191" t="n">
-        <v>2556.9638</v>
+        <v>430.3752</v>
       </c>
       <c r="G191" t="n">
-        <v>-278653.1379097909</v>
+        <v>-333368.5932097909</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>278</v>
-      </c>
-      <c r="K191" t="n">
-        <v>278</v>
-      </c>
-      <c r="L191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>279</v>
+        <v>278.3</v>
       </c>
       <c r="C192" t="n">
-        <v>279</v>
+        <v>278.3</v>
       </c>
       <c r="D192" t="n">
-        <v>279</v>
+        <v>278.3</v>
       </c>
       <c r="E192" t="n">
-        <v>279</v>
+        <v>278.3</v>
       </c>
       <c r="F192" t="n">
-        <v>14.38</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>-278638.7579097908</v>
+        <v>-333366.5932097909</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7131,1748 +7722,56 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>278</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>280.8</v>
+        <v>278.3</v>
       </c>
       <c r="C193" t="n">
-        <v>280.8</v>
+        <v>278.3</v>
       </c>
       <c r="D193" t="n">
-        <v>280.8</v>
+        <v>278.3</v>
       </c>
       <c r="E193" t="n">
-        <v>280.8</v>
+        <v>278.3</v>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="G193" t="n">
-        <v>-278636.7579097908</v>
+        <v>-333366.5932097909</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>279</v>
-      </c>
-      <c r="K193" t="n">
-        <v>278</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="C194" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="E194" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-278634.7579097908</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>279</v>
-      </c>
-      <c r="C195" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>279</v>
-      </c>
-      <c r="E195" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3393.5232</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-282028.2811097908</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-282026.2811097908</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="D197" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>4044.7578</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-286071.0389097909</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>282.4</v>
-      </c>
-      <c r="C198" t="n">
-        <v>282.4</v>
-      </c>
-      <c r="D198" t="n">
-        <v>282.4</v>
-      </c>
-      <c r="E198" t="n">
-        <v>282.4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-286069.0389097909</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="D199" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="E199" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>10685.9168</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-296754.9557097909</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>278.1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>277.3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>575.2947</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-297330.2504097909</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>277.3</v>
-      </c>
-      <c r="C201" t="n">
-        <v>278.1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>278.1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>277.3</v>
-      </c>
-      <c r="F201" t="n">
-        <v>500</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-297330.2504097909</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>277.1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>277.1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>276</v>
-      </c>
-      <c r="F202" t="n">
-        <v>9396.6677</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-306726.9181097909</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="E203" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-306726.9181097909</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="K203" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>275.3</v>
-      </c>
-      <c r="C204" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="D204" t="n">
-        <v>275.3</v>
-      </c>
-      <c r="E204" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1020.1412</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-307747.0593097909</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="K204" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>275</v>
-      </c>
-      <c r="C205" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="D205" t="n">
-        <v>275</v>
-      </c>
-      <c r="E205" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="F205" t="n">
-        <v>27493.3199</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-335240.3792097909</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="K205" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="C206" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="D206" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="E206" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="F206" t="n">
-        <v>15</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-335255.3792097909</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>273</v>
-      </c>
-      <c r="D207" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E207" t="n">
-        <v>273</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3075.0594</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-338330.4386097909</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="K207" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="C208" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-338328.4386097909</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>273</v>
-      </c>
-      <c r="K208" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="C209" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="D209" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="E209" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-338326.4386097909</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="K209" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="C210" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="D210" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="E210" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-338336.4386097909</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>274</v>
-      </c>
-      <c r="C211" t="n">
-        <v>274</v>
-      </c>
-      <c r="D211" t="n">
-        <v>274</v>
-      </c>
-      <c r="E211" t="n">
-        <v>274</v>
-      </c>
-      <c r="F211" t="n">
-        <v>36.91</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-338373.3486097909</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="K211" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>274</v>
-      </c>
-      <c r="C212" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="D212" t="n">
-        <v>274</v>
-      </c>
-      <c r="E212" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="F212" t="n">
-        <v>2988.6296</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-341361.9782097909</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>241.4983</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-341120.4799097909</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="K213" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>697.2091</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-341120.4799097909</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K214" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>270</v>
-      </c>
-      <c r="C215" t="n">
-        <v>270</v>
-      </c>
-      <c r="D215" t="n">
-        <v>270</v>
-      </c>
-      <c r="E215" t="n">
-        <v>270</v>
-      </c>
-      <c r="F215" t="n">
-        <v>66.17010000000001</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-341186.6500097909</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C216" t="n">
-        <v>271</v>
-      </c>
-      <c r="D216" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="E216" t="n">
-        <v>271</v>
-      </c>
-      <c r="F216" t="n">
-        <v>52.1329</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-341134.5171097909</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C217" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="D217" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="E217" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1534.2346</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-339600.2825097908</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>271</v>
-      </c>
-      <c r="K217" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="C218" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="D218" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="E218" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="F218" t="n">
-        <v>34.1551</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-339566.1274097909</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="C219" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="D219" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="E219" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10.902</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-339566.1274097909</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C220" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="D220" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="E220" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="F220" t="n">
-        <v>30.0021</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-339596.1295097909</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="D221" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="E221" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="F221" t="n">
-        <v>954.48</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-338641.6495097909</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C222" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="D222" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="E222" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="F222" t="n">
-        <v>217</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-338858.6495097909</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="D223" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="E223" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="F223" t="n">
-        <v>335.9086</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-338858.6495097909</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="C224" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="D224" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="E224" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="F224" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-338844.6695097909</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="C225" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="D225" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="E225" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="F225" t="n">
-        <v>7637.4958</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-331207.1737097909</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="C226" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="D226" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="E226" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-331205.1737097909</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="C227" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="D227" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="E227" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="F227" t="n">
-        <v>498.1257</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-331205.1737097909</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="C228" t="n">
-        <v>273</v>
-      </c>
-      <c r="D228" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="E228" t="n">
-        <v>273</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1739.0443</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-332944.2180097909</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="K228" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="C229" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="D229" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="E229" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-332942.2180097909</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>273</v>
-      </c>
-      <c r="K229" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="C230" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="D230" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="E230" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="F230" t="n">
-        <v>2</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-332944.2180097909</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="C231" t="n">
-        <v>279.4</v>
-      </c>
-      <c r="D231" t="n">
-        <v>279.4</v>
-      </c>
-      <c r="E231" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="F231" t="n">
-        <v>4</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-332940.2180097909</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="C232" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="D232" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="E232" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-332938.2180097909</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="C233" t="n">
-        <v>273</v>
-      </c>
-      <c r="D233" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="E233" t="n">
-        <v>273</v>
-      </c>
-      <c r="F233" t="n">
-        <v>430.3752</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-333368.5932097909</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="C234" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="D234" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="E234" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-333366.5932097909</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="C235" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="E235" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="F235" t="n">
-        <v>257</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-333366.5932097909</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
+      <c r="N193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-74388.18179999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-75460.97249999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-73540.40259999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-70666.23629999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-71245.42699999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-82956.51029999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-85190.29919999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-85197.44309999997</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-85365.93519999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-86013.28809999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-86172.94119999997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-101944.9831</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-102106.9831</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-102106.9831</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-114031.7713</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-101487.1829</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-105845.7688</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-105693.1230723309</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-108037.7216723309</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-108140.7204723309</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-106416.6135723309</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-106962.6135723309</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-107146.3335723309</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-108831.1409723309</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-109090.9509723309</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-110125.0730723309</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,19 @@
         <v>-176983.3143723308</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>264.5</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3623,23 @@
         <v>-176983.3143723308</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3666,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,22 +3703,21 @@
         <v>-180866.8356723308</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4024,24 +3742,23 @@
         <v>-180616.8356723308</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>265.2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4066,24 +3783,23 @@
         <v>-185641.5674723308</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>266.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4108,22 +3824,23 @@
         <v>-185617.5674723308</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>266.8</v>
       </c>
       <c r="J103" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="K103" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,26 +3865,23 @@
         <v>-185561.5674723308</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>266.9</v>
       </c>
       <c r="J104" t="n">
-        <v>266.9</v>
-      </c>
-      <c r="K104" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4192,24 +3906,23 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>267.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4234,22 +3947,21 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="K106" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4274,24 +3986,23 @@
         <v>-182176.7683723308</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
         <v>267.6</v>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4316,24 +4027,23 @@
         <v>-183676.7683723308</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>269.8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4360,16 +4070,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4396,16 +4109,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4432,16 +4148,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4468,16 +4187,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4502,18 +4224,23 @@
         <v>-175538.2917723308</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>270.1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4538,18 +4265,23 @@
         <v>-176407.7215723309</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>270.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4576,16 +4308,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4612,16 +4347,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4648,16 +4386,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4682,18 +4423,23 @@
         <v>-195053.8305723308</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>270.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4718,18 +4464,23 @@
         <v>-195001.0296723308</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>270.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4756,16 +4507,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4790,18 +4544,23 @@
         <v>-195543.6886723308</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>270.9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4826,18 +4585,23 @@
         <v>-195380.0346723308</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>270.5</v>
+      </c>
+      <c r="J122" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4862,18 +4626,23 @@
         <v>-195685.1066723308</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>270.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4898,22 +4667,23 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>270.5</v>
       </c>
       <c r="J124" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="K124" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4938,26 +4708,23 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>270.1</v>
       </c>
       <c r="J125" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K125" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4982,26 +4749,23 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>270.1</v>
       </c>
       <c r="J126" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5026,22 +4790,23 @@
         <v>-198697.2742598078</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>270.1</v>
       </c>
       <c r="J127" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5066,26 +4831,23 @@
         <v>-198701.8442598078</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>271.5</v>
       </c>
       <c r="J128" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="K128" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5110,26 +4872,23 @@
         <v>-200985.8442598078</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>270.1</v>
       </c>
       <c r="J129" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K129" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5154,26 +4913,23 @@
         <v>-207840.8442598078</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>268.5</v>
       </c>
       <c r="J130" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="K130" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5198,26 +4954,23 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>265.7</v>
       </c>
       <c r="J131" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K131" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5242,26 +4995,23 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>270.9</v>
       </c>
       <c r="J132" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="K132" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5286,26 +5036,23 @@
         <v>-207832.6567598078</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>270.9</v>
       </c>
       <c r="J133" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="K133" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5330,26 +5077,23 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="J134" t="n">
-        <v>271</v>
-      </c>
-      <c r="K134" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5374,26 +5118,21 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="K135" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5418,26 +5157,23 @@
         <v>-207938.8215598078</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>271.5</v>
       </c>
       <c r="J136" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="K136" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5462,26 +5198,21 @@
         <v>-207953.0415598078</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="K137" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5506,26 +5237,21 @@
         <v>-207950.9417598078</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>269</v>
-      </c>
-      <c r="K138" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5550,26 +5276,21 @@
         <v>-211424.5833598078</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>271</v>
-      </c>
-      <c r="K139" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5594,26 +5315,23 @@
         <v>-210648.6377598078</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>267.9</v>
       </c>
       <c r="J140" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K140" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5638,26 +5356,23 @@
         <v>-210630.2283341819</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J141" t="n">
-        <v>268</v>
-      </c>
-      <c r="K141" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5682,26 +5397,23 @@
         <v>-211057.137334182</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>271.6</v>
       </c>
       <c r="J142" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="K142" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5726,26 +5438,23 @@
         <v>-216148.424134182</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J143" t="n">
-        <v>268</v>
-      </c>
-      <c r="K143" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5770,26 +5479,23 @@
         <v>-216115.92082754</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>267.9</v>
       </c>
       <c r="J144" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K144" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5814,26 +5520,23 @@
         <v>-221698.90432754</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="J145" t="n">
-        <v>271</v>
-      </c>
-      <c r="K145" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5858,26 +5561,23 @@
         <v>-219473.61812754</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="J146" t="n">
-        <v>269</v>
-      </c>
-      <c r="K146" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5902,26 +5602,23 @@
         <v>-218577.8477275399</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>269.2</v>
       </c>
       <c r="J147" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="K147" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5946,26 +5643,23 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>269.6</v>
       </c>
       <c r="J148" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="K148" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5990,26 +5684,23 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J149" t="n">
-        <v>270</v>
-      </c>
-      <c r="K149" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6034,26 +5725,23 @@
         <v>-218241.8477275399</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J150" t="n">
-        <v>270</v>
-      </c>
-      <c r="K150" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6078,26 +5766,23 @@
         <v>-222879.2564275399</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>271.5</v>
       </c>
       <c r="J151" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="K151" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6122,26 +5807,23 @@
         <v>-222781.2564275399</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="J152" t="n">
-        <v>267</v>
-      </c>
-      <c r="K152" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6166,26 +5848,23 @@
         <v>-226391.3726275399</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>269.9</v>
       </c>
       <c r="J153" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="K153" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6210,26 +5889,23 @@
         <v>-224301.9675275399</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>265.6</v>
       </c>
       <c r="J154" t="n">
-        <v>265.6</v>
-      </c>
-      <c r="K154" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6254,26 +5930,23 @@
         <v>-223124.9675275399</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>270.2</v>
       </c>
       <c r="J155" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="K155" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6298,26 +5971,23 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="J156" t="n">
-        <v>271.2</v>
-      </c>
-      <c r="K156" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6342,26 +6012,23 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>271.3</v>
       </c>
       <c r="J157" t="n">
-        <v>271.3</v>
-      </c>
-      <c r="K157" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6386,26 +6053,23 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>271.3</v>
       </c>
       <c r="J158" t="n">
-        <v>271.3</v>
-      </c>
-      <c r="K158" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6430,26 +6094,23 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>271.4</v>
       </c>
       <c r="J159" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="K159" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6474,26 +6135,21 @@
         <v>-222805.2650624829</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="K160" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6518,26 +6174,21 @@
         <v>-223683.2650624829</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>271.3</v>
-      </c>
-      <c r="K161" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6562,26 +6213,23 @@
         <v>-222140.0001624828</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>267.1</v>
       </c>
       <c r="J162" t="n">
-        <v>267.1</v>
-      </c>
-      <c r="K162" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6606,26 +6254,21 @@
         <v>-222125.0001624828</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>268</v>
-      </c>
-      <c r="K163" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6650,26 +6293,23 @@
         <v>-223011.0001624828</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J164" t="n">
-        <v>270</v>
-      </c>
-      <c r="K164" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6694,26 +6334,23 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J165" t="n">
-        <v>268</v>
-      </c>
-      <c r="K165" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6738,26 +6375,21 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="K166" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6784,22 +6416,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6826,22 +6455,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6868,22 +6494,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6908,26 +6531,21 @@
         <v>-228205.1001624828</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="K170" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6952,26 +6570,21 @@
         <v>-227567.8053624828</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="K171" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6996,26 +6609,23 @@
         <v>-227553.8053624828</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>271.9</v>
       </c>
       <c r="J172" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="K172" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7040,26 +6650,23 @@
         <v>-225365.7835624829</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="J173" t="n">
-        <v>272</v>
-      </c>
-      <c r="K173" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7084,26 +6691,23 @@
         <v>-231723.0565624828</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>272.7</v>
       </c>
       <c r="J174" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="K174" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7128,26 +6732,21 @@
         <v>-231721.0565624828</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="K175" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7174,22 +6773,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7216,22 +6812,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7258,22 +6851,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7300,22 +6890,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7342,22 +6929,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7384,22 +6968,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7426,22 +7007,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7468,22 +7046,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7510,22 +7085,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7552,22 +7124,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7594,22 +7163,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7636,22 +7202,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7678,22 +7241,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7720,22 +7280,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7762,22 +7319,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7804,22 +7358,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7846,22 +7397,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7888,22 +7436,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7930,22 +7475,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7972,22 +7514,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8014,22 +7553,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8056,22 +7592,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8098,22 +7631,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8140,22 +7670,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8182,22 +7709,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8224,22 +7748,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8266,22 +7787,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8308,22 +7826,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8350,22 +7865,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8392,22 +7904,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8432,24 +7941,23 @@
         <v>-257969.5513097908</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1.052844990548204</v>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>1.103969754253308</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8474,24 +7982,15 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8516,24 +8015,15 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8558,24 +8048,15 @@
         <v>-248146.9940097908</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8600,24 +8081,15 @@
         <v>-278146.9940097908</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8642,24 +8114,15 @@
         <v>-298146.9940097908</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8686,22 +8149,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8728,22 +8182,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8768,24 +8213,21 @@
         <v>-293203.5792097908</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>274.7</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8812,22 +8254,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8854,22 +8291,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8896,22 +8328,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8938,22 +8365,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8980,22 +8402,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9022,22 +8439,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9062,24 +8474,21 @@
         <v>-278638.7579097908</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9106,22 +8515,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9148,22 +8552,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9190,22 +8589,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9232,22 +8626,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9274,22 +8663,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9314,24 +8698,17 @@
         <v>-286069.0389097909</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9356,24 +8733,15 @@
         <v>-296754.9557097909</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9398,24 +8766,15 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9442,22 +8801,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9484,22 +8834,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9526,22 +8867,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9568,22 +8900,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9610,22 +8933,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9652,22 +8966,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9694,22 +8999,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9736,22 +9032,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9778,22 +9065,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9820,22 +9098,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9862,22 +9131,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9904,22 +9164,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9946,22 +9197,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9988,22 +9230,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10030,22 +9263,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10072,22 +9296,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10114,22 +9329,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10154,26 +9360,15 @@
         <v>-339566.1274097909</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="K247" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10198,26 +9393,15 @@
         <v>-339566.1274097909</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="K248" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10244,22 +9428,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10286,22 +9461,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10328,22 +9494,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10370,22 +9527,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10412,22 +9560,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10454,22 +9593,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10496,22 +9626,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10538,22 +9659,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10580,22 +9692,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10622,22 +9725,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10664,22 +9758,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10706,22 +9791,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10748,22 +9824,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10790,22 +9857,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10832,22 +9890,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10874,24 +9923,15 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-74388.18179999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-75460.97249999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-73540.40259999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-70666.23629999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-71245.42699999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-83365.54269999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-82956.51029999998</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-85190.29919999998</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-85197.44309999997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-85365.93519999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-86013.28809999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-86172.94119999997</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-101944.9831</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-102106.9831</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-102106.9831</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-114031.7713</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-101487.1829</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-105845.7688</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-106391.2100169108</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-105693.1230723309</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-108037.7216723309</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-108140.7204723309</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-108074.2930723309</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-104092.2930723309</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-106416.6135723309</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-106962.6135723309</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-107146.3335723309</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-108831.1409723309</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-109090.9509723309</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-110125.0730723309</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3586,14 +3586,10 @@
         <v>-176983.3143723308</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3623,19 +3619,11 @@
         <v>-176983.3143723308</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3667,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3742,19 +3718,11 @@
         <v>-180616.8356723308</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3783,17 +3751,15 @@
         <v>-185641.5674723308</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>266.9</v>
       </c>
-      <c r="J102" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3824,14 +3790,10 @@
         <v>-185617.5674723308</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,14 +3827,10 @@
         <v>-185561.5674723308</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>266.9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3906,14 +3864,10 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,9 +3904,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,14 +3938,10 @@
         <v>-182176.7683723308</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,14 +3975,12 @@
         <v>-183676.7683723308</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>269.8</v>
       </c>
-      <c r="J108" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,9 +4017,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,12 +4051,12 @@
         <v>-180192.2281723308</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4149,9 +4093,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,12 +4127,12 @@
         <v>-176489.3417723308</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>270</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4224,14 +4166,10 @@
         <v>-175538.2917723308</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,14 +4203,10 @@
         <v>-176407.7215723309</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>270.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,9 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,9 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,14 +4351,10 @@
         <v>-195053.8305723308</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,14 +4388,10 @@
         <v>-195001.0296723308</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4508,9 +4428,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,14 +4462,12 @@
         <v>-195543.6886723308</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>270.9</v>
       </c>
-      <c r="J121" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4585,14 +4501,12 @@
         <v>-195380.0346723308</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>270.5</v>
       </c>
-      <c r="J122" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,14 +4540,12 @@
         <v>-195685.1066723308</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>270.6</v>
       </c>
-      <c r="J123" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,14 +4579,12 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>270.5</v>
       </c>
-      <c r="J124" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,14 +4618,12 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>270.1</v>
       </c>
-      <c r="J125" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,14 +4657,12 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>270.1</v>
       </c>
-      <c r="J126" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,14 +4696,12 @@
         <v>-198697.2742598078</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>270.1</v>
       </c>
-      <c r="J127" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,14 +4735,12 @@
         <v>-198701.8442598078</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>271.5</v>
       </c>
-      <c r="J128" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,14 +4774,12 @@
         <v>-200985.8442598078</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>270.1</v>
       </c>
-      <c r="J129" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,14 +4813,12 @@
         <v>-207840.8442598078</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>268.5</v>
       </c>
-      <c r="J130" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,14 +4852,12 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>265.7</v>
       </c>
-      <c r="J131" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,14 +4891,12 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>270.9</v>
       </c>
-      <c r="J132" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,14 +4930,12 @@
         <v>-207832.6567598078</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>270.9</v>
       </c>
-      <c r="J133" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,14 +4969,12 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>271</v>
       </c>
-      <c r="J134" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,12 +5008,12 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,14 +5047,10 @@
         <v>-207938.8215598078</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5198,12 +5084,12 @@
         <v>-207953.0415598078</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,12 +5123,12 @@
         <v>-207950.9417598078</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>269</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,12 +5162,12 @@
         <v>-211424.5833598078</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>271</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5315,14 +5201,12 @@
         <v>-210648.6377598078</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>267.9</v>
       </c>
-      <c r="J140" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,14 +5240,12 @@
         <v>-210630.2283341819</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>268</v>
       </c>
-      <c r="J141" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5397,14 +5279,12 @@
         <v>-211057.137334182</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>271.6</v>
       </c>
-      <c r="J142" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5438,14 +5318,12 @@
         <v>-216148.424134182</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>268</v>
       </c>
-      <c r="J143" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,14 +5357,12 @@
         <v>-216115.92082754</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>267.9</v>
       </c>
-      <c r="J144" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,14 +5396,12 @@
         <v>-221698.90432754</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>271</v>
       </c>
-      <c r="J145" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,14 +5435,12 @@
         <v>-219473.61812754</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>269</v>
       </c>
-      <c r="J146" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5602,14 +5474,12 @@
         <v>-218577.8477275399</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>269.2</v>
       </c>
-      <c r="J147" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5643,14 +5513,12 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>269.6</v>
       </c>
-      <c r="J148" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,14 +5552,12 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>270</v>
       </c>
-      <c r="J149" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,14 +5591,12 @@
         <v>-218241.8477275399</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>270</v>
       </c>
-      <c r="J150" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,14 +5630,12 @@
         <v>-222879.2564275399</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>271.5</v>
       </c>
-      <c r="J151" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,14 +5669,12 @@
         <v>-222781.2564275399</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>267</v>
       </c>
-      <c r="J152" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5848,14 +5708,12 @@
         <v>-226391.3726275399</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>269.9</v>
       </c>
-      <c r="J153" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,14 +5747,12 @@
         <v>-224301.9675275399</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>265.6</v>
       </c>
-      <c r="J154" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,14 +5786,12 @@
         <v>-223124.9675275399</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>270.2</v>
       </c>
-      <c r="J155" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,14 +5825,12 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>271.2</v>
       </c>
-      <c r="J156" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6012,14 +5864,12 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>271.3</v>
       </c>
-      <c r="J157" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6053,14 +5903,12 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>271.3</v>
       </c>
-      <c r="J158" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6094,14 +5942,12 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>271.4</v>
       </c>
-      <c r="J159" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6135,12 +5981,12 @@
         <v>-222805.2650624829</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6174,12 +6020,12 @@
         <v>-223683.2650624829</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6213,14 +6059,12 @@
         <v>-222140.0001624828</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>267.1</v>
       </c>
-      <c r="J162" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6254,12 +6098,12 @@
         <v>-222125.0001624828</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>268</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6293,14 +6137,12 @@
         <v>-223011.0001624828</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>270</v>
       </c>
-      <c r="J164" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,14 +6176,12 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>268</v>
       </c>
-      <c r="J165" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,12 +6215,12 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,9 +6257,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,9 +6294,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,9 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6534,9 +6368,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6570,12 +6402,12 @@
         <v>-227567.8053624828</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6609,14 +6441,12 @@
         <v>-227553.8053624828</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>271.9</v>
       </c>
-      <c r="J172" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6650,14 +6480,10 @@
         <v>-225365.7835624829</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>272</v>
-      </c>
-      <c r="J173" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,14 +6517,10 @@
         <v>-231723.0565624828</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6735,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6771,12 +6591,12 @@
         <v>-231761.0565624828</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>264.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6813,9 +6633,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6852,9 +6670,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6891,9 +6707,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6930,9 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6969,9 +6781,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,9 +6818,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7047,9 +6855,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7086,9 +6892,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7125,9 +6929,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7164,9 +6966,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7203,9 +7003,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7242,9 +7040,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7281,9 +7077,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,9 +7114,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7359,9 +7151,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,9 +7188,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7437,9 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7476,9 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7515,9 +7299,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7554,9 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7593,9 +7373,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7632,9 +7410,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7671,9 +7447,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,9 +7484,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7749,9 +7521,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7788,9 +7558,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7827,9 +7595,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7866,9 +7632,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7905,9 +7669,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,23 +7703,19 @@
         <v>-257969.5513097908</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>264.5</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.052844990548204</v>
-      </c>
-      <c r="M206" t="n">
-        <v>1.103969754253308</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7982,11 +7740,15 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +7777,15 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8048,11 +7814,15 @@
         <v>-248146.9940097908</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8081,11 +7851,15 @@
         <v>-278146.9940097908</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8114,11 +7888,15 @@
         <v>-298146.9940097908</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8151,7 +7929,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8184,7 +7966,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8213,15 +7999,13 @@
         <v>-293203.5792097908</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>274.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -8363,9 +8147,11 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>278</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8474,11 +8260,9 @@
         <v>-278638.7579097908</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8698,16 +8482,18 @@
         <v>-286069.0389097909</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -8733,11 +8519,15 @@
         <v>-296754.9557097909</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8766,11 +8556,15 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8803,7 +8597,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8836,7 +8634,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8869,7 +8671,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8902,7 +8708,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8935,7 +8745,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8968,7 +8782,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9001,7 +8819,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +8856,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9067,7 +8893,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9100,7 +8930,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9133,7 +8967,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9166,7 +9004,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9195,11 +9037,17 @@
         <v>-341120.4799097909</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +9080,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9261,11 +9113,17 @@
         <v>-341186.6500097909</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9294,11 +9152,17 @@
         <v>-341134.5171097909</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>270</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9327,11 +9191,17 @@
         <v>-339600.2825097908</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>271</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9360,11 +9230,17 @@
         <v>-339566.1274097909</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>272.9</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9393,11 +9269,17 @@
         <v>-339566.1274097909</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>274.4</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9426,11 +9308,17 @@
         <v>-339596.1295097909</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>274.4</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9351,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9496,7 +9388,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9425,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9562,7 +9462,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9595,7 +9499,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9536,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9661,7 +9573,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9694,7 +9610,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9727,7 +9647,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9760,7 +9684,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9793,7 +9721,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9826,7 +9758,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9859,7 +9795,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9892,7 +9832,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9925,13 +9869,17 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-74388.18179999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-75460.97249999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-74573.74939999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-73540.40259999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-70666.23629999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-71245.42699999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-83365.54269999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-82956.51029999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-86013.28809999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-86172.94119999997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-101944.9831</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-102106.9831</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-102106.9831</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-114031.7713</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-101487.1829</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-106391.2100169108</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-105693.1230723309</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-108037.7216723309</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-108140.7204723309</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-108187.2930723309</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-103979.2930723309</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-106562.6135723309</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3751,17 +3751,11 @@
         <v>-185641.5674723308</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>266.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3794,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3831,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3864,13 +3850,15 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>267.5</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3975,11 +3963,9 @@
         <v>-183676.7683723308</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>269.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4051,11 +4037,9 @@
         <v>-180192.2281723308</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>269.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4127,11 +4111,9 @@
         <v>-176489.3417723308</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4462,11 +4444,9 @@
         <v>-195543.6886723308</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>270.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4501,11 +4481,9 @@
         <v>-195380.0346723308</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>270.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4540,11 +4518,9 @@
         <v>-195685.1066723308</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>270.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4579,11 +4555,9 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>270.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4618,11 +4592,9 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>270.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4657,11 +4629,9 @@
         <v>-198734.1066723308</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>270.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4735,11 +4705,9 @@
         <v>-198701.8442598078</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>271.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5047,9 +5015,11 @@
         <v>-207938.8215598078</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>271.5</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -6254,9 +6224,11 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6291,9 +6263,11 @@
         <v>-223025.1001624828</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6328,9 +6302,11 @@
         <v>-229314.1001624828</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>271.4</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6365,9 +6341,11 @@
         <v>-228205.1001624828</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6480,9 +6458,11 @@
         <v>-225365.7835624829</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>272</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6517,9 +6497,11 @@
         <v>-231723.0565624828</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>272.7</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6554,9 +6536,11 @@
         <v>-231721.0565624828</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>269.1</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6630,9 +6614,11 @@
         <v>-231592.0058624829</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>272.5</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6667,9 +6653,11 @@
         <v>-233251.8585624828</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>273.3</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6741,9 +6729,11 @@
         <v>-232936.8111624828</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>273.8</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6815,9 +6805,11 @@
         <v>-232757.2777624828</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>273.9</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6889,9 +6881,11 @@
         <v>-232511.2567624828</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>275.7</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7000,18 +6994,16 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -7037,15 +7029,11 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7074,15 +7062,11 @@
         <v>-232321.2814097908</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7111,15 +7095,11 @@
         <v>-232323.2045097908</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7148,15 +7128,11 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7185,15 +7161,11 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7222,15 +7194,11 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7259,15 +7227,11 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7296,15 +7260,11 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7333,15 +7293,11 @@
         <v>-232177.4898097908</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7370,15 +7326,11 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7407,15 +7359,11 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7444,15 +7392,11 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7481,15 +7425,11 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7518,15 +7458,11 @@
         <v>-232073.7140097908</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7555,15 +7491,11 @@
         <v>-262057.2933097908</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7592,15 +7524,11 @@
         <v>-260955.2933097908</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7629,15 +7557,11 @@
         <v>-258630.5368097909</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7666,15 +7590,11 @@
         <v>-258943.5513097908</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7703,15 +7623,11 @@
         <v>-257969.5513097908</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7740,15 +7656,11 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7777,15 +7689,11 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7814,15 +7722,11 @@
         <v>-248146.9940097908</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7851,15 +7755,11 @@
         <v>-278146.9940097908</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7888,15 +7788,11 @@
         <v>-298146.9940097908</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7925,15 +7821,11 @@
         <v>-293203.5793097908</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7962,15 +7854,11 @@
         <v>-293609.5791097908</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7999,15 +7887,11 @@
         <v>-293203.5792097908</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8036,15 +7920,11 @@
         <v>-292644.0770097908</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8077,11 +7957,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8110,15 +7986,11 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8147,17 +8019,11 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>278</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8186,15 +8052,11 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8223,15 +8085,11 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8260,15 +8118,11 @@
         <v>-278638.7579097908</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8297,15 +8151,11 @@
         <v>-278636.7579097908</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8334,15 +8184,11 @@
         <v>-278634.7579097908</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8371,15 +8217,11 @@
         <v>-282028.2811097908</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8408,15 +8250,11 @@
         <v>-282026.2811097908</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8445,15 +8283,11 @@
         <v>-286071.0389097909</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8482,15 +8316,11 @@
         <v>-286069.0389097909</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8519,15 +8349,11 @@
         <v>-296754.9557097909</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8556,15 +8382,11 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8593,15 +8415,11 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8630,15 +8448,11 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8667,15 +8481,11 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8708,11 +8518,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8745,11 +8551,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8782,11 +8584,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8819,11 +8617,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8856,11 +8650,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8893,11 +8683,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8930,11 +8716,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8967,11 +8749,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9004,11 +8782,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9037,17 +8811,11 @@
         <v>-341120.4799097909</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>270.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9076,15 +8844,15 @@
         <v>-341120.4799097909</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>271.1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>271.1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9118,10 +8886,12 @@
       <c r="I244" t="n">
         <v>271.1</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -9157,10 +8927,12 @@
       <c r="I245" t="n">
         <v>270</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -9196,7 +8968,9 @@
       <c r="I246" t="n">
         <v>271</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9235,7 +9009,9 @@
       <c r="I247" t="n">
         <v>272.9</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9274,7 +9050,9 @@
       <c r="I248" t="n">
         <v>274.4</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9313,7 +9091,9 @@
       <c r="I249" t="n">
         <v>274.4</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,10 +9127,14 @@
         <v>-338641.6495097909</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J250" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,10 +9168,14 @@
         <v>-338858.6495097909</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,10 +9209,14 @@
         <v>-338858.6495097909</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9458,10 +9250,14 @@
         <v>-338844.6695097909</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J253" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,10 +9291,14 @@
         <v>-331207.1737097909</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9532,10 +9332,14 @@
         <v>-331205.1737097909</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="J255" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9569,10 +9373,14 @@
         <v>-331205.1737097909</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="J256" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,10 +9414,14 @@
         <v>-332944.2180097909</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="J257" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9643,10 +9455,14 @@
         <v>-332942.2180097909</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>273</v>
+      </c>
+      <c r="J258" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9680,10 +9496,14 @@
         <v>-332944.2180097909</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="J259" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9720,7 +9540,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,7 +9579,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,17 +9615,19 @@
         <v>-333368.5932097909</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>271.1</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L262" t="n">
-        <v>1</v>
+        <v>1.00200848395426</v>
       </c>
       <c r="M262" t="inlineStr"/>
     </row>
@@ -9828,15 +9654,15 @@
         <v>-333366.5932097909</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>273</v>
+      </c>
+      <c r="J263" t="n">
+        <v>273</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9865,13 +9691,17 @@
         <v>-333366.5932097909</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="J264" t="n">
+        <v>273</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9880,6 +9710,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>-74388.18179999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-71015.14629999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-71786.18079999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-71245.42699999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-83365.54269999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-82956.51029999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-83059.51029999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-83086.51029999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-82759.51029999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-85692.05309999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-86013.28809999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-86405.28799999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-85809.03119999997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-86172.94119999997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-105845.7688</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-105693.1230723309</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-108037.7216723309</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-108140.7204723309</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-108074.2930723309</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-108187.2930723309</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-104092.2930723309</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-103979.2930723309</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-106562.6135723309</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3850,17 +3850,11 @@
         <v>-185172.4507723308</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>267.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3893,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3930,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4004,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4041,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4263,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4485,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4666,17 +4576,11 @@
         <v>-198697.2742598078</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>270.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4709,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4742,17 +4642,11 @@
         <v>-200985.8442598078</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>270.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4781,17 +4675,11 @@
         <v>-207840.8442598078</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>268.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4820,17 +4708,11 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>265.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4859,17 +4741,11 @@
         <v>-207837.8344598078</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>270.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4898,17 +4774,11 @@
         <v>-207832.6567598078</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>270.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4937,17 +4807,11 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4976,17 +4840,11 @@
         <v>-207810.0798598078</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>271.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5015,17 +4873,11 @@
         <v>-207938.8215598078</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>271.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5054,17 +4906,11 @@
         <v>-207953.0415598078</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>269.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5093,17 +4939,11 @@
         <v>-207950.9417598078</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5132,17 +4972,11 @@
         <v>-211424.5833598078</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5171,17 +5005,11 @@
         <v>-210648.6377598078</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>267.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5210,17 +5038,11 @@
         <v>-210630.2283341819</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5249,17 +5071,11 @@
         <v>-211057.137334182</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>271.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5288,17 +5104,11 @@
         <v>-216148.424134182</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5332,12 +5142,10 @@
       <c r="I144" t="n">
         <v>267.9</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5371,10 +5179,12 @@
       <c r="I145" t="n">
         <v>271</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>267.9</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -5410,10 +5220,12 @@
       <c r="I146" t="n">
         <v>269</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>267.9</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5449,12 +5261,10 @@
       <c r="I147" t="n">
         <v>269.2</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5483,15 +5293,15 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>269.2</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5522,15 +5332,15 @@
         <v>-218277.8477275399</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>270</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>269.2</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -5561,17 +5371,11 @@
         <v>-218241.8477275399</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5600,17 +5404,11 @@
         <v>-222879.2564275399</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>271.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5639,17 +5437,11 @@
         <v>-222781.2564275399</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5678,17 +5470,11 @@
         <v>-226391.3726275399</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>269.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5717,17 +5503,11 @@
         <v>-224301.9675275399</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>265.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5756,17 +5536,11 @@
         <v>-223124.9675275399</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>270.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5795,17 +5569,11 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>271.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5834,17 +5602,11 @@
         <v>-222986.1079624828</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>271.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5873,17 +5635,11 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>271.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5912,17 +5668,11 @@
         <v>-222363.2650624829</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>271.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5951,17 +5701,11 @@
         <v>-222805.2650624829</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>271.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5990,17 +5734,11 @@
         <v>-223683.2650624829</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>271.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6029,17 +5767,11 @@
         <v>-222140.0001624828</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>267.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6068,17 +5800,11 @@
         <v>-222125.0001624828</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6107,17 +5833,11 @@
         <v>-223011.0001624828</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6146,17 +5866,11 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6185,17 +5899,11 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>271.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6224,17 +5932,11 @@
         <v>-223009.1001624828</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>271.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6263,17 +5965,11 @@
         <v>-223025.1001624828</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>271.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6302,17 +5998,11 @@
         <v>-229314.1001624828</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>271.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6341,17 +6031,11 @@
         <v>-228205.1001624828</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>268.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6380,17 +6064,11 @@
         <v>-227567.8053624828</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>271.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6419,17 +6097,11 @@
         <v>-227553.8053624828</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>271.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6458,17 +6130,11 @@
         <v>-225365.7835624829</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6497,17 +6163,11 @@
         <v>-231723.0565624828</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>272.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6536,17 +6196,11 @@
         <v>-231721.0565624828</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>269.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6575,17 +6229,11 @@
         <v>-231761.0565624828</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>272.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6614,17 +6262,11 @@
         <v>-231592.0058624829</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>272.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6653,17 +6295,11 @@
         <v>-233251.8585624828</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>273.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6696,11 +6332,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6729,17 +6361,11 @@
         <v>-232936.8111624828</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>273.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6398,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6805,17 +6427,11 @@
         <v>-232757.2777624828</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>273.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6848,11 +6464,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6881,17 +6493,11 @@
         <v>-232511.2567624828</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>275.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6530,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +6563,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6994,16 +6592,14 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
       <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -7029,7 +6625,7 @@
         <v>-232272.3971097908</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7062,7 +6658,7 @@
         <v>-232321.2814097908</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7095,7 +6691,7 @@
         <v>-232323.2045097908</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7128,7 +6724,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7161,7 +6757,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7194,7 +6790,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7227,7 +6823,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7260,7 +6856,7 @@
         <v>-232321.2045097908</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7293,7 +6889,7 @@
         <v>-232177.4898097908</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7326,7 +6922,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7359,7 +6955,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7392,7 +6988,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7425,7 +7021,7 @@
         <v>-232052.1778097908</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7458,7 +7054,7 @@
         <v>-232073.7140097908</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7491,7 +7087,7 @@
         <v>-262057.2933097908</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7524,7 +7120,7 @@
         <v>-260955.2933097908</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7557,7 +7153,7 @@
         <v>-258630.5368097909</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7590,7 +7186,7 @@
         <v>-258943.5513097908</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7623,7 +7219,7 @@
         <v>-257969.5513097908</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7656,7 +7252,7 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7689,7 +7285,7 @@
         <v>-247028.3440097908</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7722,7 +7318,7 @@
         <v>-248146.9940097908</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7755,7 +7351,7 @@
         <v>-278146.9940097908</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7788,7 +7384,7 @@
         <v>-298146.9940097908</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7821,7 +7417,7 @@
         <v>-293203.5793097908</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7854,7 +7450,7 @@
         <v>-293609.5791097908</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7887,7 +7483,7 @@
         <v>-293203.5792097908</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7920,7 +7516,7 @@
         <v>-292644.0770097908</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7986,7 +7582,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8019,7 +7615,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8052,7 +7648,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8085,7 +7681,7 @@
         <v>-278653.1379097909</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8118,7 +7714,7 @@
         <v>-278638.7579097908</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8151,7 +7747,7 @@
         <v>-278636.7579097908</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8184,7 +7780,7 @@
         <v>-278634.7579097908</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8217,7 +7813,7 @@
         <v>-282028.2811097908</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8250,7 +7846,7 @@
         <v>-282026.2811097908</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8283,7 +7879,7 @@
         <v>-286071.0389097909</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8316,7 +7912,7 @@
         <v>-286069.0389097909</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8349,7 +7945,7 @@
         <v>-296754.9557097909</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8382,7 +7978,7 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8415,7 +8011,7 @@
         <v>-297330.2504097909</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8448,7 +8044,7 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8481,7 +8077,7 @@
         <v>-306726.9181097909</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8844,14 +8440,10 @@
         <v>-341120.4799097909</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>271.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
@@ -8889,11 +8481,7 @@
       <c r="J244" t="n">
         <v>271.1</v>
       </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9537,9 +9125,11 @@
         <v>-332940.2180097909</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>278.3</v>
+      </c>
       <c r="J260" t="n">
         <v>271.1</v>
       </c>
@@ -9576,9 +9166,11 @@
         <v>-332938.2180097909</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>279.4</v>
+      </c>
       <c r="J261" t="n">
         <v>271.1</v>
       </c>
@@ -9615,19 +9207,21 @@
         <v>-333368.5932097909</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>279.5</v>
+      </c>
       <c r="J262" t="n">
         <v>271.1</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L262" t="n">
-        <v>1.00200848395426</v>
+        <v>1</v>
       </c>
       <c r="M262" t="inlineStr"/>
     </row>
@@ -9660,9 +9254,13 @@
         <v>273</v>
       </c>
       <c r="J263" t="n">
-        <v>273</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+        <v>271.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9697,11 +9295,11 @@
         <v>278.3</v>
       </c>
       <c r="J264" t="n">
-        <v>273</v>
+        <v>271.1</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">

--- a/BackTest/2020-01-16 BackTest INS.xlsx
+++ b/BackTest/2020-01-16 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>175.2772</v>
       </c>
       <c r="G2" t="n">
-        <v>-74388.18179999999</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1072.7907</v>
       </c>
       <c r="G3" t="n">
-        <v>-75460.97249999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>887.2231</v>
       </c>
       <c r="G4" t="n">
-        <v>-74573.74939999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>994.3266</v>
       </c>
       <c r="G5" t="n">
-        <v>-74573.74939999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1033.3468</v>
       </c>
       <c r="G6" t="n">
-        <v>-73540.40259999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2874.1663</v>
       </c>
       <c r="G7" t="n">
-        <v>-70666.23629999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>348.91</v>
       </c>
       <c r="G8" t="n">
-        <v>-71015.14629999999</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>655.4285</v>
       </c>
       <c r="G9" t="n">
-        <v>-71015.14629999999</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>771.0345</v>
       </c>
       <c r="G10" t="n">
-        <v>-71786.18079999999</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>38.5019</v>
       </c>
       <c r="G11" t="n">
-        <v>-71786.18079999999</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>540.7538</v>
       </c>
       <c r="G12" t="n">
-        <v>-71245.42699999998</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>12120.1157</v>
       </c>
       <c r="G13" t="n">
-        <v>-83365.54269999998</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>306.0324</v>
       </c>
       <c r="G14" t="n">
-        <v>-83059.51029999998</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>104</v>
       </c>
       <c r="G15" t="n">
-        <v>-83059.51029999998</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>103</v>
       </c>
       <c r="G16" t="n">
-        <v>-82956.51029999998</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>103</v>
       </c>
       <c r="G17" t="n">
-        <v>-83059.51029999998</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>-83086.51029999998</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.1289</v>
       </c>
       <c r="G19" t="n">
-        <v>-83086.51029999998</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>327</v>
       </c>
       <c r="G20" t="n">
-        <v>-82759.51029999998</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>393.7578</v>
       </c>
       <c r="G21" t="n">
-        <v>-82759.51029999998</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2430.7889</v>
       </c>
       <c r="G22" t="n">
-        <v>-85190.29919999998</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>501.7539</v>
       </c>
       <c r="G23" t="n">
-        <v>-85692.05309999998</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>474</v>
       </c>
       <c r="G24" t="n">
-        <v>-85692.05309999998</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>474</v>
       </c>
       <c r="G25" t="n">
-        <v>-85692.05309999998</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>474</v>
       </c>
       <c r="G26" t="n">
-        <v>-85692.05309999998</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>99.7589</v>
       </c>
       <c r="G27" t="n">
-        <v>-85692.05309999998</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>494.61</v>
       </c>
       <c r="G28" t="n">
-        <v>-85197.44309999997</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>168.4921</v>
       </c>
       <c r="G29" t="n">
-        <v>-85365.93519999998</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>647.3529</v>
       </c>
       <c r="G30" t="n">
-        <v>-86013.28809999998</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>391.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>-86405.28799999997</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>772.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>-86405.28799999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>596.2568</v>
       </c>
       <c r="G33" t="n">
-        <v>-85809.03119999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>183.8299</v>
       </c>
       <c r="G34" t="n">
-        <v>-85809.03119999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>515.49</v>
       </c>
       <c r="G35" t="n">
-        <v>-85809.03119999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>302.7346</v>
       </c>
       <c r="G36" t="n">
-        <v>-85809.03119999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>31.95</v>
       </c>
       <c r="G37" t="n">
-        <v>-85809.03119999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>363.91</v>
       </c>
       <c r="G38" t="n">
-        <v>-86172.94119999997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>15772.0419</v>
       </c>
       <c r="G39" t="n">
-        <v>-101944.9831</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>162</v>
       </c>
       <c r="G40" t="n">
-        <v>-102106.9831</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1040.1916</v>
       </c>
       <c r="G41" t="n">
-        <v>-102106.9831</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>11924.7882</v>
       </c>
       <c r="G42" t="n">
-        <v>-114031.7713</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>12544.5884</v>
       </c>
       <c r="G43" t="n">
-        <v>-101487.1829</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4358.5859</v>
       </c>
       <c r="G44" t="n">
-        <v>-105845.7688</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>352.4880830892</v>
       </c>
       <c r="G45" t="n">
-        <v>-105493.2807169108</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>897.9293</v>
       </c>
       <c r="G46" t="n">
-        <v>-106391.2100169108</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>698.0869445799</v>
       </c>
       <c r="G47" t="n">
-        <v>-105693.1230723309</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2344.5986</v>
       </c>
       <c r="G48" t="n">
-        <v>-108037.7216723309</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>102.9988</v>
       </c>
       <c r="G49" t="n">
-        <v>-108140.7204723309</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>66.42740000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-108074.2930723309</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>113</v>
       </c>
       <c r="G51" t="n">
-        <v>-108187.2930723309</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4095</v>
       </c>
       <c r="G52" t="n">
-        <v>-104092.2930723309</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>113</v>
       </c>
       <c r="G53" t="n">
-        <v>-103979.2930723309</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2583.3205</v>
       </c>
       <c r="G54" t="n">
-        <v>-106562.6135723309</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>146</v>
       </c>
       <c r="G55" t="n">
-        <v>-106416.6135723309</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>546</v>
       </c>
       <c r="G56" t="n">
-        <v>-106962.6135723309</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>183.72</v>
       </c>
       <c r="G57" t="n">
-        <v>-107146.3335723309</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1684.8074</v>
       </c>
       <c r="G58" t="n">
-        <v>-108831.1409723309</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>259.81</v>
       </c>
       <c r="G59" t="n">
-        <v>-109090.9509723309</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>71.736</v>
       </c>
       <c r="G60" t="n">
-        <v>-109019.2149723309</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1105.8581</v>
       </c>
       <c r="G61" t="n">
-        <v>-110125.0730723309</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3169.8348</v>
       </c>
       <c r="G62" t="n">
-        <v>-113294.9078723308</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>41396.3372</v>
       </c>
       <c r="G63" t="n">
-        <v>-154691.2450723308</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>4467.1574</v>
       </c>
       <c r="G64" t="n">
-        <v>-150224.0876723308</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>750</v>
       </c>
       <c r="G65" t="n">
-        <v>-150974.0876723308</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>14124.9636</v>
       </c>
       <c r="G66" t="n">
-        <v>-165099.0512723308</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>6810.4505</v>
       </c>
       <c r="G67" t="n">
-        <v>-158288.6007723308</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1719.42</v>
       </c>
       <c r="G68" t="n">
-        <v>-160008.0207723308</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>-159988.0207723308</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>479.1712</v>
       </c>
       <c r="G70" t="n">
-        <v>-159988.0207723308</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>3517.72</v>
       </c>
       <c r="G71" t="n">
-        <v>-163505.7407723308</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3464.1993</v>
       </c>
       <c r="G72" t="n">
-        <v>-166969.9400723308</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>250</v>
       </c>
       <c r="G73" t="n">
-        <v>-166719.9400723308</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5756.647</v>
       </c>
       <c r="G74" t="n">
-        <v>-172476.5870723308</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>472.3285</v>
       </c>
       <c r="G75" t="n">
-        <v>-172476.5870723308</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>998.9171</v>
       </c>
       <c r="G76" t="n">
-        <v>-173475.5041723308</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>226.12</v>
       </c>
       <c r="G77" t="n">
-        <v>-173249.3841723308</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>144.3448</v>
       </c>
       <c r="G78" t="n">
-        <v>-173393.7289723308</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>144.02</v>
       </c>
       <c r="G79" t="n">
-        <v>-173537.7489723308</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>29</v>
       </c>
       <c r="G80" t="n">
-        <v>-173508.7489723308</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2433.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>-175942.7488723308</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>706</v>
       </c>
       <c r="G82" t="n">
-        <v>-175236.7488723308</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>-175486.7488723308</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>974</v>
       </c>
       <c r="G84" t="n">
-        <v>-174512.7488723308</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2788.1708</v>
       </c>
       <c r="G85" t="n">
-        <v>-174512.7488723308</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>144.3384</v>
       </c>
       <c r="G86" t="n">
-        <v>-174368.4104723308</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>249</v>
       </c>
       <c r="G87" t="n">
-        <v>-174119.4104723308</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>-175119.4104723308</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>598.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>-174520.4105723308</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>414.4338</v>
       </c>
       <c r="G90" t="n">
-        <v>-174934.8443723308</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>11.8</v>
       </c>
       <c r="G91" t="n">
-        <v>-174934.8443723308</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>69.90000000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-175004.7443723308</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>181</v>
       </c>
       <c r="G93" t="n">
-        <v>-174823.7443723308</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2159.57</v>
       </c>
       <c r="G94" t="n">
-        <v>-176983.3143723308</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1439</v>
       </c>
       <c r="G95" t="n">
-        <v>-176983.3143723308</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>148.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>-176983.3143723308</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>485</v>
       </c>
       <c r="G97" t="n">
-        <v>-176983.3143723308</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>242.81</v>
       </c>
       <c r="G98" t="n">
-        <v>-176983.3143723308</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>4863.525</v>
       </c>
       <c r="G99" t="n">
-        <v>-181846.8393723308</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>980.0037</v>
       </c>
       <c r="G100" t="n">
-        <v>-180866.8356723308</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>250</v>
       </c>
       <c r="G101" t="n">
-        <v>-180616.8356723308</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>5024.7318</v>
       </c>
       <c r="G102" t="n">
-        <v>-185641.5674723308</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,19 @@
         <v>24</v>
       </c>
       <c r="G103" t="n">
-        <v>-185617.5674723308</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>266.8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>266.8</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3507,23 @@
         <v>56</v>
       </c>
       <c r="G104" t="n">
-        <v>-185561.5674723308</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>266.9</v>
+      </c>
+      <c r="I104" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3545,23 @@
         <v>389.1167</v>
       </c>
       <c r="G105" t="n">
-        <v>-185172.4507723308</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>267.5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3583,19 @@
         <v>25.961</v>
       </c>
       <c r="G106" t="n">
-        <v>-185172.4507723308</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>267.6</v>
+      </c>
+      <c r="I106" t="n">
+        <v>267.6</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3617,23 @@
         <v>2995.6824</v>
       </c>
       <c r="G107" t="n">
-        <v>-182176.7683723308</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>267.6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3655,21 @@
         <v>1500</v>
       </c>
       <c r="G108" t="n">
-        <v>-183676.7683723308</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3691,15 @@
         <v>5159.5802</v>
       </c>
       <c r="G109" t="n">
-        <v>-178517.1881723308</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3721,15 @@
         <v>1675.04</v>
       </c>
       <c r="G110" t="n">
-        <v>-180192.2281723308</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3751,15 @@
         <v>3585.1624</v>
       </c>
       <c r="G111" t="n">
-        <v>-176607.0657723308</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3781,15 @@
         <v>117.724</v>
       </c>
       <c r="G112" t="n">
-        <v>-176489.3417723308</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3811,15 @@
         <v>951.05</v>
       </c>
       <c r="G113" t="n">
-        <v>-175538.2917723308</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3841,15 @@
         <v>869.4298</v>
       </c>
       <c r="G114" t="n">
-        <v>-176407.7215723309</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3871,15 @@
         <v>2359.89</v>
       </c>
       <c r="G115" t="n">
-        <v>-174047.8315723308</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3901,15 @@
         <v>1525.0701</v>
       </c>
       <c r="G116" t="n">
-        <v>-174047.8315723308</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3931,15 @@
         <v>21445.1432</v>
       </c>
       <c r="G117" t="n">
-        <v>-195492.9747723308</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3961,15 @@
         <v>439.1442</v>
       </c>
       <c r="G118" t="n">
-        <v>-195053.8305723308</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3991,15 @@
         <v>52.8009</v>
       </c>
       <c r="G119" t="n">
-        <v>-195001.0296723308</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4021,15 @@
         <v>31.95</v>
       </c>
       <c r="G120" t="n">
-        <v>-195001.0296723308</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4051,15 @@
         <v>542.659</v>
       </c>
       <c r="G121" t="n">
-        <v>-195543.6886723308</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4081,15 @@
         <v>163.654</v>
       </c>
       <c r="G122" t="n">
-        <v>-195380.0346723308</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4111,15 @@
         <v>305.072</v>
       </c>
       <c r="G123" t="n">
-        <v>-195685.1066723308</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4141,15 @@
         <v>3049</v>
       </c>
       <c r="G124" t="n">
-        <v>-198734.1066723308</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4171,15 @@
         <v>3342</v>
       </c>
       <c r="G125" t="n">
-        <v>-198734.1066723308</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4201,15 @@
         <v>2416.38</v>
       </c>
       <c r="G126" t="n">
-        <v>-198734.1066723308</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4231,15 @@
         <v>36.832412523</v>
       </c>
       <c r="G127" t="n">
-        <v>-198697.2742598078</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4261,15 @@
         <v>4.57</v>
       </c>
       <c r="G128" t="n">
-        <v>-198701.8442598078</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4291,15 @@
         <v>2284</v>
       </c>
       <c r="G129" t="n">
-        <v>-200985.8442598078</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4321,15 @@
         <v>6855</v>
       </c>
       <c r="G130" t="n">
-        <v>-207840.8442598078</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4351,15 @@
         <v>3.0098</v>
       </c>
       <c r="G131" t="n">
-        <v>-207837.8344598078</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4381,15 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-207837.8344598078</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4411,15 @@
         <v>5.1777</v>
       </c>
       <c r="G133" t="n">
-        <v>-207832.6567598078</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4441,15 @@
         <v>22.5769</v>
       </c>
       <c r="G134" t="n">
-        <v>-207810.0798598078</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4471,15 @@
         <v>10.4122</v>
       </c>
       <c r="G135" t="n">
-        <v>-207810.0798598078</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4501,15 @@
         <v>128.7417</v>
       </c>
       <c r="G136" t="n">
-        <v>-207938.8215598078</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4531,15 @@
         <v>14.22</v>
       </c>
       <c r="G137" t="n">
-        <v>-207953.0415598078</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4561,15 @@
         <v>2.0998</v>
       </c>
       <c r="G138" t="n">
-        <v>-207950.9417598078</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4591,15 @@
         <v>3473.6416</v>
       </c>
       <c r="G139" t="n">
-        <v>-211424.5833598078</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4621,15 @@
         <v>775.9456</v>
       </c>
       <c r="G140" t="n">
-        <v>-210648.6377598078</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4651,15 @@
         <v>18.4094256259</v>
       </c>
       <c r="G141" t="n">
-        <v>-210630.2283341819</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4681,15 @@
         <v>426.909</v>
       </c>
       <c r="G142" t="n">
-        <v>-211057.137334182</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4711,15 @@
         <v>5091.2868</v>
       </c>
       <c r="G143" t="n">
-        <v>-216148.424134182</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,22 +4741,15 @@
         <v>32.503306642</v>
       </c>
       <c r="G144" t="n">
-        <v>-216115.92082754</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="J144" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5171,26 +4771,15 @@
         <v>5582.9835</v>
       </c>
       <c r="G145" t="n">
-        <v>-221698.90432754</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>271</v>
-      </c>
-      <c r="J145" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5212,26 +4801,15 @@
         <v>2225.2862</v>
       </c>
       <c r="G146" t="n">
-        <v>-219473.61812754</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>269</v>
-      </c>
-      <c r="J146" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5253,22 +4831,15 @@
         <v>895.7704</v>
       </c>
       <c r="G147" t="n">
-        <v>-218577.8477275399</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5290,24 +4861,15 @@
         <v>300</v>
       </c>
       <c r="G148" t="n">
-        <v>-218277.8477275399</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5329,24 +4891,15 @@
         <v>595.7704</v>
       </c>
       <c r="G149" t="n">
-        <v>-218277.8477275399</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5368,18 +4921,15 @@
         <v>36</v>
       </c>
       <c r="G150" t="n">
-        <v>-218241.8477275399</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5401,18 +4951,15 @@
         <v>4637.4087</v>
       </c>
       <c r="G151" t="n">
-        <v>-222879.2564275399</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5434,18 +4981,15 @@
         <v>98</v>
       </c>
       <c r="G152" t="n">
-        <v>-222781.2564275399</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5467,18 +5011,15 @@
         <v>3610.1162</v>
       </c>
       <c r="G153" t="n">
-        <v>-226391.3726275399</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5500,18 +5041,15 @@
         <v>2089.4051</v>
       </c>
       <c r="G154" t="n">
-        <v>-224301.9675275399</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5533,18 +5071,15 @@
         <v>1177</v>
       </c>
       <c r="G155" t="n">
-        <v>-223124.9675275399</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5566,18 +5101,15 @@
         <v>138.8595650571</v>
       </c>
       <c r="G156" t="n">
-        <v>-222986.1079624828</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5599,18 +5131,15 @@
         <v>10.3206782159</v>
       </c>
       <c r="G157" t="n">
-        <v>-222986.1079624828</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5632,18 +5161,15 @@
         <v>622.8429</v>
       </c>
       <c r="G158" t="n">
-        <v>-222363.2650624829</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5665,18 +5191,15 @@
         <v>1377.157</v>
       </c>
       <c r="G159" t="n">
-        <v>-222363.2650624829</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5698,18 +5221,15 @@
         <v>442</v>
       </c>
       <c r="G160" t="n">
-        <v>-222805.2650624829</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5731,18 +5251,15 @@
         <v>878</v>
       </c>
       <c r="G161" t="n">
-        <v>-223683.2650624829</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5764,18 +5281,15 @@
         <v>1543.2649</v>
       </c>
       <c r="G162" t="n">
-        <v>-222140.0001624828</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5797,18 +5311,15 @@
         <v>15</v>
       </c>
       <c r="G163" t="n">
-        <v>-222125.0001624828</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5830,18 +5341,15 @@
         <v>886</v>
       </c>
       <c r="G164" t="n">
-        <v>-223011.0001624828</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5863,18 +5371,15 @@
         <v>1.9</v>
       </c>
       <c r="G165" t="n">
-        <v>-223009.1001624828</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5896,18 +5401,15 @@
         <v>35.9430743741</v>
       </c>
       <c r="G166" t="n">
-        <v>-223009.1001624828</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5929,18 +5431,15 @@
         <v>52.92</v>
       </c>
       <c r="G167" t="n">
-        <v>-223009.1001624828</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5962,18 +5461,15 @@
         <v>16</v>
       </c>
       <c r="G168" t="n">
-        <v>-223025.1001624828</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5995,18 +5491,15 @@
         <v>6289</v>
       </c>
       <c r="G169" t="n">
-        <v>-229314.1001624828</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6028,18 +5521,15 @@
         <v>1109</v>
       </c>
       <c r="G170" t="n">
-        <v>-228205.1001624828</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6061,18 +5551,15 @@
         <v>637.2948</v>
       </c>
       <c r="G171" t="n">
-        <v>-227567.8053624828</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6094,18 +5581,15 @@
         <v>14</v>
       </c>
       <c r="G172" t="n">
-        <v>-227553.8053624828</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6127,18 +5611,15 @@
         <v>2188.0218</v>
       </c>
       <c r="G173" t="n">
-        <v>-225365.7835624829</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6160,18 +5641,15 @@
         <v>6357.273</v>
       </c>
       <c r="G174" t="n">
-        <v>-231723.0565624828</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6193,18 +5671,15 @@
         <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>-231721.0565624828</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6226,18 +5701,15 @@
         <v>40</v>
       </c>
       <c r="G176" t="n">
-        <v>-231761.0565624828</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6259,18 +5731,15 @@
         <v>169.0507</v>
       </c>
       <c r="G177" t="n">
-        <v>-231592.0058624829</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6292,18 +5761,15 @@
         <v>1659.8527</v>
       </c>
       <c r="G178" t="n">
-        <v>-233251.8585624828</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6325,18 +5791,15 @@
         <v>315.0474</v>
       </c>
       <c r="G179" t="n">
-        <v>-232936.8111624828</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6358,18 +5821,15 @@
         <v>211</v>
       </c>
       <c r="G180" t="n">
-        <v>-232936.8111624828</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6391,18 +5851,15 @@
         <v>163.5334</v>
       </c>
       <c r="G181" t="n">
-        <v>-232773.2777624828</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6424,18 +5881,15 @@
         <v>16</v>
       </c>
       <c r="G182" t="n">
-        <v>-232757.2777624828</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6457,18 +5911,15 @@
         <v>246.021</v>
       </c>
       <c r="G183" t="n">
-        <v>-232511.2567624828</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6490,18 +5941,15 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-232511.2567624828</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6523,18 +5971,15 @@
         <v>166.516</v>
       </c>
       <c r="G185" t="n">
-        <v>-232344.7407624828</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6556,18 +6001,15 @@
         <v>72.34365269200001</v>
       </c>
       <c r="G186" t="n">
-        <v>-232272.3971097908</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6589,18 +6031,15 @@
         <v>60.5851</v>
       </c>
       <c r="G187" t="n">
-        <v>-232272.3971097908</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6622,18 +6061,15 @@
         <v>4695.5328</v>
       </c>
       <c r="G188" t="n">
-        <v>-232272.3971097908</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6655,18 +6091,15 @@
         <v>48.8843</v>
       </c>
       <c r="G189" t="n">
-        <v>-232321.2814097908</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6688,18 +6121,15 @@
         <v>1.9231</v>
       </c>
       <c r="G190" t="n">
-        <v>-232323.2045097908</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6721,18 +6151,15 @@
         <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>-232321.2045097908</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6754,18 +6181,15 @@
         <v>84.6407</v>
       </c>
       <c r="G192" t="n">
-        <v>-232321.2045097908</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6787,18 +6211,15 @@
         <v>883.9446</v>
       </c>
       <c r="G193" t="n">
-        <v>-232321.2045097908</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6820,18 +6241,15 @@
         <v>36.1822</v>
       </c>
       <c r="G194" t="n">
-        <v>-232321.2045097908</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6853,18 +6271,15 @@
         <v>133.2838</v>
       </c>
       <c r="G195" t="n">
-        <v>-232321.2045097908</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6886,18 +6301,15 @@
         <v>143.7147</v>
       </c>
       <c r="G196" t="n">
-        <v>-232177.4898097908</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6919,18 +6331,15 @@
         <v>125.312</v>
       </c>
       <c r="G197" t="n">
-        <v>-232052.1778097908</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6952,18 +6361,15 @@
         <v>29</v>
       </c>
       <c r="G198" t="n">
-        <v>-232052.1778097908</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6985,18 +6391,15 @@
         <v>4426.921</v>
       </c>
       <c r="G199" t="n">
-        <v>-232052.1778097908</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7018,18 +6421,15 @@
         <v>30</v>
       </c>
       <c r="G200" t="n">
-        <v>-232052.1778097908</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7051,18 +6451,15 @@
         <v>21.5362</v>
       </c>
       <c r="G201" t="n">
-        <v>-232073.7140097908</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7084,18 +6481,15 @@
         <v>29983.5793</v>
       </c>
       <c r="G202" t="n">
-        <v>-262057.2933097908</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7117,18 +6511,15 @@
         <v>1102</v>
       </c>
       <c r="G203" t="n">
-        <v>-260955.2933097908</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7150,18 +6541,15 @@
         <v>2324.7565</v>
       </c>
       <c r="G204" t="n">
-        <v>-258630.5368097909</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7183,18 +6571,15 @@
         <v>313.0145</v>
       </c>
       <c r="G205" t="n">
-        <v>-258943.5513097908</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7216,18 +6601,15 @@
         <v>974</v>
       </c>
       <c r="G206" t="n">
-        <v>-257969.5513097908</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7249,18 +6631,15 @@
         <v>10941.2073</v>
       </c>
       <c r="G207" t="n">
-        <v>-247028.3440097908</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7282,18 +6661,15 @@
         <v>1130.7927</v>
       </c>
       <c r="G208" t="n">
-        <v>-247028.3440097908</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7315,18 +6691,15 @@
         <v>1118.65</v>
       </c>
       <c r="G209" t="n">
-        <v>-248146.9940097908</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7348,18 +6721,15 @@
         <v>30000</v>
       </c>
       <c r="G210" t="n">
-        <v>-278146.9940097908</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7381,18 +6751,15 @@
         <v>20000</v>
       </c>
       <c r="G211" t="n">
-        <v>-298146.9940097908</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7414,18 +6781,15 @@
         <v>4943.4147</v>
       </c>
       <c r="G212" t="n">
-        <v>-293203.5793097908</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7447,18 +6811,15 @@
         <v>405.9998</v>
       </c>
       <c r="G213" t="n">
-        <v>-293609.5791097908</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7480,18 +6841,15 @@
         <v>405.9999</v>
       </c>
       <c r="G214" t="n">
-        <v>-293203.5792097908</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7513,18 +6871,15 @@
         <v>559.5022</v>
       </c>
       <c r="G215" t="n">
-        <v>-292644.0770097908</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7546,18 +6901,15 @@
         <v>28.7079</v>
       </c>
       <c r="G216" t="n">
-        <v>-292615.3691097908</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7579,18 +6931,15 @@
         <v>13962.2312</v>
       </c>
       <c r="G217" t="n">
-        <v>-278653.1379097909</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7612,18 +6961,15 @@
         <v>2907</v>
       </c>
       <c r="G218" t="n">
-        <v>-278653.1379097909</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7645,18 +6991,15 @@
         <v>5351.2713</v>
       </c>
       <c r="G219" t="n">
-        <v>-278653.1379097909</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7678,18 +7021,15 @@
         <v>2556.9638</v>
       </c>
       <c r="G220" t="n">
-        <v>-278653.1379097909</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7711,18 +7051,15 @@
         <v>14.38</v>
       </c>
       <c r="G221" t="n">
-        <v>-278638.7579097908</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7744,18 +7081,15 @@
         <v>2</v>
       </c>
       <c r="G222" t="n">
-        <v>-278636.7579097908</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7777,18 +7111,15 @@
         <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>-278634.7579097908</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7810,18 +7141,15 @@
         <v>3393.5232</v>
       </c>
       <c r="G224" t="n">
-        <v>-282028.2811097908</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7843,18 +7171,15 @@
         <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>-282026.2811097908</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7876,18 +7201,15 @@
         <v>4044.7578</v>
       </c>
       <c r="G226" t="n">
-        <v>-286071.0389097909</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7909,18 +7231,15 @@
         <v>2</v>
       </c>
       <c r="G227" t="n">
-        <v>-286069.0389097909</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7942,18 +7261,15 @@
         <v>10685.9168</v>
       </c>
       <c r="G228" t="n">
-        <v>-296754.9557097909</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7975,18 +7291,15 @@
         <v>575.2947</v>
       </c>
       <c r="G229" t="n">
-        <v>-297330.2504097909</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8008,18 +7321,15 @@
         <v>500</v>
       </c>
       <c r="G230" t="n">
-        <v>-297330.2504097909</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8041,18 +7351,15 @@
         <v>9396.6677</v>
       </c>
       <c r="G231" t="n">
-        <v>-306726.9181097909</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8074,18 +7381,15 @@
         <v>4750</v>
       </c>
       <c r="G232" t="n">
-        <v>-306726.9181097909</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8107,18 +7411,15 @@
         <v>1020.1412</v>
       </c>
       <c r="G233" t="n">
-        <v>-307747.0593097909</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8140,18 +7441,15 @@
         <v>27493.3199</v>
       </c>
       <c r="G234" t="n">
-        <v>-335240.3792097909</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8173,18 +7471,15 @@
         <v>15</v>
       </c>
       <c r="G235" t="n">
-        <v>-335255.3792097909</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8206,18 +7501,15 @@
         <v>3075.0594</v>
       </c>
       <c r="G236" t="n">
-        <v>-338330.4386097909</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8239,18 +7531,15 @@
         <v>2</v>
       </c>
       <c r="G237" t="n">
-        <v>-338328.4386097909</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8272,18 +7561,15 @@
         <v>2</v>
       </c>
       <c r="G238" t="n">
-        <v>-338326.4386097909</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8305,18 +7591,15 @@
         <v>10</v>
       </c>
       <c r="G239" t="n">
-        <v>-338336.4386097909</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8338,18 +7621,15 @@
         <v>36.91</v>
       </c>
       <c r="G240" t="n">
-        <v>-338373.3486097909</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8371,18 +7651,15 @@
         <v>2988.6296</v>
       </c>
       <c r="G241" t="n">
-        <v>-341361.9782097909</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8404,18 +7681,15 @@
         <v>241.4983</v>
       </c>
       <c r="G242" t="n">
-        <v>-341120.4799097909</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8437,18 +7711,15 @@
         <v>697.2091</v>
       </c>
       <c r="G243" t="n">
-        <v>-341120.4799097909</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8470,22 +7741,15 @@
         <v>66.17010000000001</v>
       </c>
       <c r="G244" t="n">
-        <v>-341186.6500097909</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="J244" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8507,26 +7771,15 @@
         <v>52.1329</v>
       </c>
       <c r="G245" t="n">
-        <v>-341134.5171097909</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>270</v>
-      </c>
-      <c r="J245" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8548,26 +7801,15 @@
         <v>1534.2346</v>
       </c>
       <c r="G246" t="n">
-        <v>-339600.2825097908</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>271</v>
-      </c>
-      <c r="J246" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8589,26 +7831,15 @@
         <v>34.1551</v>
       </c>
       <c r="G247" t="n">
-        <v>-339566.1274097909</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J247" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8630,26 +7861,15 @@
         <v>10.902</v>
       </c>
       <c r="G248" t="n">
-        <v>-339566.1274097909</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="J248" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8671,26 +7891,15 @@
         <v>30.0021</v>
       </c>
       <c r="G249" t="n">
-        <v>-339596.1295097909</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="J249" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8712,26 +7921,15 @@
         <v>954.48</v>
       </c>
       <c r="G250" t="n">
-        <v>-338641.6495097909</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J250" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8753,26 +7951,15 @@
         <v>217</v>
       </c>
       <c r="G251" t="n">
-        <v>-338858.6495097909</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="J251" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8794,26 +7981,15 @@
         <v>335.9086</v>
       </c>
       <c r="G252" t="n">
-        <v>-338858.6495097909</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J252" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8835,26 +8011,15 @@
         <v>13.98</v>
       </c>
       <c r="G253" t="n">
-        <v>-338844.6695097909</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J253" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8876,26 +8041,15 @@
         <v>7637.4958</v>
       </c>
       <c r="G254" t="n">
-        <v>-331207.1737097909</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="J254" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8917,26 +8071,15 @@
         <v>2</v>
       </c>
       <c r="G255" t="n">
-        <v>-331205.1737097909</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="J255" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8958,26 +8101,15 @@
         <v>498.1257</v>
       </c>
       <c r="G256" t="n">
-        <v>-331205.1737097909</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="J256" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8999,26 +8131,15 @@
         <v>1739.0443</v>
       </c>
       <c r="G257" t="n">
-        <v>-332944.2180097909</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="J257" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9040,26 +8161,15 @@
         <v>2</v>
       </c>
       <c r="G258" t="n">
-        <v>-332942.2180097909</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>273</v>
-      </c>
-      <c r="J258" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9081,26 +8191,15 @@
         <v>2</v>
       </c>
       <c r="G259" t="n">
-        <v>-332944.2180097909</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="J259" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9122,26 +8221,15 @@
         <v>4</v>
       </c>
       <c r="G260" t="n">
-        <v>-332940.2180097909</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="J260" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9163,26 +8251,15 @@
         <v>2</v>
       </c>
       <c r="G261" t="n">
-        <v>-332938.2180097909</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>279.4</v>
-      </c>
-      <c r="J261" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9204,26 +8281,15 @@
         <v>430.3752</v>
       </c>
       <c r="G262" t="n">
-        <v>-333368.5932097909</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="J262" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9245,26 +8311,15 @@
         <v>2</v>
       </c>
       <c r="G263" t="n">
-        <v>-333366.5932097909</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>273</v>
-      </c>
-      <c r="J263" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9286,26 +8341,15 @@
         <v>257</v>
       </c>
       <c r="G264" t="n">
-        <v>-333366.5932097909</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="J264" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
